--- a/Vorlagetool Excel Blattsammlung ICB4 V7_1.xlsx
+++ b/Vorlagetool Excel Blattsammlung ICB4 V7_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\Desktop\IPMAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7116D30B-ABE2-45A1-93CA-FFD29F2F53A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9183E23C-0E2C-4745-9EC1-1FBA90B8F802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1020" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="15" r:id="rId1"/>
@@ -1145,7 +1145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="298">
   <si>
     <t>Projektname</t>
   </si>
@@ -1199,9 +1199,6 @@
   </si>
   <si>
     <t>Vorname</t>
-  </si>
-  <si>
-    <t>% Mitwirkung</t>
   </si>
   <si>
     <t>Unterschrift Auftraggeber</t>
@@ -1352,9 +1349,6 @@
     <t>Stellvertretender Projektleiter</t>
   </si>
   <si>
-    <t>Herr Bremser</t>
-  </si>
-  <si>
     <t>soziales Umfeld</t>
   </si>
   <si>
@@ -1531,21 +1525,6 @@
   </si>
   <si>
     <t>Zwischentermine (Meilensteine)</t>
-  </si>
-  <si>
-    <t>MS1:</t>
-  </si>
-  <si>
-    <t>MS2:</t>
-  </si>
-  <si>
-    <t>MS3:</t>
-  </si>
-  <si>
-    <t>MS 4:</t>
-  </si>
-  <si>
-    <t>MS5:</t>
   </si>
   <si>
     <t>Projektbeteiligte</t>
@@ -1979,9 +1958,6 @@
     <t>Herr Merk</t>
   </si>
   <si>
-    <t>02.05.2016</t>
-  </si>
-  <si>
     <t>Herr Braun</t>
   </si>
   <si>
@@ -1994,13 +1970,146 @@
     <t>Herr Oliver (Pester Maschinen)</t>
   </si>
   <si>
-    <t>Herr Hummler (Bausch und Ströbel)</t>
-  </si>
-  <si>
-    <t>Anbindung aller Maschinen an das Uhlmann SCADA System und an das Kunden ERP System</t>
-  </si>
-  <si>
-    <t>Formatverwaltung, Fehleransicht, Auftragsverwaltung,  und  über das Uhlmann SCADA Syst</t>
+    <t>Formatverwaltung, Fehleransicht, Auftragsverwaltung, Audit-Trail und Einstellungen über das Uhlmann SCADA System</t>
+  </si>
+  <si>
+    <t>Auftragsdaten werden über das ERP System (SAP) zur Verfügung gestellt</t>
+  </si>
+  <si>
+    <t>Die Fremdmaschinenschnittstellen muss über eine globale Standardschnittstelle integriert werden</t>
+  </si>
+  <si>
+    <t>Wichtige Zähler müssen an das ERP System weiter gegeben werden</t>
+  </si>
+  <si>
+    <t>mittel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durch die Verwaltung vom ERP System über das Uhlmann SCADA System, kann sichergestellt werden, dass Auftragsdaten (z.B. Herstellungsdatum) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herr Eckert </t>
+  </si>
+  <si>
+    <t>30.11.2019</t>
+  </si>
+  <si>
+    <t>Bedienung und Verwaltung muss gleich der Uhlmann Maschinen sein</t>
+  </si>
+  <si>
+    <t>Zu diesem Teilprojekt (Anbindung der Fremdmaschinen) gehört nicht eine Schnittstelle, die 100% alle Fremdmaschinen anbinden kann. Der Fokus liegt auf die Pestermaschinen.</t>
+  </si>
+  <si>
+    <t>Mögliche Risiken sind, verpäteter "Design Freeze" für Konstruktion der Maschinen und der Software.
+Oder die Verschiebung der Fertigstellung der Maschine bis zur Integration.</t>
+  </si>
+  <si>
+    <t>30.11.2016</t>
+  </si>
+  <si>
+    <t>14 Monate</t>
+  </si>
+  <si>
+    <t>Projektleiter Kunde (Herr Merk) &lt;-&gt; Projektleiter Uhlmann (Herr Braun)</t>
+  </si>
+  <si>
+    <t>Projektleiter Uhlmann (Braun) &lt;-&gt; Projektleiter Pester (Oliver)</t>
+  </si>
+  <si>
+    <t>Teilprojektleiter Uhlmann Automatisierung (Janzen) &lt;-&gt; Projektleiter Uhlmann (Braun)</t>
+  </si>
+  <si>
+    <t>Entwickler Uhlmann</t>
+  </si>
+  <si>
+    <t>Kramer</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Mail &amp; Telefon</t>
+  </si>
+  <si>
+    <t>Arand</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>Automation Engineer (Uhlmann Maschinen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Teilprojektleiter &amp; Automation Engineer</t>
+  </si>
+  <si>
+    <t>Janzen</t>
+  </si>
+  <si>
+    <t>Dimitri</t>
+  </si>
+  <si>
+    <t>Projektleiter Pester Maschinen</t>
+  </si>
+  <si>
+    <t>Alfons</t>
+  </si>
+  <si>
+    <t>Projektleiter Uhlmann</t>
+  </si>
+  <si>
+    <t>Braun</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Projektleiter Kunde</t>
+  </si>
+  <si>
+    <t>Merk</t>
+  </si>
+  <si>
+    <t>Soren</t>
+  </si>
+  <si>
+    <t>Projektleiter Uhlmann Maschinen</t>
+  </si>
+  <si>
+    <t>Eckert</t>
+  </si>
+  <si>
+    <t>Steffen</t>
+  </si>
+  <si>
+    <t>Anbindung von Fremdmaschinen in das Uhlmann SCADA System bis zum 30.01.2018 und unter Einhaltung des Budgets von 310.000€</t>
+  </si>
+  <si>
+    <t>MS1: 
+Design Freeze
+28.02.2017</t>
+  </si>
+  <si>
+    <t>MS2:  Entwicklung
+28.08.2017</t>
+  </si>
+  <si>
+    <t>MS3: 
+Integration und Tests
+25.09.2017</t>
+  </si>
+  <si>
+    <t>MS 4:
+Testläufe
+27.11.2017</t>
+  </si>
+  <si>
+    <t>MS5:
+Abnahme
+16.12.2017</t>
+  </si>
+  <si>
+    <t>Einhaltung des Budgets von 310.000€</t>
   </si>
 </sst>
 </file>
@@ -3623,7 +3732,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="763">
+  <cellXfs count="766">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -4674,13 +4783,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5142,6 +5251,15 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5197,6 +5315,12 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5208,12 +5332,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7174,8 +7292,8 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>372227</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>281530</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>167230</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9993,8 +10111,8 @@
   </sheetPr>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" topLeftCell="B11" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
@@ -10041,7 +10159,7 @@
       </c>
       <c r="C3" s="475"/>
       <c r="D3" s="478" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E3" s="477"/>
       <c r="F3" s="477"/>
@@ -10054,11 +10172,11 @@
     <row r="4" spans="1:12">
       <c r="A4" s="397"/>
       <c r="B4" s="475" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="475"/>
       <c r="D4" s="478" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E4" s="477"/>
       <c r="F4" s="477"/>
@@ -10071,11 +10189,11 @@
     <row r="5" spans="1:12" ht="15" customHeight="1">
       <c r="A5" s="397"/>
       <c r="B5" s="475" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="475"/>
       <c r="D5" s="478" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E5" s="477"/>
       <c r="F5" s="477"/>
@@ -10088,11 +10206,11 @@
     <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="397"/>
       <c r="B6" s="475" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="475"/>
       <c r="D6" s="485" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E6" s="486"/>
       <c r="F6" s="486"/>
@@ -10105,11 +10223,11 @@
     <row r="7" spans="1:12">
       <c r="A7" s="397"/>
       <c r="B7" s="475" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="475"/>
       <c r="D7" s="476" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E7" s="477"/>
       <c r="F7" s="477"/>
@@ -10122,11 +10240,11 @@
     <row r="8" spans="1:12">
       <c r="A8" s="397"/>
       <c r="B8" s="475" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="475"/>
       <c r="D8" s="478" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E8" s="477"/>
       <c r="F8" s="477"/>
@@ -10139,11 +10257,11 @@
     <row r="9" spans="1:12">
       <c r="A9" s="397"/>
       <c r="B9" s="475" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="475"/>
       <c r="D9" s="478" t="s">
-        <v>68</v>
+        <v>260</v>
       </c>
       <c r="E9" s="477"/>
       <c r="F9" s="477"/>
@@ -10160,7 +10278,7 @@
       </c>
       <c r="C10" s="475"/>
       <c r="D10" s="478" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E10" s="477"/>
       <c r="F10" s="477"/>
@@ -10173,11 +10291,11 @@
     <row r="11" spans="1:12">
       <c r="A11" s="397"/>
       <c r="B11" s="479" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="480"/>
       <c r="D11" s="478" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E11" s="477"/>
       <c r="F11" s="477"/>
@@ -10192,7 +10310,7 @@
       <c r="B12" s="481"/>
       <c r="C12" s="482"/>
       <c r="D12" s="478" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E12" s="477"/>
       <c r="F12" s="477"/>
@@ -10207,7 +10325,7 @@
       <c r="B13" s="481"/>
       <c r="C13" s="482"/>
       <c r="D13" s="478" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E13" s="477"/>
       <c r="F13" s="477"/>
@@ -10221,9 +10339,7 @@
       <c r="A14" s="397"/>
       <c r="B14" s="481"/>
       <c r="C14" s="482"/>
-      <c r="D14" s="478" t="s">
-        <v>262</v>
-      </c>
+      <c r="D14" s="478"/>
       <c r="E14" s="477"/>
       <c r="F14" s="477"/>
       <c r="G14" s="477"/>
@@ -10274,7 +10390,7 @@
     <row r="18" spans="1:11" ht="15" customHeight="1">
       <c r="A18" s="397"/>
       <c r="B18" s="190" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C18" s="178"/>
       <c r="D18" s="178"/>
@@ -10289,7 +10405,7 @@
     <row r="19" spans="1:11" ht="15" customHeight="1">
       <c r="A19" s="397"/>
       <c r="B19" s="86" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C19" s="87"/>
       <c r="D19" s="178"/>
@@ -10304,7 +10420,7 @@
     <row r="20" spans="1:11" ht="15" customHeight="1">
       <c r="A20" s="177"/>
       <c r="B20" s="178" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C20" s="178"/>
       <c r="D20" s="178"/>
@@ -10319,7 +10435,7 @@
     <row r="21" spans="1:11" ht="15" customHeight="1">
       <c r="A21" s="178"/>
       <c r="B21" s="178" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C21" s="178"/>
       <c r="D21" s="178"/>
@@ -10334,7 +10450,7 @@
     <row r="22" spans="1:11" ht="15" customHeight="1">
       <c r="A22" s="178"/>
       <c r="B22" s="178" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C22" s="178"/>
       <c r="D22" s="178"/>
@@ -10362,7 +10478,7 @@
     <row r="24" spans="1:11" ht="15" customHeight="1">
       <c r="A24" s="178"/>
       <c r="B24" s="178" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C24" s="178"/>
       <c r="D24" s="178"/>
@@ -10377,7 +10493,7 @@
     <row r="25" spans="1:11" ht="15" customHeight="1">
       <c r="A25" s="178"/>
       <c r="B25" s="178" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C25" s="178"/>
       <c r="D25" s="178"/>
@@ -10511,7 +10627,7 @@
     <row r="4" spans="1:12" ht="18.75">
       <c r="A4" s="261"/>
       <c r="B4" s="551" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="552"/>
       <c r="D4" s="550" t="str">
@@ -10528,7 +10644,7 @@
     <row r="5" spans="1:12" ht="18.75">
       <c r="A5" s="261"/>
       <c r="B5" s="551" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C5" s="552"/>
       <c r="D5" s="653"/>
@@ -10542,7 +10658,7 @@
     <row r="6" spans="1:12" ht="18.75">
       <c r="A6" s="261"/>
       <c r="B6" s="551" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="552"/>
       <c r="D6" s="550" t="str">
@@ -10559,7 +10675,7 @@
     <row r="7" spans="1:12" ht="18.75">
       <c r="A7" s="261"/>
       <c r="B7" s="551" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="552"/>
       <c r="D7" s="550" t="str">
@@ -10576,12 +10692,12 @@
     <row r="8" spans="1:12" ht="18.75">
       <c r="A8" s="261"/>
       <c r="B8" s="551" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="552"/>
       <c r="D8" s="550" t="str">
         <f>Übersicht!D9</f>
-        <v>Herr Bremser</v>
+        <v xml:space="preserve">Herr Eckert </v>
       </c>
       <c r="E8" s="550"/>
       <c r="F8" s="550"/>
@@ -10593,15 +10709,15 @@
     <row r="9" spans="1:12" ht="18.75">
       <c r="A9" s="261"/>
       <c r="B9" s="551" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C9" s="552"/>
-      <c r="D9" s="661"/>
-      <c r="E9" s="661"/>
-      <c r="F9" s="661"/>
-      <c r="G9" s="661"/>
-      <c r="H9" s="661"/>
-      <c r="I9" s="661"/>
+      <c r="D9" s="664"/>
+      <c r="E9" s="664"/>
+      <c r="F9" s="664"/>
+      <c r="G9" s="664"/>
+      <c r="H9" s="664"/>
+      <c r="I9" s="664"/>
       <c r="J9" s="262"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1">
@@ -10611,7 +10727,7 @@
       </c>
       <c r="C10" s="541"/>
       <c r="D10" s="656" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E10" s="657"/>
       <c r="F10" s="657"/>
@@ -10671,9 +10787,9 @@
       <c r="A14" s="261"/>
       <c r="B14" s="546"/>
       <c r="C14" s="547"/>
-      <c r="D14" s="550" t="str">
+      <c r="D14" s="550">
         <f>Übersicht!D14</f>
-        <v>Herr Hummler (Bausch und Ströbel)</v>
+        <v>0</v>
       </c>
       <c r="E14" s="550"/>
       <c r="F14" s="550"/>
@@ -10712,7 +10828,7 @@
     <row r="17" spans="1:10">
       <c r="A17" s="261"/>
       <c r="B17" s="209" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C17" s="176"/>
       <c r="D17" s="176"/>
@@ -10842,7 +10958,7 @@
     <row r="27" spans="1:10" ht="18.75">
       <c r="A27" s="261"/>
       <c r="B27" s="487" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="488"/>
       <c r="D27" s="488"/>
@@ -10862,11 +10978,11 @@
       <c r="D28" s="491"/>
       <c r="E28" s="491"/>
       <c r="F28" s="492"/>
-      <c r="G28" s="497" t="s">
-        <v>97</v>
-      </c>
-      <c r="H28" s="498"/>
-      <c r="I28" s="499"/>
+      <c r="G28" s="658" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="659"/>
+      <c r="I28" s="660"/>
       <c r="J28" s="262"/>
     </row>
     <row r="29" spans="1:10" ht="18.75">
@@ -10877,7 +10993,7 @@
       <c r="E29" s="491"/>
       <c r="F29" s="492"/>
       <c r="G29" s="505" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H29" s="505"/>
       <c r="I29" s="505"/>
@@ -10958,7 +11074,7 @@
     <row r="36" spans="1:10" ht="18.75">
       <c r="A36" s="261"/>
       <c r="B36" s="217" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C36" s="210"/>
       <c r="D36" s="210"/>
@@ -11061,7 +11177,7 @@
         <v>11</v>
       </c>
       <c r="C44" s="487" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D44" s="488"/>
       <c r="E44" s="488"/>
@@ -11168,7 +11284,7 @@
     <row r="52" spans="1:10" ht="18.75">
       <c r="A52" s="261"/>
       <c r="B52" s="496" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C52" s="496"/>
       <c r="D52" s="496"/>
@@ -11229,12 +11345,12 @@
     </row>
     <row r="57" spans="1:10" ht="18.75">
       <c r="A57" s="261"/>
-      <c r="B57" s="658" t="s">
-        <v>160</v>
-      </c>
-      <c r="C57" s="659"/>
-      <c r="D57" s="659"/>
-      <c r="E57" s="660"/>
+      <c r="B57" s="661" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="662"/>
+      <c r="D57" s="662"/>
+      <c r="E57" s="663"/>
       <c r="F57" s="204"/>
       <c r="G57" s="204"/>
       <c r="H57" s="204"/>
@@ -11243,38 +11359,38 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="261"/>
-      <c r="B58" s="662"/>
-      <c r="C58" s="663"/>
-      <c r="D58" s="663"/>
-      <c r="E58" s="663"/>
-      <c r="F58" s="663"/>
-      <c r="G58" s="663"/>
-      <c r="H58" s="663"/>
-      <c r="I58" s="664"/>
+      <c r="B58" s="665"/>
+      <c r="C58" s="666"/>
+      <c r="D58" s="666"/>
+      <c r="E58" s="666"/>
+      <c r="F58" s="666"/>
+      <c r="G58" s="666"/>
+      <c r="H58" s="666"/>
+      <c r="I58" s="667"/>
       <c r="J58" s="262"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="261"/>
-      <c r="B59" s="665"/>
-      <c r="C59" s="666"/>
-      <c r="D59" s="666"/>
-      <c r="E59" s="666"/>
-      <c r="F59" s="666"/>
-      <c r="G59" s="666"/>
-      <c r="H59" s="666"/>
-      <c r="I59" s="667"/>
+      <c r="B59" s="668"/>
+      <c r="C59" s="669"/>
+      <c r="D59" s="669"/>
+      <c r="E59" s="669"/>
+      <c r="F59" s="669"/>
+      <c r="G59" s="669"/>
+      <c r="H59" s="669"/>
+      <c r="I59" s="670"/>
       <c r="J59" s="262"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="261"/>
-      <c r="B60" s="668"/>
-      <c r="C60" s="669"/>
-      <c r="D60" s="669"/>
-      <c r="E60" s="669"/>
-      <c r="F60" s="669"/>
-      <c r="G60" s="669"/>
-      <c r="H60" s="669"/>
-      <c r="I60" s="670"/>
+      <c r="B60" s="671"/>
+      <c r="C60" s="672"/>
+      <c r="D60" s="672"/>
+      <c r="E60" s="672"/>
+      <c r="F60" s="672"/>
+      <c r="G60" s="672"/>
+      <c r="H60" s="672"/>
+      <c r="I60" s="673"/>
       <c r="J60" s="262"/>
     </row>
     <row r="61" spans="1:10" ht="18.75">
@@ -11292,7 +11408,7 @@
     <row r="62" spans="1:10" ht="18.75">
       <c r="A62" s="261"/>
       <c r="B62" s="496" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C62" s="496"/>
       <c r="D62" s="496"/>
@@ -11306,17 +11422,17 @@
     <row r="63" spans="1:10" ht="37.5">
       <c r="A63" s="261"/>
       <c r="B63" s="216" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C63" s="528"/>
       <c r="D63" s="529"/>
       <c r="E63" s="216" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F63" s="528"/>
       <c r="G63" s="529"/>
       <c r="H63" s="216" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I63" s="128"/>
       <c r="J63" s="262"/>
@@ -11336,7 +11452,7 @@
     <row r="65" spans="1:10" ht="15" customHeight="1">
       <c r="A65" s="261"/>
       <c r="B65" s="496" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C65" s="496"/>
       <c r="D65" s="496"/>
@@ -11350,17 +11466,17 @@
     <row r="66" spans="1:10" ht="15" customHeight="1">
       <c r="A66" s="261"/>
       <c r="B66" s="129" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C66" s="535"/>
       <c r="D66" s="529"/>
       <c r="E66" s="129" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F66" s="535"/>
       <c r="G66" s="529"/>
       <c r="H66" s="129" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I66" s="128"/>
       <c r="J66" s="262"/>
@@ -11478,14 +11594,14 @@
     <row r="76" spans="1:10">
       <c r="A76" s="261"/>
       <c r="B76" s="175" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C76" s="176"/>
       <c r="D76" s="176"/>
       <c r="E76" s="176"/>
       <c r="F76" s="176"/>
       <c r="G76" s="175" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H76" s="176"/>
       <c r="I76" s="176"/>
@@ -11506,14 +11622,14 @@
     <row r="78" spans="1:10">
       <c r="A78" s="261"/>
       <c r="B78" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C78" s="81"/>
       <c r="D78" s="72"/>
       <c r="E78" s="176"/>
       <c r="F78" s="176"/>
       <c r="G78" s="82" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H78" s="83"/>
       <c r="I78" s="81"/>
@@ -11635,7 +11751,7 @@
     <row r="2" spans="1:9" ht="21">
       <c r="A2" s="462"/>
       <c r="B2" s="463" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C2" s="463"/>
       <c r="D2" s="463"/>
@@ -11658,14 +11774,14 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="466"/>
-      <c r="B4" s="671" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="671"/>
-      <c r="D4" s="671"/>
-      <c r="E4" s="671"/>
+      <c r="B4" s="674" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="674"/>
+      <c r="D4" s="674"/>
+      <c r="E4" s="674"/>
       <c r="F4" s="441" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G4" s="442"/>
       <c r="H4" s="442"/>
@@ -11673,80 +11789,80 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="466"/>
-      <c r="B5" s="671" t="s">
-        <v>252</v>
-      </c>
-      <c r="C5" s="671"/>
-      <c r="D5" s="671"/>
-      <c r="E5" s="671"/>
-      <c r="F5" s="672"/>
-      <c r="G5" s="672"/>
-      <c r="H5" s="672"/>
+      <c r="B5" s="674" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="674"/>
+      <c r="D5" s="674"/>
+      <c r="E5" s="674"/>
+      <c r="F5" s="675"/>
+      <c r="G5" s="675"/>
+      <c r="H5" s="675"/>
       <c r="I5" s="469"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="466"/>
-      <c r="B6" s="671" t="s">
+      <c r="B6" s="674" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="671"/>
-      <c r="D6" s="671"/>
-      <c r="E6" s="671"/>
-      <c r="F6" s="672"/>
-      <c r="G6" s="672"/>
-      <c r="H6" s="672"/>
+      <c r="C6" s="674"/>
+      <c r="D6" s="674"/>
+      <c r="E6" s="674"/>
+      <c r="F6" s="675"/>
+      <c r="G6" s="675"/>
+      <c r="H6" s="675"/>
       <c r="I6" s="469"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="466"/>
-      <c r="B7" s="671" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="671"/>
-      <c r="D7" s="671"/>
-      <c r="E7" s="671"/>
-      <c r="F7" s="672"/>
-      <c r="G7" s="672"/>
-      <c r="H7" s="672"/>
+      <c r="B7" s="674" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="674"/>
+      <c r="D7" s="674"/>
+      <c r="E7" s="674"/>
+      <c r="F7" s="675"/>
+      <c r="G7" s="675"/>
+      <c r="H7" s="675"/>
       <c r="I7" s="469"/>
     </row>
     <row r="8" spans="1:9" ht="14.45" customHeight="1">
       <c r="A8" s="466"/>
-      <c r="B8" s="671" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="671"/>
-      <c r="D8" s="671"/>
-      <c r="E8" s="671"/>
-      <c r="F8" s="673"/>
-      <c r="G8" s="673"/>
-      <c r="H8" s="673"/>
+      <c r="B8" s="674" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="674"/>
+      <c r="D8" s="674"/>
+      <c r="E8" s="674"/>
+      <c r="F8" s="676"/>
+      <c r="G8" s="676"/>
+      <c r="H8" s="676"/>
       <c r="I8" s="469"/>
     </row>
     <row r="9" spans="1:9" ht="14.45" customHeight="1">
       <c r="A9" s="466"/>
-      <c r="B9" s="671" t="s">
-        <v>232</v>
-      </c>
-      <c r="C9" s="671"/>
-      <c r="D9" s="671"/>
-      <c r="E9" s="671"/>
-      <c r="F9" s="672"/>
-      <c r="G9" s="672"/>
-      <c r="H9" s="672"/>
+      <c r="B9" s="674" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="674"/>
+      <c r="D9" s="674"/>
+      <c r="E9" s="674"/>
+      <c r="F9" s="675"/>
+      <c r="G9" s="675"/>
+      <c r="H9" s="675"/>
       <c r="I9" s="469"/>
     </row>
     <row r="10" spans="1:9" ht="14.45" customHeight="1">
       <c r="A10" s="466"/>
-      <c r="B10" s="671" t="s">
-        <v>233</v>
-      </c>
-      <c r="C10" s="671"/>
-      <c r="D10" s="671"/>
-      <c r="E10" s="671"/>
-      <c r="F10" s="672"/>
-      <c r="G10" s="672"/>
-      <c r="H10" s="672"/>
+      <c r="B10" s="674" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" s="674"/>
+      <c r="D10" s="674"/>
+      <c r="E10" s="674"/>
+      <c r="F10" s="675"/>
+      <c r="G10" s="675"/>
+      <c r="H10" s="675"/>
       <c r="I10" s="469"/>
     </row>
     <row r="11" spans="1:9">
@@ -11765,31 +11881,31 @@
       <c r="B12" s="454"/>
       <c r="C12" s="455"/>
       <c r="D12" s="456" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E12" s="457"/>
       <c r="F12" s="448" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G12" s="448"/>
-      <c r="H12" s="681"/>
+      <c r="H12" s="680"/>
       <c r="I12" s="471"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="470"/>
       <c r="B13" s="454" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C13" s="455"/>
       <c r="D13" s="456" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E13" s="457"/>
       <c r="F13" s="448" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G13" s="448"/>
-      <c r="H13" s="681"/>
+      <c r="H13" s="680"/>
       <c r="I13" s="471"/>
     </row>
     <row r="14" spans="1:9">
@@ -11797,12 +11913,12 @@
       <c r="B14" s="458"/>
       <c r="C14" s="459"/>
       <c r="D14" s="461" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E14" s="457"/>
       <c r="F14" s="448"/>
       <c r="G14" s="448"/>
-      <c r="H14" s="681"/>
+      <c r="H14" s="680"/>
       <c r="I14" s="471"/>
     </row>
     <row r="15" spans="1:9">
@@ -11832,31 +11948,31 @@
       <c r="B17" s="454"/>
       <c r="C17" s="455"/>
       <c r="D17" s="456" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E17" s="457"/>
       <c r="F17" s="448" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G17" s="448"/>
-      <c r="H17" s="681"/>
+      <c r="H17" s="680"/>
       <c r="I17" s="471"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="470"/>
       <c r="B18" s="454" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C18" s="455"/>
       <c r="D18" s="456" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E18" s="457"/>
       <c r="F18" s="448" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G18" s="448"/>
-      <c r="H18" s="681"/>
+      <c r="H18" s="680"/>
       <c r="I18" s="471"/>
     </row>
     <row r="19" spans="1:9">
@@ -11864,12 +11980,12 @@
       <c r="B19" s="458"/>
       <c r="C19" s="459"/>
       <c r="D19" s="456" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E19" s="457"/>
       <c r="F19" s="448"/>
       <c r="G19" s="448"/>
-      <c r="H19" s="681"/>
+      <c r="H19" s="680"/>
       <c r="I19" s="471"/>
     </row>
     <row r="20" spans="1:9">
@@ -11899,31 +12015,31 @@
       <c r="B22" s="454"/>
       <c r="C22" s="455"/>
       <c r="D22" s="456" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E22" s="457"/>
       <c r="F22" s="448" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G22" s="448"/>
-      <c r="H22" s="681"/>
+      <c r="H22" s="680"/>
       <c r="I22" s="471"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="470"/>
       <c r="B23" s="454" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C23" s="455"/>
       <c r="D23" s="456" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E23" s="457"/>
       <c r="F23" s="448" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G23" s="448"/>
-      <c r="H23" s="681"/>
+      <c r="H23" s="680"/>
       <c r="I23" s="471"/>
     </row>
     <row r="24" spans="1:9">
@@ -11931,12 +12047,12 @@
       <c r="B24" s="458"/>
       <c r="C24" s="459"/>
       <c r="D24" s="456" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E24" s="457"/>
       <c r="F24" s="448"/>
       <c r="G24" s="448"/>
-      <c r="H24" s="681"/>
+      <c r="H24" s="680"/>
       <c r="I24" s="471"/>
     </row>
     <row r="25" spans="1:9">
@@ -11966,29 +12082,29 @@
       <c r="B27" s="454"/>
       <c r="C27" s="455"/>
       <c r="D27" s="456" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E27" s="457"/>
       <c r="F27" s="460" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G27" s="448"/>
-      <c r="H27" s="681"/>
+      <c r="H27" s="680"/>
       <c r="I27" s="471"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="470"/>
       <c r="B28" s="454" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C28" s="459"/>
       <c r="D28" s="456" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E28" s="457"/>
       <c r="F28" s="448"/>
       <c r="G28" s="448"/>
-      <c r="H28" s="681"/>
+      <c r="H28" s="680"/>
       <c r="I28" s="471"/>
     </row>
     <row r="29" spans="1:9">
@@ -11996,12 +12112,12 @@
       <c r="B29" s="458"/>
       <c r="C29" s="459"/>
       <c r="D29" s="456" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E29" s="457"/>
       <c r="F29" s="448"/>
       <c r="G29" s="448"/>
-      <c r="H29" s="682"/>
+      <c r="H29" s="681"/>
       <c r="I29" s="471"/>
     </row>
     <row r="30" spans="1:9">
@@ -12017,102 +12133,102 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="466"/>
-      <c r="B31" s="675" t="s">
-        <v>241</v>
-      </c>
-      <c r="C31" s="677"/>
-      <c r="D31" s="676"/>
-      <c r="E31" s="678"/>
-      <c r="F31" s="679"/>
-      <c r="G31" s="679"/>
-      <c r="H31" s="680"/>
+      <c r="B31" s="678" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="682"/>
+      <c r="D31" s="679"/>
+      <c r="E31" s="683"/>
+      <c r="F31" s="684"/>
+      <c r="G31" s="684"/>
+      <c r="H31" s="685"/>
       <c r="I31" s="469"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="466"/>
-      <c r="B32" s="675" t="s">
-        <v>242</v>
-      </c>
-      <c r="C32" s="677"/>
-      <c r="D32" s="676"/>
-      <c r="E32" s="678"/>
-      <c r="F32" s="679"/>
-      <c r="G32" s="679"/>
-      <c r="H32" s="680"/>
+      <c r="B32" s="678" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="682"/>
+      <c r="D32" s="679"/>
+      <c r="E32" s="683"/>
+      <c r="F32" s="684"/>
+      <c r="G32" s="684"/>
+      <c r="H32" s="685"/>
       <c r="I32" s="469"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="466"/>
-      <c r="B33" s="675" t="s">
-        <v>243</v>
-      </c>
-      <c r="C33" s="677"/>
-      <c r="D33" s="676"/>
-      <c r="E33" s="678"/>
-      <c r="F33" s="679"/>
-      <c r="G33" s="679"/>
-      <c r="H33" s="680"/>
+      <c r="B33" s="678" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" s="682"/>
+      <c r="D33" s="679"/>
+      <c r="E33" s="683"/>
+      <c r="F33" s="684"/>
+      <c r="G33" s="684"/>
+      <c r="H33" s="685"/>
       <c r="I33" s="469"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="466"/>
-      <c r="B34" s="674" t="s">
-        <v>244</v>
-      </c>
-      <c r="C34" s="674"/>
-      <c r="D34" s="674"/>
+      <c r="B34" s="677" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="677"/>
+      <c r="D34" s="677"/>
       <c r="E34" s="444"/>
-      <c r="F34" s="675" t="s">
-        <v>245</v>
-      </c>
-      <c r="G34" s="676"/>
+      <c r="F34" s="678" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" s="679"/>
       <c r="H34" s="444"/>
       <c r="I34" s="469"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="466"/>
-      <c r="B35" s="674" t="s">
-        <v>246</v>
-      </c>
-      <c r="C35" s="674"/>
-      <c r="D35" s="674"/>
+      <c r="B35" s="677" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35" s="677"/>
+      <c r="D35" s="677"/>
       <c r="E35" s="444"/>
-      <c r="F35" s="675" t="s">
-        <v>247</v>
-      </c>
-      <c r="G35" s="676"/>
+      <c r="F35" s="678" t="s">
+        <v>240</v>
+      </c>
+      <c r="G35" s="679"/>
       <c r="H35" s="444"/>
       <c r="I35" s="469"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="466"/>
-      <c r="B36" s="674" t="s">
-        <v>248</v>
-      </c>
-      <c r="C36" s="674"/>
-      <c r="D36" s="674"/>
+      <c r="B36" s="677" t="s">
+        <v>241</v>
+      </c>
+      <c r="C36" s="677"/>
+      <c r="D36" s="677"/>
       <c r="E36" s="445"/>
-      <c r="F36" s="675" t="s">
-        <v>249</v>
-      </c>
-      <c r="G36" s="676"/>
+      <c r="F36" s="678" t="s">
+        <v>242</v>
+      </c>
+      <c r="G36" s="679"/>
       <c r="H36" s="444"/>
       <c r="I36" s="469"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="466"/>
-      <c r="B37" s="674" t="s">
-        <v>250</v>
-      </c>
-      <c r="C37" s="674"/>
-      <c r="D37" s="674"/>
+      <c r="B37" s="677" t="s">
+        <v>243</v>
+      </c>
+      <c r="C37" s="677"/>
+      <c r="D37" s="677"/>
       <c r="E37" s="446">
         <v>0</v>
       </c>
-      <c r="F37" s="675" t="s">
-        <v>251</v>
-      </c>
-      <c r="G37" s="676"/>
+      <c r="F37" s="678" t="s">
+        <v>244</v>
+      </c>
+      <c r="G37" s="679"/>
       <c r="H37" s="444"/>
       <c r="I37" s="469"/>
     </row>
@@ -12244,7 +12360,7 @@
     <row r="1" spans="1:16" ht="21">
       <c r="A1" s="430"/>
       <c r="B1" s="431" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C1" s="432"/>
       <c r="D1" s="433"/>
@@ -12282,12 +12398,12 @@
     <row r="3" spans="1:16">
       <c r="A3" s="375"/>
       <c r="B3" s="425" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C3" s="177"/>
       <c r="D3" s="177"/>
       <c r="E3" s="425" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F3" s="177"/>
       <c r="G3" s="177"/>
@@ -12306,15 +12422,15 @@
       <c r="B4" s="436"/>
       <c r="C4" s="177"/>
       <c r="D4" s="177"/>
-      <c r="E4" s="684"/>
-      <c r="F4" s="684"/>
-      <c r="G4" s="684"/>
-      <c r="H4" s="684"/>
-      <c r="I4" s="684"/>
-      <c r="J4" s="684"/>
-      <c r="K4" s="684"/>
-      <c r="L4" s="684"/>
-      <c r="M4" s="684"/>
+      <c r="E4" s="687"/>
+      <c r="F4" s="687"/>
+      <c r="G4" s="687"/>
+      <c r="H4" s="687"/>
+      <c r="I4" s="687"/>
+      <c r="J4" s="687"/>
+      <c r="K4" s="687"/>
+      <c r="L4" s="687"/>
+      <c r="M4" s="687"/>
       <c r="N4" s="177"/>
       <c r="O4" s="177"/>
       <c r="P4" s="377"/>
@@ -12339,20 +12455,20 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="375"/>
-      <c r="B6" s="685" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="685"/>
+      <c r="B6" s="688" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="688"/>
       <c r="D6" s="179"/>
-      <c r="E6" s="686" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" s="686"/>
-      <c r="G6" s="686"/>
-      <c r="H6" s="686"/>
-      <c r="I6" s="686"/>
-      <c r="J6" s="686"/>
-      <c r="K6" s="686"/>
+      <c r="E6" s="689" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="689"/>
+      <c r="G6" s="689"/>
+      <c r="H6" s="689"/>
+      <c r="I6" s="689"/>
+      <c r="J6" s="689"/>
+      <c r="K6" s="689"/>
       <c r="L6" s="177"/>
       <c r="M6" s="177"/>
       <c r="N6" s="177"/>
@@ -12361,10 +12477,10 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="375"/>
-      <c r="B7" s="687" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="687"/>
+      <c r="B7" s="690" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="690"/>
       <c r="D7" s="148"/>
       <c r="E7" s="180">
         <v>20</v>
@@ -12385,10 +12501,10 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="375"/>
-      <c r="B8" s="687" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="687"/>
+      <c r="B8" s="690" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="690"/>
       <c r="D8" s="148"/>
       <c r="E8" s="180"/>
       <c r="F8" s="180">
@@ -12407,10 +12523,10 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="375"/>
-      <c r="B9" s="687" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="687"/>
+      <c r="B9" s="690" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="690"/>
       <c r="D9" s="148"/>
       <c r="E9" s="180"/>
       <c r="F9" s="180"/>
@@ -12429,10 +12545,10 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="375"/>
-      <c r="B10" s="687" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="687"/>
+      <c r="B10" s="690" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="690"/>
       <c r="D10" s="148"/>
       <c r="E10" s="180"/>
       <c r="F10" s="180"/>
@@ -12451,10 +12567,10 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="375"/>
-      <c r="B11" s="688" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" s="688"/>
+      <c r="B11" s="691" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="691"/>
       <c r="D11" s="181"/>
       <c r="E11" s="182"/>
       <c r="F11" s="182"/>
@@ -12473,10 +12589,10 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="375"/>
-      <c r="B12" s="689" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12" s="689"/>
+      <c r="B12" s="692" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="692"/>
       <c r="D12" s="148"/>
       <c r="E12" s="437">
         <f>SUM(E7:E11)</f>
@@ -12532,10 +12648,10 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="375"/>
-      <c r="B14" s="690" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="690"/>
+      <c r="B14" s="693" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="693"/>
       <c r="D14" s="177"/>
       <c r="E14" s="177"/>
       <c r="F14" s="177"/>
@@ -12552,10 +12668,10 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="375"/>
-      <c r="B15" s="690" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="690"/>
+      <c r="B15" s="693" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="693"/>
       <c r="D15" s="177"/>
       <c r="E15" s="177"/>
       <c r="F15" s="177"/>
@@ -12573,7 +12689,7 @@
     <row r="16" spans="1:16" ht="15.75" thickBot="1">
       <c r="A16" s="375"/>
       <c r="B16" s="177"/>
-      <c r="C16" s="683">
+      <c r="C16" s="686">
         <v>45</v>
       </c>
       <c r="D16" s="183"/>
@@ -12593,7 +12709,7 @@
     <row r="17" spans="1:16">
       <c r="A17" s="375"/>
       <c r="B17" s="177"/>
-      <c r="C17" s="683"/>
+      <c r="C17" s="686"/>
       <c r="D17" s="177"/>
       <c r="E17" s="184"/>
       <c r="F17" s="177"/>
@@ -12611,7 +12727,7 @@
     <row r="18" spans="1:16" ht="15.75" thickBot="1">
       <c r="A18" s="375"/>
       <c r="B18" s="177"/>
-      <c r="C18" s="683">
+      <c r="C18" s="686">
         <v>40</v>
       </c>
       <c r="D18" s="183"/>
@@ -12621,11 +12737,11 @@
       <c r="H18" s="186"/>
       <c r="I18" s="186"/>
       <c r="J18" s="186"/>
-      <c r="K18" s="691" t="s">
-        <v>182</v>
-      </c>
-      <c r="L18" s="691"/>
-      <c r="M18" s="691"/>
+      <c r="K18" s="694" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" s="694"/>
+      <c r="M18" s="694"/>
       <c r="N18" s="177"/>
       <c r="O18" s="177"/>
       <c r="P18" s="377"/>
@@ -12633,7 +12749,7 @@
     <row r="19" spans="1:16">
       <c r="A19" s="375"/>
       <c r="B19" s="177"/>
-      <c r="C19" s="683"/>
+      <c r="C19" s="686"/>
       <c r="D19" s="177"/>
       <c r="E19" s="184"/>
       <c r="F19" s="187"/>
@@ -12641,9 +12757,9 @@
       <c r="H19" s="177"/>
       <c r="I19" s="177"/>
       <c r="J19" s="177"/>
-      <c r="K19" s="691"/>
-      <c r="L19" s="691"/>
-      <c r="M19" s="691"/>
+      <c r="K19" s="694"/>
+      <c r="L19" s="694"/>
+      <c r="M19" s="694"/>
       <c r="N19" s="177"/>
       <c r="O19" s="177"/>
       <c r="P19" s="377"/>
@@ -12651,7 +12767,7 @@
     <row r="20" spans="1:16" ht="15.75" thickBot="1">
       <c r="A20" s="375"/>
       <c r="B20" s="177"/>
-      <c r="C20" s="683">
+      <c r="C20" s="686">
         <v>35</v>
       </c>
       <c r="D20" s="183"/>
@@ -12671,7 +12787,7 @@
     <row r="21" spans="1:16">
       <c r="A21" s="375"/>
       <c r="B21" s="177"/>
-      <c r="C21" s="683"/>
+      <c r="C21" s="686"/>
       <c r="D21" s="177"/>
       <c r="E21" s="184"/>
       <c r="F21" s="187"/>
@@ -12689,7 +12805,7 @@
     <row r="22" spans="1:16" ht="15.75" thickBot="1">
       <c r="A22" s="375"/>
       <c r="B22" s="177"/>
-      <c r="C22" s="683">
+      <c r="C22" s="686">
         <v>30</v>
       </c>
       <c r="D22" s="183"/>
@@ -12709,7 +12825,7 @@
     <row r="23" spans="1:16">
       <c r="A23" s="375"/>
       <c r="B23" s="177"/>
-      <c r="C23" s="683"/>
+      <c r="C23" s="686"/>
       <c r="D23" s="177"/>
       <c r="E23" s="184"/>
       <c r="F23" s="187"/>
@@ -12727,7 +12843,7 @@
     <row r="24" spans="1:16" ht="15.75" thickBot="1">
       <c r="A24" s="375"/>
       <c r="B24" s="177"/>
-      <c r="C24" s="683">
+      <c r="C24" s="686">
         <v>25</v>
       </c>
       <c r="D24" s="183"/>
@@ -12747,7 +12863,7 @@
     <row r="25" spans="1:16">
       <c r="A25" s="375"/>
       <c r="B25" s="177"/>
-      <c r="C25" s="683"/>
+      <c r="C25" s="686"/>
       <c r="D25" s="177"/>
       <c r="E25" s="184"/>
       <c r="F25" s="187"/>
@@ -12765,9 +12881,9 @@
     <row r="26" spans="1:16" ht="15.75" thickBot="1">
       <c r="A26" s="375"/>
       <c r="B26" s="177" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="683">
+        <v>164</v>
+      </c>
+      <c r="C26" s="686">
         <v>20</v>
       </c>
       <c r="D26" s="183"/>
@@ -12787,7 +12903,7 @@
     <row r="27" spans="1:16">
       <c r="A27" s="375"/>
       <c r="B27" s="177"/>
-      <c r="C27" s="683"/>
+      <c r="C27" s="686"/>
       <c r="D27" s="177"/>
       <c r="E27" s="187"/>
       <c r="F27" s="187"/>
@@ -12805,7 +12921,7 @@
     <row r="28" spans="1:16" ht="15.75" thickBot="1">
       <c r="A28" s="375"/>
       <c r="B28" s="177"/>
-      <c r="C28" s="683">
+      <c r="C28" s="686">
         <v>15</v>
       </c>
       <c r="D28" s="188"/>
@@ -12825,7 +12941,7 @@
     <row r="29" spans="1:16">
       <c r="A29" s="375"/>
       <c r="B29" s="177"/>
-      <c r="C29" s="683"/>
+      <c r="C29" s="686"/>
       <c r="D29" s="177"/>
       <c r="E29" s="187"/>
       <c r="F29" s="187"/>
@@ -12843,7 +12959,7 @@
     <row r="30" spans="1:16" ht="15.75" thickBot="1">
       <c r="A30" s="375"/>
       <c r="B30" s="177"/>
-      <c r="C30" s="683">
+      <c r="C30" s="686">
         <v>10</v>
       </c>
       <c r="D30" s="188"/>
@@ -12863,7 +12979,7 @@
     <row r="31" spans="1:16">
       <c r="A31" s="375"/>
       <c r="B31" s="177"/>
-      <c r="C31" s="683"/>
+      <c r="C31" s="686"/>
       <c r="D31" s="177"/>
       <c r="E31" s="187"/>
       <c r="F31" s="187"/>
@@ -12881,7 +12997,7 @@
     <row r="32" spans="1:16" ht="15.75" thickBot="1">
       <c r="A32" s="375"/>
       <c r="B32" s="177"/>
-      <c r="C32" s="683">
+      <c r="C32" s="686">
         <v>0</v>
       </c>
       <c r="D32" s="177"/>
@@ -12901,7 +13017,7 @@
     <row r="33" spans="1:16">
       <c r="A33" s="375"/>
       <c r="B33" s="177"/>
-      <c r="C33" s="683"/>
+      <c r="C33" s="686"/>
       <c r="D33" s="177"/>
       <c r="E33" s="438">
         <v>1</v>
@@ -12926,7 +13042,7 @@
       </c>
       <c r="L33" s="177"/>
       <c r="M33" s="439" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="N33" s="177"/>
       <c r="O33" s="177"/>
@@ -12960,7 +13076,7 @@
       </c>
       <c r="L34" s="177"/>
       <c r="M34" s="439" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="N34" s="177"/>
       <c r="O34" s="177"/>
@@ -13030,7 +13146,7 @@
     <row r="1" spans="1:7" ht="21">
       <c r="A1" s="421"/>
       <c r="B1" s="422" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C1" s="422"/>
       <c r="D1" s="422"/>
@@ -13041,7 +13157,7 @@
     <row r="2" spans="1:7">
       <c r="A2" s="184"/>
       <c r="B2" s="425" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="426"/>
       <c r="D2" s="177"/>
@@ -13060,50 +13176,50 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="184"/>
-      <c r="B4" s="695" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="696"/>
-      <c r="D4" s="697" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="697"/>
-      <c r="F4" s="698"/>
+      <c r="B4" s="698" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="699"/>
+      <c r="D4" s="700" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="700"/>
+      <c r="F4" s="701"/>
       <c r="G4" s="427"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="184"/>
-      <c r="B5" s="699" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" s="700"/>
-      <c r="D5" s="700" t="s">
-        <v>188</v>
-      </c>
-      <c r="E5" s="700"/>
-      <c r="F5" s="701"/>
+      <c r="B5" s="702" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="703"/>
+      <c r="D5" s="703" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="703"/>
+      <c r="F5" s="704"/>
       <c r="G5" s="427"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="184"/>
-      <c r="B6" s="692" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" s="693"/>
-      <c r="D6" s="693" t="s">
-        <v>190</v>
-      </c>
-      <c r="E6" s="693"/>
-      <c r="F6" s="694"/>
+      <c r="B6" s="695" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="696"/>
+      <c r="D6" s="696" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="696"/>
+      <c r="F6" s="697"/>
       <c r="G6" s="427"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="184"/>
-      <c r="B7" s="702"/>
-      <c r="C7" s="703"/>
-      <c r="D7" s="703"/>
-      <c r="E7" s="703"/>
-      <c r="F7" s="704"/>
+      <c r="B7" s="705"/>
+      <c r="C7" s="706"/>
+      <c r="D7" s="706"/>
+      <c r="E7" s="706"/>
+      <c r="F7" s="707"/>
       <c r="G7" s="427"/>
     </row>
     <row r="8" spans="1:7">
@@ -13118,116 +13234,116 @@
     <row r="9" spans="1:7">
       <c r="A9" s="184"/>
       <c r="B9" s="419" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C9" s="420"/>
-      <c r="D9" s="697" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="697"/>
-      <c r="F9" s="698"/>
+      <c r="D9" s="700" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="700"/>
+      <c r="F9" s="701"/>
       <c r="G9" s="427"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="184"/>
-      <c r="B10" s="699" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" s="700"/>
-      <c r="D10" s="700" t="s">
-        <v>193</v>
-      </c>
-      <c r="E10" s="700"/>
-      <c r="F10" s="701"/>
+      <c r="B10" s="702" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="703"/>
+      <c r="D10" s="703" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="703"/>
+      <c r="F10" s="704"/>
       <c r="G10" s="427"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="184"/>
-      <c r="B11" s="692" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" s="693"/>
-      <c r="D11" s="693" t="s">
-        <v>195</v>
-      </c>
-      <c r="E11" s="693"/>
-      <c r="F11" s="694"/>
+      <c r="B11" s="695" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="696"/>
+      <c r="D11" s="696" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="696"/>
+      <c r="F11" s="697"/>
       <c r="G11" s="427"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="184"/>
-      <c r="B12" s="692" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="693"/>
-      <c r="D12" s="693" t="s">
-        <v>196</v>
-      </c>
-      <c r="E12" s="693"/>
-      <c r="F12" s="694"/>
+      <c r="B12" s="695" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="696"/>
+      <c r="D12" s="696" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="696"/>
+      <c r="F12" s="697"/>
       <c r="G12" s="427"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="184"/>
-      <c r="B13" s="692" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="693"/>
-      <c r="D13" s="693" t="s">
-        <v>198</v>
-      </c>
-      <c r="E13" s="693"/>
-      <c r="F13" s="694"/>
+      <c r="B13" s="695" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="696"/>
+      <c r="D13" s="696" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="696"/>
+      <c r="F13" s="697"/>
       <c r="G13" s="427"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="184"/>
-      <c r="B14" s="692" t="s">
-        <v>199</v>
-      </c>
-      <c r="C14" s="693"/>
-      <c r="D14" s="693" t="s">
-        <v>200</v>
-      </c>
-      <c r="E14" s="693"/>
-      <c r="F14" s="694"/>
+      <c r="B14" s="695" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="696"/>
+      <c r="D14" s="696" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="696"/>
+      <c r="F14" s="697"/>
       <c r="G14" s="427"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="184"/>
-      <c r="B15" s="692" t="s">
-        <v>201</v>
-      </c>
-      <c r="C15" s="693"/>
-      <c r="D15" s="693" t="s">
-        <v>202</v>
-      </c>
-      <c r="E15" s="693"/>
-      <c r="F15" s="694"/>
+      <c r="B15" s="695" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="696"/>
+      <c r="D15" s="696" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="696"/>
+      <c r="F15" s="697"/>
       <c r="G15" s="427"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="184"/>
-      <c r="B16" s="692" t="s">
-        <v>203</v>
-      </c>
-      <c r="C16" s="693"/>
-      <c r="D16" s="707" t="s">
-        <v>204</v>
-      </c>
-      <c r="E16" s="707"/>
-      <c r="F16" s="708"/>
+      <c r="B16" s="695" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="696"/>
+      <c r="D16" s="710" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="710"/>
+      <c r="F16" s="711"/>
       <c r="G16" s="427"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="184"/>
-      <c r="B17" s="702"/>
-      <c r="C17" s="703"/>
-      <c r="D17" s="703" t="s">
-        <v>205</v>
-      </c>
-      <c r="E17" s="703"/>
-      <c r="F17" s="704"/>
+      <c r="B17" s="705"/>
+      <c r="C17" s="706"/>
+      <c r="D17" s="706" t="s">
+        <v>198</v>
+      </c>
+      <c r="E17" s="706"/>
+      <c r="F17" s="707"/>
       <c r="G17" s="427"/>
     </row>
     <row r="18" spans="1:7">
@@ -13242,7 +13358,7 @@
     <row r="19" spans="1:7">
       <c r="A19" s="184"/>
       <c r="B19" s="425" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C19" s="177"/>
       <c r="D19" s="177"/>
@@ -13252,43 +13368,43 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="184"/>
-      <c r="B20" s="709"/>
-      <c r="C20" s="710"/>
+      <c r="B20" s="712"/>
+      <c r="C20" s="713"/>
       <c r="D20" s="191" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E20" s="191" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F20" s="192" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G20" s="427"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="184"/>
-      <c r="B21" s="711" t="s">
-        <v>210</v>
-      </c>
-      <c r="C21" s="685"/>
+      <c r="B21" s="714" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="688"/>
       <c r="D21" s="173" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E21" s="173" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F21" s="193" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G21" s="427"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="184"/>
-      <c r="B22" s="712" t="str">
+      <c r="B22" s="715" t="str">
         <f>B6</f>
         <v>Materialkosten</v>
       </c>
-      <c r="C22" s="713"/>
+      <c r="C22" s="716"/>
       <c r="D22" s="194">
         <v>1</v>
       </c>
@@ -13300,16 +13416,16 @@
         <v>37805</v>
       </c>
       <c r="G22" s="427" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="184"/>
-      <c r="B23" s="705" t="str">
+      <c r="B23" s="708" t="str">
         <f t="shared" ref="B23:B29" si="0">B10&amp;" [h]"</f>
         <v>Mechanische Konstruktion [h]</v>
       </c>
-      <c r="C23" s="706"/>
+      <c r="C23" s="709"/>
       <c r="D23" s="197">
         <v>110</v>
       </c>
@@ -13324,11 +13440,11 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="184"/>
-      <c r="B24" s="705" t="str">
+      <c r="B24" s="708" t="str">
         <f t="shared" si="0"/>
         <v>Elektrische Konstruktion [h]</v>
       </c>
-      <c r="C24" s="706"/>
+      <c r="C24" s="709"/>
       <c r="D24" s="197">
         <v>30</v>
       </c>
@@ -13343,11 +13459,11 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="184"/>
-      <c r="B25" s="705" t="str">
+      <c r="B25" s="708" t="str">
         <f t="shared" si="0"/>
         <v>Auftragsabwicklung [h]</v>
       </c>
-      <c r="C25" s="706"/>
+      <c r="C25" s="709"/>
       <c r="D25" s="197">
         <v>15</v>
       </c>
@@ -13362,11 +13478,11 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="184"/>
-      <c r="B26" s="705" t="str">
+      <c r="B26" s="708" t="str">
         <f t="shared" si="0"/>
         <v>Produktion / Fertigung [h]</v>
       </c>
-      <c r="C26" s="706"/>
+      <c r="C26" s="709"/>
       <c r="D26" s="198">
         <v>75</v>
       </c>
@@ -13381,11 +13497,11 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="184"/>
-      <c r="B27" s="705" t="str">
+      <c r="B27" s="708" t="str">
         <f t="shared" si="0"/>
         <v>Montage [h]</v>
       </c>
-      <c r="C27" s="706"/>
+      <c r="C27" s="709"/>
       <c r="D27" s="198">
         <v>30</v>
       </c>
@@ -13400,11 +13516,11 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="184"/>
-      <c r="B28" s="705" t="str">
+      <c r="B28" s="708" t="str">
         <f t="shared" si="0"/>
         <v>Versuch [h]</v>
       </c>
-      <c r="C28" s="706"/>
+      <c r="C28" s="709"/>
       <c r="D28" s="198">
         <v>40</v>
       </c>
@@ -13419,11 +13535,11 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="184"/>
-      <c r="B29" s="705" t="str">
+      <c r="B29" s="708" t="str">
         <f t="shared" si="0"/>
         <v>Dokumentation [h]</v>
       </c>
-      <c r="C29" s="706"/>
+      <c r="C29" s="709"/>
       <c r="D29" s="198">
         <v>15</v>
       </c>
@@ -13438,8 +13554,8 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="184"/>
-      <c r="B30" s="714"/>
-      <c r="C30" s="715"/>
+      <c r="B30" s="717"/>
+      <c r="C30" s="718"/>
       <c r="D30" s="199"/>
       <c r="E30" s="200"/>
       <c r="F30" s="196">
@@ -13451,12 +13567,12 @@
     <row r="31" spans="1:7">
       <c r="A31" s="184"/>
       <c r="B31" s="428" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C31" s="177"/>
       <c r="D31" s="177"/>
       <c r="E31" s="201" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F31" s="202">
         <f>SUM(F22:F30)</f>
@@ -13613,28 +13729,28 @@
     </row>
     <row r="3" spans="1:58" ht="15.75" customHeight="1">
       <c r="A3" s="249"/>
-      <c r="B3" s="725" t="s">
+      <c r="B3" s="728" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="726"/>
-      <c r="D3" s="718" t="str">
+      <c r="C3" s="729"/>
+      <c r="D3" s="721" t="str">
         <f>Übersicht!D3</f>
         <v>Anbindung von Fremdmaschinen in das Uhlmann SCADA System</v>
       </c>
-      <c r="E3" s="719"/>
-      <c r="F3" s="720"/>
+      <c r="E3" s="722"/>
+      <c r="F3" s="723"/>
       <c r="G3" s="235"/>
-      <c r="H3" s="730" t="s">
+      <c r="H3" s="733" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="722"/>
-      <c r="J3" s="722"/>
-      <c r="K3" s="721" t="str">
+      <c r="I3" s="725"/>
+      <c r="J3" s="725"/>
+      <c r="K3" s="724" t="str">
         <f>Übersicht!D11</f>
         <v>Herr Janzen (Automatisierung)</v>
       </c>
-      <c r="L3" s="722"/>
-      <c r="M3" s="722"/>
+      <c r="L3" s="725"/>
+      <c r="M3" s="725"/>
       <c r="N3" s="236"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
@@ -13656,12 +13772,12 @@
       <c r="AF3" s="25"/>
       <c r="AG3" s="25"/>
       <c r="AH3" s="26"/>
-      <c r="AI3" s="723"/>
-      <c r="AJ3" s="723"/>
-      <c r="AK3" s="723"/>
-      <c r="AL3" s="723"/>
-      <c r="AM3" s="723"/>
-      <c r="AN3" s="723"/>
+      <c r="AI3" s="726"/>
+      <c r="AJ3" s="726"/>
+      <c r="AK3" s="726"/>
+      <c r="AL3" s="726"/>
+      <c r="AM3" s="726"/>
+      <c r="AN3" s="726"/>
       <c r="AO3" s="27"/>
       <c r="AP3" s="27"/>
       <c r="AQ3" s="27"/>
@@ -13683,26 +13799,26 @@
     </row>
     <row r="4" spans="1:58" ht="15.75">
       <c r="A4" s="250"/>
-      <c r="B4" s="725" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="726"/>
-      <c r="D4" s="718" t="str">
+      <c r="B4" s="728" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="729"/>
+      <c r="D4" s="721" t="str">
         <f>Übersicht!D5</f>
         <v>Pharmazeutischer Konzern spezialisiert auf Insulin</v>
       </c>
-      <c r="E4" s="719"/>
-      <c r="F4" s="720"/>
+      <c r="E4" s="722"/>
+      <c r="F4" s="723"/>
       <c r="G4" s="235"/>
-      <c r="H4" s="722"/>
-      <c r="I4" s="722"/>
-      <c r="J4" s="722"/>
-      <c r="K4" s="721" t="str">
+      <c r="H4" s="725"/>
+      <c r="I4" s="725"/>
+      <c r="J4" s="725"/>
+      <c r="K4" s="724" t="str">
         <f>Übersicht!D12</f>
         <v>Herr Eckert (Uhlmann Maschinen)</v>
       </c>
-      <c r="L4" s="722"/>
-      <c r="M4" s="722"/>
+      <c r="L4" s="725"/>
+      <c r="M4" s="725"/>
       <c r="N4" s="236"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
@@ -13751,26 +13867,26 @@
     </row>
     <row r="5" spans="1:58" ht="15.75">
       <c r="A5" s="242"/>
-      <c r="B5" s="725" t="s">
+      <c r="B5" s="728" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="726"/>
-      <c r="D5" s="718" t="str">
+      <c r="C5" s="729"/>
+      <c r="D5" s="721" t="str">
         <f>Übersicht!D6</f>
         <v>503703186</v>
       </c>
-      <c r="E5" s="719"/>
-      <c r="F5" s="720"/>
+      <c r="E5" s="722"/>
+      <c r="F5" s="723"/>
       <c r="G5" s="235"/>
-      <c r="H5" s="722"/>
-      <c r="I5" s="722"/>
-      <c r="J5" s="722"/>
-      <c r="K5" s="721" t="str">
+      <c r="H5" s="725"/>
+      <c r="I5" s="725"/>
+      <c r="J5" s="725"/>
+      <c r="K5" s="724" t="str">
         <f>Übersicht!D13</f>
         <v>Herr Oliver (Pester Maschinen)</v>
       </c>
-      <c r="L5" s="722"/>
-      <c r="M5" s="722"/>
+      <c r="L5" s="725"/>
+      <c r="M5" s="725"/>
       <c r="N5" s="236"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
@@ -13787,22 +13903,22 @@
       <c r="AA5" s="20"/>
       <c r="AB5" s="21"/>
       <c r="AC5" s="22"/>
-      <c r="AD5" s="716"/>
-      <c r="AE5" s="716"/>
-      <c r="AF5" s="716"/>
-      <c r="AG5" s="716"/>
-      <c r="AH5" s="716"/>
-      <c r="AI5" s="716"/>
-      <c r="AJ5" s="716"/>
-      <c r="AK5" s="716"/>
-      <c r="AL5" s="724"/>
-      <c r="AM5" s="724"/>
-      <c r="AN5" s="724"/>
-      <c r="AO5" s="724"/>
-      <c r="AP5" s="724"/>
-      <c r="AQ5" s="724"/>
-      <c r="AR5" s="724"/>
-      <c r="AS5" s="724"/>
+      <c r="AD5" s="719"/>
+      <c r="AE5" s="719"/>
+      <c r="AF5" s="719"/>
+      <c r="AG5" s="719"/>
+      <c r="AH5" s="719"/>
+      <c r="AI5" s="719"/>
+      <c r="AJ5" s="719"/>
+      <c r="AK5" s="719"/>
+      <c r="AL5" s="727"/>
+      <c r="AM5" s="727"/>
+      <c r="AN5" s="727"/>
+      <c r="AO5" s="727"/>
+      <c r="AP5" s="727"/>
+      <c r="AQ5" s="727"/>
+      <c r="AR5" s="727"/>
+      <c r="AS5" s="727"/>
       <c r="AT5" s="27"/>
       <c r="AU5" s="27"/>
       <c r="AV5" s="3"/>
@@ -13816,26 +13932,26 @@
     </row>
     <row r="6" spans="1:58" ht="15.75">
       <c r="A6" s="242"/>
-      <c r="B6" s="725" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="726"/>
-      <c r="D6" s="718" t="str">
+      <c r="B6" s="728" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="729"/>
+      <c r="D6" s="721" t="str">
         <f>Übersicht!D7</f>
         <v>Herr Merk</v>
       </c>
-      <c r="E6" s="719"/>
-      <c r="F6" s="720"/>
+      <c r="E6" s="722"/>
+      <c r="F6" s="723"/>
       <c r="G6" s="235"/>
-      <c r="H6" s="722"/>
-      <c r="I6" s="722"/>
-      <c r="J6" s="722"/>
-      <c r="K6" s="721" t="str">
+      <c r="H6" s="725"/>
+      <c r="I6" s="725"/>
+      <c r="J6" s="725"/>
+      <c r="K6" s="724">
         <f>Übersicht!D14</f>
-        <v>Herr Hummler (Bausch und Ströbel)</v>
-      </c>
-      <c r="L6" s="722"/>
-      <c r="M6" s="722"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="725"/>
+      <c r="M6" s="725"/>
       <c r="N6" s="236"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
@@ -13881,26 +13997,26 @@
     </row>
     <row r="7" spans="1:58" ht="15.75">
       <c r="A7" s="250"/>
-      <c r="B7" s="725" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="726"/>
-      <c r="D7" s="718" t="str">
+      <c r="B7" s="728" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="729"/>
+      <c r="D7" s="721" t="str">
         <f>Übersicht!D8</f>
         <v>Herr Braun</v>
       </c>
-      <c r="E7" s="719"/>
-      <c r="F7" s="720"/>
+      <c r="E7" s="722"/>
+      <c r="F7" s="723"/>
       <c r="G7" s="235"/>
-      <c r="H7" s="722"/>
-      <c r="I7" s="722"/>
-      <c r="J7" s="722"/>
-      <c r="K7" s="721">
+      <c r="H7" s="725"/>
+      <c r="I7" s="725"/>
+      <c r="J7" s="725"/>
+      <c r="K7" s="724">
         <f>Übersicht!D15</f>
         <v>0</v>
       </c>
-      <c r="L7" s="722"/>
-      <c r="M7" s="722"/>
+      <c r="L7" s="725"/>
+      <c r="M7" s="725"/>
       <c r="N7" s="236"/>
       <c r="O7" s="19"/>
       <c r="P7" s="19"/>
@@ -13949,16 +14065,16 @@
     </row>
     <row r="8" spans="1:58" ht="15.75">
       <c r="A8" s="242"/>
-      <c r="B8" s="725" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="726"/>
-      <c r="D8" s="718" t="str">
+      <c r="B8" s="728" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="729"/>
+      <c r="D8" s="721" t="str">
         <f>Übersicht!D9</f>
-        <v>Herr Bremser</v>
-      </c>
-      <c r="E8" s="719"/>
-      <c r="F8" s="720"/>
+        <v xml:space="preserve">Herr Eckert </v>
+      </c>
+      <c r="E8" s="722"/>
+      <c r="F8" s="723"/>
       <c r="G8" s="235"/>
       <c r="H8" s="235"/>
       <c r="I8" s="235"/>
@@ -13982,22 +14098,22 @@
       <c r="AA8" s="34"/>
       <c r="AB8" s="21"/>
       <c r="AC8" s="22"/>
-      <c r="AD8" s="716"/>
-      <c r="AE8" s="716"/>
-      <c r="AF8" s="716"/>
-      <c r="AG8" s="716"/>
-      <c r="AH8" s="716"/>
-      <c r="AI8" s="716"/>
-      <c r="AJ8" s="716"/>
-      <c r="AK8" s="716"/>
-      <c r="AL8" s="717"/>
-      <c r="AM8" s="717"/>
-      <c r="AN8" s="717"/>
-      <c r="AO8" s="717"/>
-      <c r="AP8" s="717"/>
-      <c r="AQ8" s="717"/>
-      <c r="AR8" s="717"/>
-      <c r="AS8" s="717"/>
+      <c r="AD8" s="719"/>
+      <c r="AE8" s="719"/>
+      <c r="AF8" s="719"/>
+      <c r="AG8" s="719"/>
+      <c r="AH8" s="719"/>
+      <c r="AI8" s="719"/>
+      <c r="AJ8" s="719"/>
+      <c r="AK8" s="719"/>
+      <c r="AL8" s="720"/>
+      <c r="AM8" s="720"/>
+      <c r="AN8" s="720"/>
+      <c r="AO8" s="720"/>
+      <c r="AP8" s="720"/>
+      <c r="AQ8" s="720"/>
+      <c r="AR8" s="720"/>
+      <c r="AS8" s="720"/>
       <c r="AT8" s="27"/>
       <c r="AU8" s="27"/>
       <c r="AV8" s="3"/>
@@ -14011,15 +14127,15 @@
     </row>
     <row r="9" spans="1:58" ht="15.95" customHeight="1">
       <c r="A9" s="251"/>
-      <c r="B9" s="725" t="s">
+      <c r="B9" s="728" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="726"/>
-      <c r="D9" s="727" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="728"/>
-      <c r="F9" s="729"/>
+      <c r="C9" s="729"/>
+      <c r="D9" s="730" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="731"/>
+      <c r="F9" s="732"/>
       <c r="G9" s="237"/>
       <c r="H9" s="237"/>
       <c r="I9" s="237"/>
@@ -14108,7 +14224,7 @@
       <c r="AF10" s="28"/>
       <c r="AG10" s="28"/>
       <c r="AH10" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI10" s="28"/>
       <c r="AJ10" s="28"/>
@@ -14143,37 +14259,37 @@
         <v>2</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="F11" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="H11" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="58" t="s">
+      <c r="J11" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="58" t="s">
+      <c r="K11" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="61" t="s">
-        <v>44</v>
-      </c>
       <c r="L11" s="61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M11" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N11" s="252"/>
       <c r="O11" s="18"/>
@@ -15072,28 +15188,28 @@
     </row>
     <row r="3" spans="1:58" ht="15.75" customHeight="1">
       <c r="A3" s="249"/>
-      <c r="B3" s="725" t="s">
+      <c r="B3" s="728" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="726"/>
-      <c r="D3" s="718" t="str">
+      <c r="C3" s="729"/>
+      <c r="D3" s="721" t="str">
         <f>Übersicht!D3</f>
         <v>Anbindung von Fremdmaschinen in das Uhlmann SCADA System</v>
       </c>
-      <c r="E3" s="719"/>
-      <c r="F3" s="720"/>
+      <c r="E3" s="722"/>
+      <c r="F3" s="723"/>
       <c r="G3" s="235"/>
-      <c r="H3" s="730" t="s">
+      <c r="H3" s="733" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="722"/>
-      <c r="J3" s="722"/>
-      <c r="K3" s="721" t="str">
+      <c r="I3" s="725"/>
+      <c r="J3" s="725"/>
+      <c r="K3" s="724" t="str">
         <f>Übersicht!D11</f>
         <v>Herr Janzen (Automatisierung)</v>
       </c>
-      <c r="L3" s="722"/>
-      <c r="M3" s="722"/>
+      <c r="L3" s="725"/>
+      <c r="M3" s="725"/>
       <c r="N3" s="236"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
@@ -15115,12 +15231,12 @@
       <c r="AF3" s="25"/>
       <c r="AG3" s="25"/>
       <c r="AH3" s="26"/>
-      <c r="AI3" s="723"/>
-      <c r="AJ3" s="723"/>
-      <c r="AK3" s="723"/>
-      <c r="AL3" s="723"/>
-      <c r="AM3" s="723"/>
-      <c r="AN3" s="723"/>
+      <c r="AI3" s="726"/>
+      <c r="AJ3" s="726"/>
+      <c r="AK3" s="726"/>
+      <c r="AL3" s="726"/>
+      <c r="AM3" s="726"/>
+      <c r="AN3" s="726"/>
       <c r="AO3" s="27"/>
       <c r="AP3" s="27"/>
       <c r="AQ3" s="27"/>
@@ -15142,26 +15258,26 @@
     </row>
     <row r="4" spans="1:58" ht="15.75">
       <c r="A4" s="250"/>
-      <c r="B4" s="725" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="726"/>
-      <c r="D4" s="718" t="str">
+      <c r="B4" s="728" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="729"/>
+      <c r="D4" s="721" t="str">
         <f>Übersicht!D5</f>
         <v>Pharmazeutischer Konzern spezialisiert auf Insulin</v>
       </c>
-      <c r="E4" s="719"/>
-      <c r="F4" s="720"/>
+      <c r="E4" s="722"/>
+      <c r="F4" s="723"/>
       <c r="G4" s="235"/>
-      <c r="H4" s="722"/>
-      <c r="I4" s="722"/>
-      <c r="J4" s="722"/>
-      <c r="K4" s="721" t="str">
+      <c r="H4" s="725"/>
+      <c r="I4" s="725"/>
+      <c r="J4" s="725"/>
+      <c r="K4" s="724" t="str">
         <f>Übersicht!D12</f>
         <v>Herr Eckert (Uhlmann Maschinen)</v>
       </c>
-      <c r="L4" s="722"/>
-      <c r="M4" s="722"/>
+      <c r="L4" s="725"/>
+      <c r="M4" s="725"/>
       <c r="N4" s="236"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
@@ -15210,26 +15326,26 @@
     </row>
     <row r="5" spans="1:58" ht="15.75">
       <c r="A5" s="242"/>
-      <c r="B5" s="725" t="s">
+      <c r="B5" s="728" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="726"/>
-      <c r="D5" s="718" t="str">
+      <c r="C5" s="729"/>
+      <c r="D5" s="721" t="str">
         <f>Übersicht!D6</f>
         <v>503703186</v>
       </c>
-      <c r="E5" s="719"/>
-      <c r="F5" s="720"/>
+      <c r="E5" s="722"/>
+      <c r="F5" s="723"/>
       <c r="G5" s="235"/>
-      <c r="H5" s="722"/>
-      <c r="I5" s="722"/>
-      <c r="J5" s="722"/>
-      <c r="K5" s="721" t="str">
+      <c r="H5" s="725"/>
+      <c r="I5" s="725"/>
+      <c r="J5" s="725"/>
+      <c r="K5" s="724" t="str">
         <f>Übersicht!D13</f>
         <v>Herr Oliver (Pester Maschinen)</v>
       </c>
-      <c r="L5" s="722"/>
-      <c r="M5" s="722"/>
+      <c r="L5" s="725"/>
+      <c r="M5" s="725"/>
       <c r="N5" s="236"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
@@ -15246,22 +15362,22 @@
       <c r="AA5" s="20"/>
       <c r="AB5" s="21"/>
       <c r="AC5" s="22"/>
-      <c r="AD5" s="716"/>
-      <c r="AE5" s="716"/>
-      <c r="AF5" s="716"/>
-      <c r="AG5" s="716"/>
-      <c r="AH5" s="716"/>
-      <c r="AI5" s="716"/>
-      <c r="AJ5" s="716"/>
-      <c r="AK5" s="716"/>
-      <c r="AL5" s="724"/>
-      <c r="AM5" s="724"/>
-      <c r="AN5" s="724"/>
-      <c r="AO5" s="724"/>
-      <c r="AP5" s="724"/>
-      <c r="AQ5" s="724"/>
-      <c r="AR5" s="724"/>
-      <c r="AS5" s="724"/>
+      <c r="AD5" s="719"/>
+      <c r="AE5" s="719"/>
+      <c r="AF5" s="719"/>
+      <c r="AG5" s="719"/>
+      <c r="AH5" s="719"/>
+      <c r="AI5" s="719"/>
+      <c r="AJ5" s="719"/>
+      <c r="AK5" s="719"/>
+      <c r="AL5" s="727"/>
+      <c r="AM5" s="727"/>
+      <c r="AN5" s="727"/>
+      <c r="AO5" s="727"/>
+      <c r="AP5" s="727"/>
+      <c r="AQ5" s="727"/>
+      <c r="AR5" s="727"/>
+      <c r="AS5" s="727"/>
       <c r="AT5" s="27"/>
       <c r="AU5" s="27"/>
       <c r="AV5" s="3"/>
@@ -15275,26 +15391,26 @@
     </row>
     <row r="6" spans="1:58" ht="15.75">
       <c r="A6" s="242"/>
-      <c r="B6" s="725" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="726"/>
-      <c r="D6" s="718" t="str">
+      <c r="B6" s="728" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="729"/>
+      <c r="D6" s="721" t="str">
         <f>Übersicht!D7</f>
         <v>Herr Merk</v>
       </c>
-      <c r="E6" s="719"/>
-      <c r="F6" s="720"/>
+      <c r="E6" s="722"/>
+      <c r="F6" s="723"/>
       <c r="G6" s="235"/>
-      <c r="H6" s="722"/>
-      <c r="I6" s="722"/>
-      <c r="J6" s="722"/>
-      <c r="K6" s="721" t="str">
+      <c r="H6" s="725"/>
+      <c r="I6" s="725"/>
+      <c r="J6" s="725"/>
+      <c r="K6" s="724">
         <f>Übersicht!D14</f>
-        <v>Herr Hummler (Bausch und Ströbel)</v>
-      </c>
-      <c r="L6" s="722"/>
-      <c r="M6" s="722"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="725"/>
+      <c r="M6" s="725"/>
       <c r="N6" s="236"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
@@ -15340,26 +15456,26 @@
     </row>
     <row r="7" spans="1:58" ht="15.75">
       <c r="A7" s="250"/>
-      <c r="B7" s="725" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="726"/>
-      <c r="D7" s="718" t="str">
+      <c r="B7" s="728" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="729"/>
+      <c r="D7" s="721" t="str">
         <f>Übersicht!D8</f>
         <v>Herr Braun</v>
       </c>
-      <c r="E7" s="719"/>
-      <c r="F7" s="720"/>
+      <c r="E7" s="722"/>
+      <c r="F7" s="723"/>
       <c r="G7" s="235"/>
-      <c r="H7" s="722"/>
-      <c r="I7" s="722"/>
-      <c r="J7" s="722"/>
-      <c r="K7" s="721">
+      <c r="H7" s="725"/>
+      <c r="I7" s="725"/>
+      <c r="J7" s="725"/>
+      <c r="K7" s="724">
         <f>Übersicht!D15</f>
         <v>0</v>
       </c>
-      <c r="L7" s="722"/>
-      <c r="M7" s="722"/>
+      <c r="L7" s="725"/>
+      <c r="M7" s="725"/>
       <c r="N7" s="236"/>
       <c r="O7" s="19"/>
       <c r="P7" s="19"/>
@@ -15408,16 +15524,16 @@
     </row>
     <row r="8" spans="1:58" ht="15.75">
       <c r="A8" s="242"/>
-      <c r="B8" s="725" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="726"/>
-      <c r="D8" s="718" t="str">
+      <c r="B8" s="728" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="729"/>
+      <c r="D8" s="721" t="str">
         <f>Übersicht!D9</f>
-        <v>Herr Bremser</v>
-      </c>
-      <c r="E8" s="719"/>
-      <c r="F8" s="720"/>
+        <v xml:space="preserve">Herr Eckert </v>
+      </c>
+      <c r="E8" s="722"/>
+      <c r="F8" s="723"/>
       <c r="G8" s="235"/>
       <c r="H8" s="235"/>
       <c r="I8" s="235"/>
@@ -15441,22 +15557,22 @@
       <c r="AA8" s="34"/>
       <c r="AB8" s="21"/>
       <c r="AC8" s="22"/>
-      <c r="AD8" s="716"/>
-      <c r="AE8" s="716"/>
-      <c r="AF8" s="716"/>
-      <c r="AG8" s="716"/>
-      <c r="AH8" s="716"/>
-      <c r="AI8" s="716"/>
-      <c r="AJ8" s="716"/>
-      <c r="AK8" s="716"/>
-      <c r="AL8" s="717"/>
-      <c r="AM8" s="717"/>
-      <c r="AN8" s="717"/>
-      <c r="AO8" s="717"/>
-      <c r="AP8" s="717"/>
-      <c r="AQ8" s="717"/>
-      <c r="AR8" s="717"/>
-      <c r="AS8" s="717"/>
+      <c r="AD8" s="719"/>
+      <c r="AE8" s="719"/>
+      <c r="AF8" s="719"/>
+      <c r="AG8" s="719"/>
+      <c r="AH8" s="719"/>
+      <c r="AI8" s="719"/>
+      <c r="AJ8" s="719"/>
+      <c r="AK8" s="719"/>
+      <c r="AL8" s="720"/>
+      <c r="AM8" s="720"/>
+      <c r="AN8" s="720"/>
+      <c r="AO8" s="720"/>
+      <c r="AP8" s="720"/>
+      <c r="AQ8" s="720"/>
+      <c r="AR8" s="720"/>
+      <c r="AS8" s="720"/>
       <c r="AT8" s="27"/>
       <c r="AU8" s="27"/>
       <c r="AV8" s="3"/>
@@ -15470,15 +15586,15 @@
     </row>
     <row r="9" spans="1:58" ht="15.95" customHeight="1">
       <c r="A9" s="251"/>
-      <c r="B9" s="725" t="s">
+      <c r="B9" s="728" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="726"/>
-      <c r="D9" s="727" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="728"/>
-      <c r="F9" s="729"/>
+      <c r="C9" s="729"/>
+      <c r="D9" s="730" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="731"/>
+      <c r="F9" s="732"/>
       <c r="G9" s="237"/>
       <c r="H9" s="237"/>
       <c r="I9" s="237"/>
@@ -15567,7 +15683,7 @@
       <c r="AF10" s="28"/>
       <c r="AG10" s="28"/>
       <c r="AH10" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI10" s="28"/>
       <c r="AJ10" s="28"/>
@@ -15602,37 +15718,37 @@
         <v>2</v>
       </c>
       <c r="C11" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="58" t="s">
+      <c r="I11" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="I11" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="58" t="s">
-        <v>120</v>
-      </c>
       <c r="K11" s="61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L11" s="61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M11" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N11" s="252"/>
       <c r="O11" s="18"/>
@@ -16472,50 +16588,50 @@
       <c r="T1" s="410"/>
     </row>
     <row r="2" spans="1:20" ht="15.75">
-      <c r="A2" s="751" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="752"/>
-      <c r="C2" s="752"/>
-      <c r="D2" s="753"/>
-      <c r="E2" s="753"/>
-      <c r="F2" s="753"/>
+      <c r="A2" s="754" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="755"/>
+      <c r="C2" s="755"/>
+      <c r="D2" s="756"/>
+      <c r="E2" s="756"/>
+      <c r="F2" s="756"/>
       <c r="G2" s="418"/>
       <c r="H2" s="418"/>
       <c r="I2" s="418"/>
       <c r="J2" s="418"/>
-      <c r="K2" s="743"/>
-      <c r="L2" s="743"/>
-      <c r="M2" s="754"/>
-      <c r="N2" s="755"/>
-      <c r="O2" s="756"/>
-      <c r="P2" s="756"/>
-      <c r="Q2" s="756"/>
-      <c r="R2" s="756"/>
+      <c r="K2" s="746"/>
+      <c r="L2" s="746"/>
+      <c r="M2" s="757"/>
+      <c r="N2" s="758"/>
+      <c r="O2" s="759"/>
+      <c r="P2" s="759"/>
+      <c r="Q2" s="759"/>
+      <c r="R2" s="759"/>
       <c r="S2" s="417"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A3" s="743" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="743"/>
-      <c r="C3" s="743"/>
-      <c r="D3" s="744"/>
-      <c r="E3" s="744"/>
-      <c r="F3" s="744"/>
+      <c r="A3" s="746" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="746"/>
+      <c r="C3" s="746"/>
+      <c r="D3" s="747"/>
+      <c r="E3" s="747"/>
+      <c r="F3" s="747"/>
       <c r="G3" s="416"/>
       <c r="H3" s="416"/>
       <c r="I3" s="416"/>
       <c r="J3" s="416"/>
       <c r="K3" s="416"/>
-      <c r="L3" s="759"/>
-      <c r="M3" s="759"/>
-      <c r="N3" s="760"/>
-      <c r="O3" s="760"/>
-      <c r="P3" s="760"/>
-      <c r="Q3" s="760"/>
-      <c r="R3" s="760"/>
+      <c r="L3" s="762"/>
+      <c r="M3" s="762"/>
+      <c r="N3" s="763"/>
+      <c r="O3" s="763"/>
+      <c r="P3" s="763"/>
+      <c r="Q3" s="763"/>
+      <c r="R3" s="763"/>
       <c r="S3" s="415"/>
       <c r="T3" s="1"/>
     </row>
@@ -16542,234 +16658,234 @@
       <c r="T4" s="410"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="745" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" s="746"/>
-      <c r="C5" s="749" t="s">
-        <v>226</v>
-      </c>
-      <c r="D5" s="749"/>
-      <c r="E5" s="749"/>
-      <c r="F5" s="749"/>
-      <c r="G5" s="749" t="s">
-        <v>225</v>
-      </c>
-      <c r="H5" s="749"/>
-      <c r="I5" s="749" t="s">
-        <v>224</v>
-      </c>
-      <c r="J5" s="749"/>
-      <c r="K5" s="749"/>
-      <c r="L5" s="749"/>
-      <c r="M5" s="749"/>
-      <c r="N5" s="749" t="s">
-        <v>223</v>
-      </c>
-      <c r="O5" s="749"/>
-      <c r="P5" s="749"/>
-      <c r="Q5" s="749" t="s">
-        <v>222</v>
-      </c>
-      <c r="R5" s="749"/>
-      <c r="S5" s="749"/>
-      <c r="T5" s="757"/>
+      <c r="A5" s="748" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="749"/>
+      <c r="C5" s="752" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="752"/>
+      <c r="E5" s="752"/>
+      <c r="F5" s="752"/>
+      <c r="G5" s="752" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" s="752"/>
+      <c r="I5" s="752" t="s">
+        <v>217</v>
+      </c>
+      <c r="J5" s="752"/>
+      <c r="K5" s="752"/>
+      <c r="L5" s="752"/>
+      <c r="M5" s="752"/>
+      <c r="N5" s="752" t="s">
+        <v>216</v>
+      </c>
+      <c r="O5" s="752"/>
+      <c r="P5" s="752"/>
+      <c r="Q5" s="752" t="s">
+        <v>215</v>
+      </c>
+      <c r="R5" s="752"/>
+      <c r="S5" s="752"/>
+      <c r="T5" s="760"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="747"/>
-      <c r="B6" s="748"/>
-      <c r="C6" s="750"/>
-      <c r="D6" s="750"/>
-      <c r="E6" s="750"/>
-      <c r="F6" s="750"/>
-      <c r="G6" s="750"/>
-      <c r="H6" s="750"/>
-      <c r="I6" s="750"/>
-      <c r="J6" s="750"/>
-      <c r="K6" s="750"/>
-      <c r="L6" s="750"/>
-      <c r="M6" s="750"/>
-      <c r="N6" s="750"/>
-      <c r="O6" s="750"/>
-      <c r="P6" s="750"/>
-      <c r="Q6" s="750"/>
-      <c r="R6" s="750"/>
-      <c r="S6" s="750"/>
-      <c r="T6" s="758"/>
+      <c r="A6" s="750"/>
+      <c r="B6" s="751"/>
+      <c r="C6" s="753"/>
+      <c r="D6" s="753"/>
+      <c r="E6" s="753"/>
+      <c r="F6" s="753"/>
+      <c r="G6" s="753"/>
+      <c r="H6" s="753"/>
+      <c r="I6" s="753"/>
+      <c r="J6" s="753"/>
+      <c r="K6" s="753"/>
+      <c r="L6" s="753"/>
+      <c r="M6" s="753"/>
+      <c r="N6" s="753"/>
+      <c r="O6" s="753"/>
+      <c r="P6" s="753"/>
+      <c r="Q6" s="753"/>
+      <c r="R6" s="753"/>
+      <c r="S6" s="753"/>
+      <c r="T6" s="761"/>
     </row>
     <row r="7" spans="1:20" ht="15.75">
-      <c r="A7" s="731">
+      <c r="A7" s="734">
         <v>1</v>
       </c>
-      <c r="B7" s="732"/>
-      <c r="C7" s="735"/>
-      <c r="D7" s="735"/>
-      <c r="E7" s="735"/>
-      <c r="F7" s="735"/>
-      <c r="G7" s="736"/>
-      <c r="H7" s="736"/>
-      <c r="I7" s="737"/>
-      <c r="J7" s="737"/>
-      <c r="K7" s="737"/>
-      <c r="L7" s="737"/>
-      <c r="M7" s="737"/>
-      <c r="N7" s="737"/>
-      <c r="O7" s="737"/>
-      <c r="P7" s="737"/>
-      <c r="Q7" s="737"/>
-      <c r="R7" s="737"/>
-      <c r="S7" s="737"/>
-      <c r="T7" s="738"/>
+      <c r="B7" s="735"/>
+      <c r="C7" s="738"/>
+      <c r="D7" s="738"/>
+      <c r="E7" s="738"/>
+      <c r="F7" s="738"/>
+      <c r="G7" s="739"/>
+      <c r="H7" s="739"/>
+      <c r="I7" s="740"/>
+      <c r="J7" s="740"/>
+      <c r="K7" s="740"/>
+      <c r="L7" s="740"/>
+      <c r="M7" s="740"/>
+      <c r="N7" s="740"/>
+      <c r="O7" s="740"/>
+      <c r="P7" s="740"/>
+      <c r="Q7" s="740"/>
+      <c r="R7" s="740"/>
+      <c r="S7" s="740"/>
+      <c r="T7" s="741"/>
     </row>
     <row r="8" spans="1:20" ht="15.75">
-      <c r="A8" s="731">
+      <c r="A8" s="734">
         <f t="shared" ref="A8:A13" si="0">A7+1</f>
         <v>2</v>
       </c>
-      <c r="B8" s="732"/>
-      <c r="C8" s="735"/>
-      <c r="D8" s="735"/>
-      <c r="E8" s="735"/>
-      <c r="F8" s="735"/>
-      <c r="G8" s="736"/>
-      <c r="H8" s="736"/>
-      <c r="I8" s="737"/>
-      <c r="J8" s="737"/>
-      <c r="K8" s="737"/>
-      <c r="L8" s="737"/>
-      <c r="M8" s="737"/>
-      <c r="N8" s="737"/>
-      <c r="O8" s="737"/>
-      <c r="P8" s="737"/>
-      <c r="Q8" s="737"/>
-      <c r="R8" s="737"/>
-      <c r="S8" s="737"/>
-      <c r="T8" s="738"/>
+      <c r="B8" s="735"/>
+      <c r="C8" s="738"/>
+      <c r="D8" s="738"/>
+      <c r="E8" s="738"/>
+      <c r="F8" s="738"/>
+      <c r="G8" s="739"/>
+      <c r="H8" s="739"/>
+      <c r="I8" s="740"/>
+      <c r="J8" s="740"/>
+      <c r="K8" s="740"/>
+      <c r="L8" s="740"/>
+      <c r="M8" s="740"/>
+      <c r="N8" s="740"/>
+      <c r="O8" s="740"/>
+      <c r="P8" s="740"/>
+      <c r="Q8" s="740"/>
+      <c r="R8" s="740"/>
+      <c r="S8" s="740"/>
+      <c r="T8" s="741"/>
     </row>
     <row r="9" spans="1:20" ht="15.75">
-      <c r="A9" s="731">
+      <c r="A9" s="734">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="732"/>
-      <c r="C9" s="735"/>
-      <c r="D9" s="735"/>
-      <c r="E9" s="735"/>
-      <c r="F9" s="735"/>
-      <c r="G9" s="736"/>
-      <c r="H9" s="736"/>
-      <c r="I9" s="737"/>
-      <c r="J9" s="737"/>
-      <c r="K9" s="737"/>
-      <c r="L9" s="737"/>
-      <c r="M9" s="737"/>
-      <c r="N9" s="737"/>
-      <c r="O9" s="737"/>
-      <c r="P9" s="737"/>
-      <c r="Q9" s="737"/>
-      <c r="R9" s="737"/>
-      <c r="S9" s="737"/>
-      <c r="T9" s="738"/>
+      <c r="B9" s="735"/>
+      <c r="C9" s="738"/>
+      <c r="D9" s="738"/>
+      <c r="E9" s="738"/>
+      <c r="F9" s="738"/>
+      <c r="G9" s="739"/>
+      <c r="H9" s="739"/>
+      <c r="I9" s="740"/>
+      <c r="J9" s="740"/>
+      <c r="K9" s="740"/>
+      <c r="L9" s="740"/>
+      <c r="M9" s="740"/>
+      <c r="N9" s="740"/>
+      <c r="O9" s="740"/>
+      <c r="P9" s="740"/>
+      <c r="Q9" s="740"/>
+      <c r="R9" s="740"/>
+      <c r="S9" s="740"/>
+      <c r="T9" s="741"/>
     </row>
     <row r="10" spans="1:20" ht="15.75">
-      <c r="A10" s="731">
+      <c r="A10" s="734">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="732"/>
-      <c r="C10" s="735"/>
-      <c r="D10" s="735"/>
-      <c r="E10" s="735"/>
-      <c r="F10" s="735"/>
-      <c r="G10" s="736"/>
-      <c r="H10" s="736"/>
-      <c r="I10" s="737"/>
-      <c r="J10" s="737"/>
-      <c r="K10" s="737"/>
-      <c r="L10" s="737"/>
-      <c r="M10" s="737"/>
-      <c r="N10" s="737"/>
-      <c r="O10" s="737"/>
-      <c r="P10" s="737"/>
-      <c r="Q10" s="737"/>
-      <c r="R10" s="737"/>
-      <c r="S10" s="737"/>
-      <c r="T10" s="738"/>
+      <c r="B10" s="735"/>
+      <c r="C10" s="738"/>
+      <c r="D10" s="738"/>
+      <c r="E10" s="738"/>
+      <c r="F10" s="738"/>
+      <c r="G10" s="739"/>
+      <c r="H10" s="739"/>
+      <c r="I10" s="740"/>
+      <c r="J10" s="740"/>
+      <c r="K10" s="740"/>
+      <c r="L10" s="740"/>
+      <c r="M10" s="740"/>
+      <c r="N10" s="740"/>
+      <c r="O10" s="740"/>
+      <c r="P10" s="740"/>
+      <c r="Q10" s="740"/>
+      <c r="R10" s="740"/>
+      <c r="S10" s="740"/>
+      <c r="T10" s="741"/>
     </row>
     <row r="11" spans="1:20" ht="15.75">
-      <c r="A11" s="731">
+      <c r="A11" s="734">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="732"/>
-      <c r="C11" s="735"/>
-      <c r="D11" s="735"/>
-      <c r="E11" s="735"/>
-      <c r="F11" s="735"/>
-      <c r="G11" s="736"/>
-      <c r="H11" s="736"/>
-      <c r="I11" s="737"/>
-      <c r="J11" s="737"/>
-      <c r="K11" s="737"/>
-      <c r="L11" s="737"/>
-      <c r="M11" s="737"/>
-      <c r="N11" s="737"/>
-      <c r="O11" s="737"/>
-      <c r="P11" s="737"/>
-      <c r="Q11" s="737"/>
-      <c r="R11" s="737"/>
-      <c r="S11" s="737"/>
-      <c r="T11" s="738"/>
+      <c r="B11" s="735"/>
+      <c r="C11" s="738"/>
+      <c r="D11" s="738"/>
+      <c r="E11" s="738"/>
+      <c r="F11" s="738"/>
+      <c r="G11" s="739"/>
+      <c r="H11" s="739"/>
+      <c r="I11" s="740"/>
+      <c r="J11" s="740"/>
+      <c r="K11" s="740"/>
+      <c r="L11" s="740"/>
+      <c r="M11" s="740"/>
+      <c r="N11" s="740"/>
+      <c r="O11" s="740"/>
+      <c r="P11" s="740"/>
+      <c r="Q11" s="740"/>
+      <c r="R11" s="740"/>
+      <c r="S11" s="740"/>
+      <c r="T11" s="741"/>
     </row>
     <row r="12" spans="1:20" ht="15.75">
-      <c r="A12" s="731">
+      <c r="A12" s="734">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="732"/>
-      <c r="C12" s="735"/>
-      <c r="D12" s="735"/>
-      <c r="E12" s="735"/>
-      <c r="F12" s="735"/>
-      <c r="G12" s="736"/>
-      <c r="H12" s="736"/>
-      <c r="I12" s="737"/>
-      <c r="J12" s="737"/>
-      <c r="K12" s="737"/>
-      <c r="L12" s="737"/>
-      <c r="M12" s="737"/>
-      <c r="N12" s="737"/>
-      <c r="O12" s="737"/>
-      <c r="P12" s="737"/>
-      <c r="Q12" s="737"/>
-      <c r="R12" s="737"/>
-      <c r="S12" s="737"/>
-      <c r="T12" s="738"/>
+      <c r="B12" s="735"/>
+      <c r="C12" s="738"/>
+      <c r="D12" s="738"/>
+      <c r="E12" s="738"/>
+      <c r="F12" s="738"/>
+      <c r="G12" s="739"/>
+      <c r="H12" s="739"/>
+      <c r="I12" s="740"/>
+      <c r="J12" s="740"/>
+      <c r="K12" s="740"/>
+      <c r="L12" s="740"/>
+      <c r="M12" s="740"/>
+      <c r="N12" s="740"/>
+      <c r="O12" s="740"/>
+      <c r="P12" s="740"/>
+      <c r="Q12" s="740"/>
+      <c r="R12" s="740"/>
+      <c r="S12" s="740"/>
+      <c r="T12" s="741"/>
     </row>
     <row r="13" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A13" s="739">
+      <c r="A13" s="742">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="740"/>
-      <c r="C13" s="741"/>
-      <c r="D13" s="741"/>
-      <c r="E13" s="741"/>
-      <c r="F13" s="741"/>
-      <c r="G13" s="742"/>
-      <c r="H13" s="742"/>
-      <c r="I13" s="733"/>
-      <c r="J13" s="733"/>
-      <c r="K13" s="733"/>
-      <c r="L13" s="733"/>
-      <c r="M13" s="733"/>
-      <c r="N13" s="733"/>
-      <c r="O13" s="733"/>
-      <c r="P13" s="733"/>
-      <c r="Q13" s="733"/>
-      <c r="R13" s="733"/>
-      <c r="S13" s="733"/>
-      <c r="T13" s="734"/>
+      <c r="B13" s="743"/>
+      <c r="C13" s="744"/>
+      <c r="D13" s="744"/>
+      <c r="E13" s="744"/>
+      <c r="F13" s="744"/>
+      <c r="G13" s="745"/>
+      <c r="H13" s="745"/>
+      <c r="I13" s="736"/>
+      <c r="J13" s="736"/>
+      <c r="K13" s="736"/>
+      <c r="L13" s="736"/>
+      <c r="M13" s="736"/>
+      <c r="N13" s="736"/>
+      <c r="O13" s="736"/>
+      <c r="P13" s="736"/>
+      <c r="Q13" s="736"/>
+      <c r="R13" s="736"/>
+      <c r="S13" s="736"/>
+      <c r="T13" s="737"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -16895,7 +17011,7 @@
     <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="51"/>
       <c r="B3" s="73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="121" t="str">
         <f>Projektname</f>
@@ -16907,12 +17023,12 @@
       <c r="G3" s="64"/>
       <c r="H3" s="64"/>
       <c r="I3" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="761" t="s">
-        <v>143</v>
-      </c>
-      <c r="K3" s="762"/>
+        <v>27</v>
+      </c>
+      <c r="J3" s="764" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3" s="765"/>
       <c r="L3" s="78"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
@@ -16937,31 +17053,31 @@
         <v>2</v>
       </c>
       <c r="C5" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="E5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="F5" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="58" t="s">
+      <c r="H5" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="I5" s="61" t="s">
         <v>33</v>
-      </c>
-      <c r="I5" s="61" t="s">
-        <v>34</v>
       </c>
       <c r="J5" s="58" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L5" s="50"/>
     </row>
@@ -16976,7 +17092,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="10"/>
@@ -16994,7 +17110,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
@@ -17013,7 +17129,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -17032,7 +17148,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -17051,7 +17167,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="10"/>
@@ -17070,7 +17186,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="10"/>
@@ -17089,7 +17205,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="10"/>
@@ -17108,7 +17224,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="10"/>
@@ -17127,7 +17243,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="10"/>
@@ -17146,7 +17262,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="10"/>
@@ -17165,7 +17281,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="10"/>
@@ -17184,7 +17300,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="10"/>
@@ -17203,7 +17319,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="10"/>
@@ -17222,7 +17338,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="10"/>
@@ -17241,7 +17357,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="10"/>
@@ -17260,7 +17376,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="10"/>
@@ -17279,7 +17395,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="10"/>
@@ -17298,7 +17414,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="10"/>
@@ -17317,7 +17433,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="10"/>
@@ -17336,7 +17452,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="10"/>
@@ -17355,7 +17471,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="10"/>
@@ -17374,7 +17490,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
@@ -17393,7 +17509,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="10"/>
@@ -17412,7 +17528,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="10"/>
@@ -17431,7 +17547,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -17450,7 +17566,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
@@ -17572,8 +17688,8 @@
   </sheetPr>
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:F27"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17636,7 +17752,7 @@
     <row r="4" spans="1:12" ht="18.75">
       <c r="A4" s="384"/>
       <c r="B4" s="551" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="552"/>
       <c r="D4" s="550" t="str">
@@ -17653,7 +17769,7 @@
     <row r="5" spans="1:12" ht="18.75">
       <c r="A5" s="384"/>
       <c r="B5" s="551" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" s="552"/>
       <c r="D5" s="553" t="str">
@@ -17667,10 +17783,10 @@
       <c r="I5" s="555"/>
       <c r="J5" s="385"/>
     </row>
-    <row r="6" spans="1:12" ht="18.75">
+    <row r="6" spans="1:12" ht="34.5" customHeight="1">
       <c r="A6" s="384"/>
       <c r="B6" s="551" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="552"/>
       <c r="D6" s="550" t="str">
@@ -17687,7 +17803,7 @@
     <row r="7" spans="1:12" ht="18.75">
       <c r="A7" s="384"/>
       <c r="B7" s="551" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="552"/>
       <c r="D7" s="550" t="str">
@@ -17704,12 +17820,12 @@
     <row r="8" spans="1:12" ht="18.75">
       <c r="A8" s="384"/>
       <c r="B8" s="551" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="552"/>
       <c r="D8" s="550" t="str">
         <f>Übersicht!D9</f>
-        <v>Herr Bremser</v>
+        <v xml:space="preserve">Herr Eckert </v>
       </c>
       <c r="E8" s="550"/>
       <c r="F8" s="550"/>
@@ -17725,7 +17841,7 @@
       </c>
       <c r="C9" s="541"/>
       <c r="D9" s="542" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="E9" s="543"/>
       <c r="F9" s="543"/>
@@ -17785,10 +17901,7 @@
       <c r="A13" s="384"/>
       <c r="B13" s="546"/>
       <c r="C13" s="547"/>
-      <c r="D13" s="550" t="str">
-        <f>Übersicht!D14</f>
-        <v>Herr Hummler (Bausch und Ströbel)</v>
-      </c>
+      <c r="D13" s="550"/>
       <c r="E13" s="550"/>
       <c r="F13" s="550"/>
       <c r="G13" s="550"/>
@@ -17863,7 +17976,7 @@
     <row r="19" spans="1:10" ht="18.75">
       <c r="A19" s="384"/>
       <c r="B19" s="490" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="C19" s="536"/>
       <c r="D19" s="536"/>
@@ -17886,7 +17999,7 @@
       <c r="I20" s="204"/>
       <c r="J20" s="385"/>
     </row>
-    <row r="21" spans="1:10" ht="18.75" hidden="1">
+    <row r="21" spans="1:10" ht="18.75">
       <c r="A21" s="384"/>
       <c r="B21" s="217" t="s">
         <v>6</v>
@@ -17904,7 +18017,7 @@
       <c r="I21" s="496"/>
       <c r="J21" s="385"/>
     </row>
-    <row r="22" spans="1:10" hidden="1">
+    <row r="22" spans="1:10">
       <c r="A22" s="384"/>
       <c r="B22" s="538"/>
       <c r="C22" s="539"/>
@@ -17916,7 +18029,7 @@
       <c r="I22" s="540"/>
       <c r="J22" s="385"/>
     </row>
-    <row r="23" spans="1:10" hidden="1">
+    <row r="23" spans="1:10">
       <c r="A23" s="384"/>
       <c r="B23" s="538"/>
       <c r="C23" s="539"/>
@@ -17928,7 +18041,7 @@
       <c r="I23" s="540"/>
       <c r="J23" s="385"/>
     </row>
-    <row r="24" spans="1:10" hidden="1">
+    <row r="24" spans="1:10">
       <c r="A24" s="384"/>
       <c r="B24" s="538"/>
       <c r="C24" s="539"/>
@@ -17940,7 +18053,7 @@
       <c r="I24" s="540"/>
       <c r="J24" s="385"/>
     </row>
-    <row r="25" spans="1:10" ht="18.75" hidden="1">
+    <row r="25" spans="1:10" ht="18.75">
       <c r="A25" s="384"/>
       <c r="B25" s="203"/>
       <c r="C25" s="204"/>
@@ -17955,7 +18068,7 @@
     <row r="26" spans="1:10" ht="18.75">
       <c r="A26" s="384"/>
       <c r="B26" s="487" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="488"/>
       <c r="D26" s="488"/>
@@ -17968,17 +18081,17 @@
       <c r="I26" s="496"/>
       <c r="J26" s="385"/>
     </row>
-    <row r="27" spans="1:10" ht="18.75">
+    <row r="27" spans="1:10" ht="36.75" customHeight="1">
       <c r="A27" s="384"/>
       <c r="B27" s="490" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C27" s="491"/>
       <c r="D27" s="491"/>
       <c r="E27" s="491"/>
       <c r="F27" s="492"/>
       <c r="G27" s="497" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H27" s="498"/>
       <c r="I27" s="499"/>
@@ -17986,55 +18099,69 @@
     </row>
     <row r="28" spans="1:10" ht="18.75">
       <c r="A28" s="384"/>
-      <c r="B28" s="490"/>
+      <c r="B28" s="490" t="s">
+        <v>255</v>
+      </c>
       <c r="C28" s="491"/>
       <c r="D28" s="491"/>
       <c r="E28" s="491"/>
       <c r="F28" s="492"/>
       <c r="G28" s="505" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H28" s="505"/>
       <c r="I28" s="505"/>
       <c r="J28" s="385"/>
     </row>
-    <row r="29" spans="1:10" ht="18.75">
+    <row r="29" spans="1:10" ht="39" customHeight="1">
       <c r="A29" s="384"/>
-      <c r="B29" s="490"/>
+      <c r="B29" s="490" t="s">
+        <v>256</v>
+      </c>
       <c r="C29" s="491"/>
       <c r="D29" s="491"/>
       <c r="E29" s="491"/>
       <c r="F29" s="492"/>
-      <c r="G29" s="505"/>
+      <c r="G29" s="505" t="s">
+        <v>258</v>
+      </c>
       <c r="H29" s="505"/>
       <c r="I29" s="505"/>
       <c r="J29" s="385"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
       <c r="A30" s="384"/>
-      <c r="B30" s="490"/>
+      <c r="B30" s="490" t="s">
+        <v>257</v>
+      </c>
       <c r="C30" s="491"/>
       <c r="D30" s="491"/>
       <c r="E30" s="491"/>
       <c r="F30" s="492"/>
-      <c r="G30" s="505"/>
+      <c r="G30" s="505" t="s">
+        <v>258</v>
+      </c>
       <c r="H30" s="505"/>
       <c r="I30" s="505"/>
       <c r="J30" s="385"/>
     </row>
-    <row r="31" spans="1:10" ht="18.75" hidden="1">
+    <row r="31" spans="1:10" ht="18.75">
       <c r="A31" s="384"/>
-      <c r="B31" s="490"/>
+      <c r="B31" s="490" t="s">
+        <v>262</v>
+      </c>
       <c r="C31" s="491"/>
       <c r="D31" s="491"/>
       <c r="E31" s="491"/>
       <c r="F31" s="492"/>
-      <c r="G31" s="505"/>
+      <c r="G31" s="505" t="s">
+        <v>95</v>
+      </c>
       <c r="H31" s="505"/>
       <c r="I31" s="505"/>
       <c r="J31" s="385"/>
     </row>
-    <row r="32" spans="1:10" ht="18.75" hidden="1">
+    <row r="32" spans="1:10" ht="18.75">
       <c r="A32" s="384"/>
       <c r="B32" s="490"/>
       <c r="C32" s="491"/>
@@ -18046,7 +18173,7 @@
       <c r="I32" s="505"/>
       <c r="J32" s="385"/>
     </row>
-    <row r="33" spans="1:10" ht="18.75" hidden="1">
+    <row r="33" spans="1:10" ht="18.75">
       <c r="A33" s="384"/>
       <c r="B33" s="490"/>
       <c r="C33" s="491"/>
@@ -18058,7 +18185,7 @@
       <c r="I33" s="505"/>
       <c r="J33" s="385"/>
     </row>
-    <row r="34" spans="1:10" ht="18.75" hidden="1">
+    <row r="34" spans="1:10" ht="18.75">
       <c r="A34" s="384"/>
       <c r="B34" s="490"/>
       <c r="C34" s="491"/>
@@ -18124,7 +18251,9 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="384"/>
-      <c r="B39" s="511"/>
+      <c r="B39" s="511" t="s">
+        <v>259</v>
+      </c>
       <c r="C39" s="512"/>
       <c r="D39" s="512"/>
       <c r="E39" s="512"/>
@@ -18209,7 +18338,7 @@
     <row r="46" spans="1:10" ht="18.75" hidden="1">
       <c r="A46" s="384"/>
       <c r="B46" s="212" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46" s="204"/>
       <c r="D46" s="204"/>
@@ -18238,7 +18367,7 @@
         <v>11</v>
       </c>
       <c r="C48" s="487" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D48" s="488"/>
       <c r="E48" s="520"/>
@@ -18376,7 +18505,7 @@
         <v>11</v>
       </c>
       <c r="C58" s="487" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D58" s="488"/>
       <c r="E58" s="488"/>
@@ -18524,7 +18653,9 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="384"/>
-      <c r="B69" s="511"/>
+      <c r="B69" s="511" t="s">
+        <v>263</v>
+      </c>
       <c r="C69" s="512"/>
       <c r="D69" s="512"/>
       <c r="E69" s="512"/>
@@ -18573,7 +18704,7 @@
     <row r="73" spans="1:10" ht="18.75">
       <c r="A73" s="384"/>
       <c r="B73" s="496" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C73" s="496"/>
       <c r="D73" s="496"/>
@@ -18586,7 +18717,9 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="384"/>
-      <c r="B74" s="511"/>
+      <c r="B74" s="511" t="s">
+        <v>264</v>
+      </c>
       <c r="C74" s="512"/>
       <c r="D74" s="512"/>
       <c r="E74" s="512"/>
@@ -18635,7 +18768,7 @@
     <row r="78" spans="1:10" ht="18.75">
       <c r="A78" s="384"/>
       <c r="B78" s="496" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C78" s="496"/>
       <c r="D78" s="496"/>
@@ -18649,30 +18782,36 @@
     <row r="79" spans="1:10" ht="37.5">
       <c r="A79" s="384"/>
       <c r="B79" s="216" t="s">
-        <v>87</v>
-      </c>
-      <c r="C79" s="528"/>
+        <v>85</v>
+      </c>
+      <c r="C79" s="528">
+        <v>310000</v>
+      </c>
       <c r="D79" s="529"/>
       <c r="E79" s="216" t="s">
-        <v>88</v>
-      </c>
-      <c r="F79" s="528"/>
+        <v>86</v>
+      </c>
+      <c r="F79" s="528">
+        <v>300000</v>
+      </c>
       <c r="G79" s="529"/>
       <c r="H79" s="216" t="s">
-        <v>86</v>
-      </c>
-      <c r="I79" s="128"/>
+        <v>84</v>
+      </c>
+      <c r="I79" s="128">
+        <v>10000</v>
+      </c>
       <c r="J79" s="385"/>
     </row>
     <row r="80" spans="1:10" ht="15" customHeight="1">
       <c r="A80" s="384"/>
       <c r="B80" s="216" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C80" s="506"/>
       <c r="D80" s="507"/>
       <c r="E80" s="389" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F80" s="508"/>
       <c r="G80" s="509"/>
@@ -18695,7 +18834,7 @@
     <row r="82" spans="1:10" ht="15" customHeight="1">
       <c r="A82" s="384"/>
       <c r="B82" s="496" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C82" s="496"/>
       <c r="D82" s="496"/>
@@ -18709,42 +18848,48 @@
     <row r="83" spans="1:10" ht="15" customHeight="1">
       <c r="A83" s="384"/>
       <c r="B83" s="216" t="s">
-        <v>92</v>
-      </c>
-      <c r="C83" s="535"/>
+        <v>90</v>
+      </c>
+      <c r="C83" s="535">
+        <v>43770</v>
+      </c>
       <c r="D83" s="529"/>
       <c r="E83" s="216" t="s">
-        <v>91</v>
-      </c>
-      <c r="F83" s="535"/>
+        <v>89</v>
+      </c>
+      <c r="F83" s="535">
+        <v>44197</v>
+      </c>
       <c r="G83" s="529"/>
       <c r="H83" s="216" t="s">
-        <v>90</v>
-      </c>
-      <c r="I83" s="128"/>
+        <v>88</v>
+      </c>
+      <c r="I83" s="128" t="s">
+        <v>266</v>
+      </c>
       <c r="J83" s="385"/>
     </row>
-    <row r="84" spans="1:10" ht="30" customHeight="1">
+    <row r="84" spans="1:10" ht="61.5" customHeight="1">
       <c r="A84" s="384"/>
       <c r="B84" s="216" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C84" s="503" t="s">
-        <v>126</v>
+        <v>292</v>
       </c>
       <c r="D84" s="504"/>
       <c r="E84" s="129" t="s">
-        <v>127</v>
+        <v>293</v>
       </c>
       <c r="F84" s="503" t="s">
-        <v>128</v>
+        <v>294</v>
       </c>
       <c r="G84" s="504"/>
       <c r="H84" s="129" t="s">
-        <v>129</v>
+        <v>295</v>
       </c>
       <c r="I84" s="128" t="s">
-        <v>130</v>
+        <v>296</v>
       </c>
       <c r="J84" s="385"/>
     </row>
@@ -18776,7 +18921,9 @@
     </row>
     <row r="87" spans="1:10" ht="18.75">
       <c r="A87" s="384"/>
-      <c r="B87" s="532"/>
+      <c r="B87" s="532" t="s">
+        <v>267</v>
+      </c>
       <c r="C87" s="533"/>
       <c r="D87" s="533"/>
       <c r="E87" s="533"/>
@@ -18788,7 +18935,9 @@
     </row>
     <row r="88" spans="1:10" ht="18.75">
       <c r="A88" s="384"/>
-      <c r="B88" s="532"/>
+      <c r="B88" s="532" t="s">
+        <v>268</v>
+      </c>
       <c r="C88" s="533"/>
       <c r="D88" s="533"/>
       <c r="E88" s="533"/>
@@ -18800,7 +18949,9 @@
     </row>
     <row r="89" spans="1:10" ht="18.75">
       <c r="A89" s="384"/>
-      <c r="B89" s="526"/>
+      <c r="B89" s="526" t="s">
+        <v>269</v>
+      </c>
       <c r="C89" s="526"/>
       <c r="D89" s="526"/>
       <c r="E89" s="526"/>
@@ -18849,7 +19000,7 @@
     <row r="93" spans="1:10" ht="18.75">
       <c r="A93" s="384"/>
       <c r="B93" s="212" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C93" s="204"/>
       <c r="D93" s="204"/>
@@ -18886,98 +19037,148 @@
       </c>
       <c r="F95" s="527"/>
       <c r="G95" s="496" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H95" s="496"/>
-      <c r="I95" s="217" t="s">
-        <v>18</v>
-      </c>
+      <c r="I95" s="217"/>
       <c r="J95" s="385"/>
     </row>
-    <row r="96" spans="1:10" ht="18.75">
+    <row r="96" spans="1:10" ht="37.5">
       <c r="A96" s="384"/>
-      <c r="B96" s="130"/>
-      <c r="C96" s="522"/>
+      <c r="B96" s="130" t="s">
+        <v>270</v>
+      </c>
+      <c r="C96" s="522" t="s">
+        <v>271</v>
+      </c>
       <c r="D96" s="522"/>
-      <c r="E96" s="522"/>
+      <c r="E96" s="522" t="s">
+        <v>272</v>
+      </c>
       <c r="F96" s="522"/>
-      <c r="G96" s="523"/>
+      <c r="G96" s="523" t="s">
+        <v>273</v>
+      </c>
       <c r="H96" s="523"/>
-      <c r="I96" s="131">
-        <v>0.4</v>
-      </c>
+      <c r="I96" s="131"/>
       <c r="J96" s="385"/>
     </row>
-    <row r="97" spans="1:10" ht="18.75">
+    <row r="97" spans="1:10" ht="75">
       <c r="A97" s="384"/>
-      <c r="B97" s="130"/>
-      <c r="C97" s="522"/>
+      <c r="B97" s="130" t="s">
+        <v>276</v>
+      </c>
+      <c r="C97" s="522" t="s">
+        <v>274</v>
+      </c>
       <c r="D97" s="522"/>
-      <c r="E97" s="522"/>
+      <c r="E97" s="522" t="s">
+        <v>275</v>
+      </c>
       <c r="F97" s="522"/>
-      <c r="G97" s="523"/>
+      <c r="G97" s="523" t="s">
+        <v>273</v>
+      </c>
       <c r="H97" s="523"/>
-      <c r="I97" s="131">
-        <v>0.1</v>
-      </c>
+      <c r="I97" s="131"/>
       <c r="J97" s="385"/>
     </row>
-    <row r="98" spans="1:10" ht="18.75">
+    <row r="98" spans="1:10" ht="56.25">
       <c r="A98" s="384"/>
-      <c r="B98" s="130"/>
-      <c r="C98" s="522"/>
+      <c r="B98" s="130" t="s">
+        <v>277</v>
+      </c>
+      <c r="C98" s="522" t="s">
+        <v>278</v>
+      </c>
       <c r="D98" s="522"/>
-      <c r="E98" s="522"/>
+      <c r="E98" s="522" t="s">
+        <v>279</v>
+      </c>
       <c r="F98" s="522"/>
-      <c r="G98" s="523"/>
+      <c r="G98" s="523" t="s">
+        <v>273</v>
+      </c>
       <c r="H98" s="523"/>
       <c r="I98" s="131"/>
       <c r="J98" s="385"/>
     </row>
-    <row r="99" spans="1:10" ht="18.75">
+    <row r="99" spans="1:10" ht="37.5">
       <c r="A99" s="384"/>
-      <c r="B99" s="130"/>
-      <c r="C99" s="522"/>
+      <c r="B99" s="130" t="s">
+        <v>280</v>
+      </c>
+      <c r="C99" s="522" t="s">
+        <v>275</v>
+      </c>
       <c r="D99" s="522"/>
-      <c r="E99" s="522"/>
+      <c r="E99" s="522" t="s">
+        <v>281</v>
+      </c>
       <c r="F99" s="522"/>
-      <c r="G99" s="523"/>
+      <c r="G99" s="523" t="s">
+        <v>273</v>
+      </c>
       <c r="H99" s="523"/>
       <c r="I99" s="131"/>
       <c r="J99" s="385"/>
     </row>
-    <row r="100" spans="1:10" ht="18.75">
+    <row r="100" spans="1:10" ht="37.5">
       <c r="A100" s="384"/>
-      <c r="B100" s="130"/>
-      <c r="C100" s="522"/>
+      <c r="B100" s="130" t="s">
+        <v>282</v>
+      </c>
+      <c r="C100" s="522" t="s">
+        <v>283</v>
+      </c>
       <c r="D100" s="522"/>
-      <c r="E100" s="522"/>
+      <c r="E100" s="522" t="s">
+        <v>284</v>
+      </c>
       <c r="F100" s="522"/>
-      <c r="G100" s="523"/>
+      <c r="G100" s="523" t="s">
+        <v>273</v>
+      </c>
       <c r="H100" s="523"/>
       <c r="I100" s="131"/>
       <c r="J100" s="385"/>
     </row>
-    <row r="101" spans="1:10" hidden="1">
+    <row r="101" spans="1:10">
       <c r="A101" s="384"/>
-      <c r="B101" s="124"/>
-      <c r="C101" s="524"/>
+      <c r="B101" s="124" t="s">
+        <v>285</v>
+      </c>
+      <c r="C101" s="524" t="s">
+        <v>286</v>
+      </c>
       <c r="D101" s="524"/>
-      <c r="E101" s="524"/>
+      <c r="E101" s="524" t="s">
+        <v>287</v>
+      </c>
       <c r="F101" s="524"/>
-      <c r="G101" s="525"/>
+      <c r="G101" s="525" t="s">
+        <v>273</v>
+      </c>
       <c r="H101" s="525"/>
       <c r="I101" s="88"/>
       <c r="J101" s="385"/>
     </row>
-    <row r="102" spans="1:10" hidden="1">
+    <row r="102" spans="1:10" ht="30">
       <c r="A102" s="384"/>
-      <c r="B102" s="124"/>
-      <c r="C102" s="524"/>
+      <c r="B102" s="124" t="s">
+        <v>288</v>
+      </c>
+      <c r="C102" s="524" t="s">
+        <v>289</v>
+      </c>
       <c r="D102" s="524"/>
-      <c r="E102" s="524"/>
+      <c r="E102" s="524" t="s">
+        <v>290</v>
+      </c>
       <c r="F102" s="524"/>
-      <c r="G102" s="525"/>
+      <c r="G102" s="525" t="s">
+        <v>273</v>
+      </c>
       <c r="H102" s="525"/>
       <c r="I102" s="88"/>
       <c r="J102" s="385"/>
@@ -19009,14 +19210,14 @@
     <row r="105" spans="1:10">
       <c r="A105" s="384"/>
       <c r="B105" s="175" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C105" s="176"/>
       <c r="D105" s="176"/>
       <c r="E105" s="176"/>
       <c r="F105" s="176"/>
       <c r="G105" s="175" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H105" s="176"/>
       <c r="I105" s="176"/>
@@ -19037,14 +19238,14 @@
     <row r="107" spans="1:10">
       <c r="A107" s="384"/>
       <c r="B107" s="395" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C107" s="396"/>
       <c r="D107" s="392"/>
       <c r="E107" s="176"/>
       <c r="F107" s="176"/>
       <c r="G107" s="393" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H107" s="394"/>
       <c r="I107" s="391"/>
@@ -19183,7 +19384,7 @@
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="1.1023622047244095" right="0.31496062992125984" top="0.78740157480314965" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="49" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="43" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -19196,8 +19397,8 @@
   </sheetPr>
   <dimension ref="A1:AN50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:N9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -19340,7 +19541,7 @@
       <c r="A4" s="177"/>
       <c r="B4" s="275"/>
       <c r="C4" s="277" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="279" t="str">
         <f>Kunde</f>
@@ -19380,7 +19581,7 @@
       <c r="A5" s="177"/>
       <c r="B5" s="275"/>
       <c r="C5" s="277" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" s="278" t="str">
         <f>Kundennummer</f>
@@ -19420,7 +19621,7 @@
       <c r="A6" s="177"/>
       <c r="B6" s="275"/>
       <c r="C6" s="277" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="278" t="str">
         <f>ProjektVerantwortKunde</f>
@@ -19428,9 +19629,9 @@
       </c>
       <c r="E6" s="178"/>
       <c r="F6" s="571"/>
-      <c r="G6" s="278" t="str">
+      <c r="G6" s="278">
         <f>Übersicht!D14</f>
-        <v>Herr Hummler (Bausch und Ströbel)</v>
+        <v>0</v>
       </c>
       <c r="H6" s="178"/>
       <c r="I6" s="178"/>
@@ -19460,7 +19661,7 @@
       <c r="A7" s="274"/>
       <c r="B7" s="275"/>
       <c r="C7" s="277" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="278" t="str">
         <f>Projektleiter</f>
@@ -19500,11 +19701,11 @@
       <c r="A8" s="274"/>
       <c r="B8" s="275"/>
       <c r="C8" s="277" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="278" t="str">
         <f>Projektleiter_Stellvertreter</f>
-        <v>Herr Bremser</v>
+        <v xml:space="preserve">Herr Eckert </v>
       </c>
       <c r="E8" s="178"/>
       <c r="F8" s="178"/>
@@ -19540,7 +19741,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="580" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E9" s="581"/>
       <c r="F9" s="178"/>
@@ -19586,7 +19787,7 @@
       <c r="N10" s="285"/>
       <c r="O10" s="286"/>
       <c r="P10" s="589" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="590"/>
       <c r="R10" s="590"/>
@@ -19609,38 +19810,38 @@
         <v>11</v>
       </c>
       <c r="C11" s="158" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="158" t="s">
-        <v>53</v>
-      </c>
       <c r="E11" s="576" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="577"/>
       <c r="G11" s="578"/>
       <c r="H11" s="584" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="585"/>
       <c r="J11" s="586" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K11" s="587"/>
       <c r="L11" s="587"/>
       <c r="M11" s="588"/>
       <c r="N11" s="157" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O11" s="300"/>
       <c r="P11" s="156" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q11" s="157" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R11" s="158" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S11" s="288"/>
       <c r="T11" s="177"/>
@@ -19655,18 +19856,18 @@
       <c r="AC11" s="177"/>
       <c r="AD11" s="276"/>
     </row>
-    <row r="12" spans="1:40" ht="30" customHeight="1">
+    <row r="12" spans="1:40" ht="144" customHeight="1">
       <c r="A12" s="299"/>
       <c r="B12" s="165">
         <v>1</v>
       </c>
       <c r="C12" s="582" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="583"/>
       <c r="E12" s="561" t="str">
         <f>Steckbrief!B19</f>
-        <v>Anbindung aller Maschinen an das Uhlmann SCADA System und an das Kunden ERP System</v>
+        <v>Anbindung von Fremdmaschinen in das Uhlmann SCADA System bis zum 30.01.2018 und unter Einhaltung des Budgets von 310.000€</v>
       </c>
       <c r="F12" s="562"/>
       <c r="G12" s="579"/>
@@ -19680,7 +19881,7 @@
       <c r="O12" s="300"/>
       <c r="P12" s="159"/>
       <c r="Q12" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R12" s="161"/>
       <c r="S12" s="289"/>
@@ -19696,19 +19897,21 @@
       <c r="AC12" s="177"/>
       <c r="AD12" s="276"/>
     </row>
-    <row r="13" spans="1:40" ht="30" customHeight="1">
+    <row r="13" spans="1:40" ht="45" customHeight="1">
       <c r="A13" s="299"/>
       <c r="B13" s="165">
         <f t="shared" ref="B13:B37" si="0">B12+1</f>
         <v>2</v>
       </c>
       <c r="C13" s="167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="165" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="561"/>
+        <v>54</v>
+      </c>
+      <c r="E13" s="561" t="s">
+        <v>297</v>
+      </c>
       <c r="F13" s="562"/>
       <c r="G13" s="563"/>
       <c r="H13" s="556"/>
@@ -19721,7 +19924,7 @@
       <c r="O13" s="300"/>
       <c r="P13" s="159"/>
       <c r="Q13" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R13" s="161"/>
       <c r="S13" s="289"/>
@@ -19744,10 +19947,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="561"/>
       <c r="F14" s="562"/>
@@ -19762,7 +19965,7 @@
       <c r="O14" s="300"/>
       <c r="P14" s="159"/>
       <c r="Q14" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R14" s="161"/>
       <c r="S14" s="289"/>
@@ -19785,10 +19988,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="561"/>
       <c r="F15" s="562"/>
@@ -19803,7 +20006,7 @@
       <c r="O15" s="300"/>
       <c r="P15" s="159"/>
       <c r="Q15" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R15" s="161"/>
       <c r="S15" s="289"/>
@@ -19826,10 +20029,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="561"/>
       <c r="F16" s="562"/>
@@ -19844,7 +20047,7 @@
       <c r="O16" s="294"/>
       <c r="P16" s="159"/>
       <c r="Q16" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R16" s="161"/>
       <c r="S16" s="289"/>
@@ -19867,10 +20070,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="561"/>
       <c r="F17" s="562"/>
@@ -19885,7 +20088,7 @@
       <c r="O17" s="294"/>
       <c r="P17" s="159"/>
       <c r="Q17" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R17" s="161"/>
       <c r="S17" s="289"/>
@@ -19908,10 +20111,10 @@
         <v>7</v>
       </c>
       <c r="C18" s="167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="561"/>
       <c r="F18" s="562"/>
@@ -19926,7 +20129,7 @@
       <c r="O18" s="300"/>
       <c r="P18" s="159"/>
       <c r="Q18" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R18" s="161"/>
       <c r="S18" s="289"/>
@@ -19949,10 +20152,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="561"/>
       <c r="F19" s="562"/>
@@ -19967,7 +20170,7 @@
       <c r="O19" s="300"/>
       <c r="P19" s="159"/>
       <c r="Q19" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R19" s="161"/>
       <c r="S19" s="289"/>
@@ -19990,10 +20193,10 @@
         <v>9</v>
       </c>
       <c r="C20" s="167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="561"/>
       <c r="F20" s="562"/>
@@ -20008,7 +20211,7 @@
       <c r="O20" s="300"/>
       <c r="P20" s="159"/>
       <c r="Q20" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R20" s="161"/>
       <c r="S20" s="289"/>
@@ -20031,10 +20234,10 @@
         <v>10</v>
       </c>
       <c r="C21" s="167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="561"/>
       <c r="F21" s="562"/>
@@ -20049,7 +20252,7 @@
       <c r="O21" s="300"/>
       <c r="P21" s="159"/>
       <c r="Q21" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R21" s="161"/>
       <c r="S21" s="289"/>
@@ -20072,10 +20275,10 @@
         <v>11</v>
       </c>
       <c r="C22" s="167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" s="561"/>
       <c r="F22" s="562"/>
@@ -20090,7 +20293,7 @@
       <c r="O22" s="300"/>
       <c r="P22" s="159"/>
       <c r="Q22" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R22" s="161"/>
       <c r="S22" s="289"/>
@@ -20113,10 +20316,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="561"/>
       <c r="F23" s="562"/>
@@ -20131,7 +20334,7 @@
       <c r="O23" s="294"/>
       <c r="P23" s="159"/>
       <c r="Q23" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R23" s="161"/>
       <c r="S23" s="289"/>
@@ -20154,10 +20357,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="561"/>
       <c r="F24" s="562"/>
@@ -20172,7 +20375,7 @@
       <c r="O24" s="294"/>
       <c r="P24" s="159"/>
       <c r="Q24" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R24" s="161"/>
       <c r="S24" s="289"/>
@@ -20195,10 +20398,10 @@
         <v>14</v>
       </c>
       <c r="C25" s="167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" s="561"/>
       <c r="F25" s="562"/>
@@ -20213,13 +20416,13 @@
       <c r="O25" s="300"/>
       <c r="P25" s="159"/>
       <c r="Q25" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R25" s="161"/>
       <c r="S25" s="289"/>
       <c r="T25" s="177"/>
       <c r="U25" s="290" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="V25" s="177"/>
       <c r="W25" s="177"/>
@@ -20238,10 +20441,10 @@
         <v>15</v>
       </c>
       <c r="C26" s="167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="165" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="561"/>
       <c r="F26" s="562"/>
@@ -20256,13 +20459,13 @@
       <c r="O26" s="300"/>
       <c r="P26" s="159"/>
       <c r="Q26" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R26" s="161"/>
       <c r="S26" s="289"/>
       <c r="T26" s="559" t="str">
         <f>Steckbrief!B27</f>
-        <v>Formatverwaltung, Fehleransicht, Auftragsverwaltung,  und  über das Uhlmann SCADA Syst</v>
+        <v>Formatverwaltung, Fehleransicht, Auftragsverwaltung, Audit-Trail und Einstellungen über das Uhlmann SCADA System</v>
       </c>
       <c r="U26" s="560"/>
       <c r="V26" s="560"/>
@@ -20285,10 +20488,10 @@
         <v>16</v>
       </c>
       <c r="C27" s="167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="165" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" s="561"/>
       <c r="F27" s="562"/>
@@ -20303,13 +20506,13 @@
       <c r="O27" s="300"/>
       <c r="P27" s="159"/>
       <c r="Q27" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R27" s="161"/>
       <c r="S27" s="289"/>
-      <c r="T27" s="559">
+      <c r="T27" s="559" t="str">
         <f>Steckbrief!B28</f>
-        <v>0</v>
+        <v>Auftragsdaten werden über das ERP System (SAP) zur Verfügung gestellt</v>
       </c>
       <c r="U27" s="560"/>
       <c r="V27" s="560"/>
@@ -20318,7 +20521,7 @@
       <c r="Y27" s="560"/>
       <c r="Z27" s="558" t="str">
         <f>Steckbrief!G28</f>
-        <v>gering</v>
+        <v>hoch</v>
       </c>
       <c r="AA27" s="558"/>
       <c r="AB27" s="558"/>
@@ -20332,13 +20535,13 @@
         <v>17</v>
       </c>
       <c r="C28" s="169" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="165" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E28" s="561" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F28" s="562"/>
       <c r="G28" s="563"/>
@@ -20352,22 +20555,22 @@
       <c r="O28" s="300"/>
       <c r="P28" s="159"/>
       <c r="Q28" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R28" s="161"/>
       <c r="S28" s="289"/>
-      <c r="T28" s="559">
+      <c r="T28" s="559" t="str">
         <f>Steckbrief!B29</f>
-        <v>0</v>
+        <v>Die Fremdmaschinenschnittstellen muss über eine globale Standardschnittstelle integriert werden</v>
       </c>
       <c r="U28" s="560"/>
       <c r="V28" s="560"/>
       <c r="W28" s="560"/>
       <c r="X28" s="560"/>
       <c r="Y28" s="560"/>
-      <c r="Z28" s="558">
+      <c r="Z28" s="558" t="str">
         <f>Steckbrief!G29</f>
-        <v>0</v>
+        <v>mittel</v>
       </c>
       <c r="AA28" s="558"/>
       <c r="AB28" s="558"/>
@@ -20381,13 +20584,13 @@
         <v>18</v>
       </c>
       <c r="C29" s="169" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" s="165" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E29" s="573" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29" s="574"/>
       <c r="G29" s="575"/>
@@ -20401,22 +20604,22 @@
       <c r="O29" s="300"/>
       <c r="P29" s="159"/>
       <c r="Q29" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R29" s="161"/>
       <c r="S29" s="289"/>
-      <c r="T29" s="559">
+      <c r="T29" s="559" t="str">
         <f>Steckbrief!B30</f>
-        <v>0</v>
+        <v>Wichtige Zähler müssen an das ERP System weiter gegeben werden</v>
       </c>
       <c r="U29" s="560"/>
       <c r="V29" s="560"/>
       <c r="W29" s="560"/>
       <c r="X29" s="560"/>
       <c r="Y29" s="560"/>
-      <c r="Z29" s="558">
+      <c r="Z29" s="558" t="str">
         <f>Steckbrief!G30</f>
-        <v>0</v>
+        <v>mittel</v>
       </c>
       <c r="AA29" s="558"/>
       <c r="AB29" s="558"/>
@@ -20430,13 +20633,13 @@
         <v>19</v>
       </c>
       <c r="C30" s="169" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="165" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E30" s="561" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F30" s="562"/>
       <c r="G30" s="563"/>
@@ -20450,22 +20653,22 @@
       <c r="O30" s="294"/>
       <c r="P30" s="159"/>
       <c r="Q30" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R30" s="161"/>
       <c r="S30" s="289"/>
-      <c r="T30" s="559">
+      <c r="T30" s="559" t="str">
         <f>Steckbrief!B31</f>
-        <v>0</v>
+        <v>Bedienung und Verwaltung muss gleich der Uhlmann Maschinen sein</v>
       </c>
       <c r="U30" s="560"/>
       <c r="V30" s="560"/>
       <c r="W30" s="560"/>
       <c r="X30" s="560"/>
       <c r="Y30" s="560"/>
-      <c r="Z30" s="558">
+      <c r="Z30" s="558" t="str">
         <f>Steckbrief!G31</f>
-        <v>0</v>
+        <v>hoch</v>
       </c>
       <c r="AA30" s="558"/>
       <c r="AB30" s="558"/>
@@ -20479,13 +20682,13 @@
         <v>20</v>
       </c>
       <c r="C31" s="169" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="165" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E31" s="561" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F31" s="562"/>
       <c r="G31" s="563"/>
@@ -20499,7 +20702,7 @@
       <c r="O31" s="294"/>
       <c r="P31" s="159"/>
       <c r="Q31" s="160" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R31" s="161"/>
       <c r="S31" s="289"/>
@@ -20528,13 +20731,13 @@
         <v>21</v>
       </c>
       <c r="C32" s="169" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" s="165" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E32" s="561" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F32" s="562"/>
       <c r="G32" s="563"/>
@@ -20548,7 +20751,7 @@
       <c r="O32" s="300"/>
       <c r="P32" s="159"/>
       <c r="Q32" s="160" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R32" s="161"/>
       <c r="S32" s="289"/>
@@ -20577,13 +20780,13 @@
         <v>22</v>
       </c>
       <c r="C33" s="169" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D33" s="165" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E33" s="561" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F33" s="562"/>
       <c r="G33" s="563"/>
@@ -20597,7 +20800,7 @@
       <c r="O33" s="300"/>
       <c r="P33" s="159"/>
       <c r="Q33" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R33" s="161"/>
       <c r="S33" s="289"/>
@@ -20626,10 +20829,10 @@
         <v>23</v>
       </c>
       <c r="C34" s="169" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D34" s="165" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E34" s="561"/>
       <c r="F34" s="562"/>
@@ -20644,7 +20847,7 @@
       <c r="O34" s="300"/>
       <c r="P34" s="159"/>
       <c r="Q34" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R34" s="161"/>
       <c r="S34" s="289"/>
@@ -20673,10 +20876,10 @@
         <v>24</v>
       </c>
       <c r="C35" s="169" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" s="165" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E35" s="561"/>
       <c r="F35" s="562"/>
@@ -20691,7 +20894,7 @@
       <c r="O35" s="300"/>
       <c r="P35" s="159"/>
       <c r="Q35" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R35" s="161"/>
       <c r="S35" s="289"/>
@@ -20714,7 +20917,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="170" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D36" s="171"/>
       <c r="E36" s="561"/>
@@ -20751,7 +20954,7 @@
         <v>26</v>
       </c>
       <c r="C37" s="170" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D37" s="171"/>
       <c r="E37" s="561"/>
@@ -21021,7 +21224,7 @@
     </row>
     <row r="2" spans="1:9" s="41" customFormat="1" ht="104.45" customHeight="1" thickBot="1">
       <c r="A2" s="591" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" s="592"/>
       <c r="C2" s="592"/>
@@ -21036,24 +21239,24 @@
       <c r="D3" s="373"/>
       <c r="E3" s="374"/>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="19.5" thickBot="1">
       <c r="A4" s="375"/>
       <c r="B4" s="177"/>
       <c r="C4" s="376" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" s="376" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E4" s="377"/>
     </row>
     <row r="5" spans="1:9" ht="170.1" customHeight="1" thickBot="1">
       <c r="A5" s="375"/>
       <c r="B5" s="378" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="89"/>
       <c r="D5" s="90"/>
@@ -21064,7 +21267,7 @@
     <row r="6" spans="1:9" ht="170.1" customHeight="1" thickBot="1">
       <c r="A6" s="375"/>
       <c r="B6" s="378" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" s="91"/>
       <c r="D6" s="92"/>
@@ -21095,10 +21298,10 @@
       <c r="A10" s="375"/>
       <c r="B10" s="177"/>
       <c r="C10" s="382" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D10" s="382" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E10" s="377"/>
     </row>
@@ -21174,7 +21377,7 @@
       <c r="T1" s="345"/>
       <c r="U1"/>
       <c r="V1" s="84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W1" s="85"/>
       <c r="X1" s="85"/>
@@ -21206,7 +21409,7 @@
       <c r="S2" s="301"/>
       <c r="T2" s="346"/>
       <c r="V2" s="209" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W2" s="176"/>
       <c r="X2" s="176"/>
@@ -21260,7 +21463,7 @@
       <c r="A4" s="301"/>
       <c r="B4" s="301"/>
       <c r="C4" s="347" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="348" t="str">
         <f>Steckbrief!D4</f>
@@ -21289,7 +21492,7 @@
         <v>11</v>
       </c>
       <c r="W4" s="607" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X4" s="608"/>
       <c r="Y4" s="609"/>
@@ -21302,7 +21505,7 @@
       <c r="A5" s="301"/>
       <c r="B5" s="301"/>
       <c r="C5" s="347" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" s="348" t="str">
         <f>Steckbrief!D5</f>
@@ -21345,7 +21548,7 @@
       <c r="A6" s="301"/>
       <c r="B6" s="301"/>
       <c r="C6" s="347" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="348" t="str">
         <f>Steckbrief!D6</f>
@@ -21353,9 +21556,9 @@
       </c>
       <c r="E6" s="349"/>
       <c r="F6" s="598"/>
-      <c r="G6" s="596" t="str">
+      <c r="G6" s="596">
         <f>Steckbrief!D13</f>
-        <v>Herr Hummler (Bausch und Ströbel)</v>
+        <v>0</v>
       </c>
       <c r="H6" s="597"/>
       <c r="I6" s="597"/>
@@ -21388,7 +21591,7 @@
       <c r="A7" s="301"/>
       <c r="B7" s="301"/>
       <c r="C7" s="347" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="348" t="str">
         <f>Steckbrief!D7</f>
@@ -21431,11 +21634,11 @@
       <c r="A8" s="301"/>
       <c r="B8" s="301"/>
       <c r="C8" s="347" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="348" t="str">
         <f>Steckbrief!D8</f>
-        <v>Herr Bremser</v>
+        <v xml:space="preserve">Herr Eckert </v>
       </c>
       <c r="E8" s="349"/>
       <c r="F8" s="349"/>
@@ -21474,7 +21677,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="353" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E9" s="354"/>
       <c r="F9" s="354"/>
@@ -21547,23 +21750,23 @@
         <v>11</v>
       </c>
       <c r="C11" s="138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="604" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11" s="605"/>
       <c r="F11" s="139" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G11" s="606" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H11" s="594"/>
       <c r="I11" s="594"/>
       <c r="J11" s="594"/>
       <c r="K11" s="593" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L11" s="594"/>
       <c r="M11" s="594"/>
@@ -21572,10 +21775,10 @@
       <c r="P11" s="595"/>
       <c r="Q11" s="364"/>
       <c r="R11" s="146" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S11" s="138" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T11" s="346"/>
     </row>
@@ -21870,7 +22073,7 @@
       <c r="B24" s="301"/>
       <c r="C24" s="301"/>
       <c r="D24" s="368" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E24" s="369"/>
       <c r="F24" s="320">
@@ -22146,7 +22349,7 @@
       </c>
       <c r="Q34" s="320"/>
       <c r="R34" s="371" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S34" s="322"/>
       <c r="T34" s="346"/>
@@ -22284,7 +22487,7 @@
       <c r="V1" s="206"/>
       <c r="W1" s="207"/>
       <c r="Y1" s="84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="85"/>
       <c r="AA1" s="85"/>
@@ -22377,7 +22580,7 @@
       <c r="A4" s="301"/>
       <c r="B4" s="275"/>
       <c r="C4" s="277" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="616" t="str">
         <f>Übersicht!D4</f>
@@ -22430,7 +22633,7 @@
       <c r="A5" s="301"/>
       <c r="B5" s="275"/>
       <c r="C5" s="277" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" s="616" t="str">
         <f>Übersicht!D5</f>
@@ -22483,7 +22686,7 @@
       <c r="A6" s="301"/>
       <c r="B6" s="275"/>
       <c r="C6" s="277" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="616" t="str">
         <f>Übersicht!D6</f>
@@ -22499,9 +22702,9 @@
       <c r="L6" s="274"/>
       <c r="M6" s="303"/>
       <c r="N6" s="571"/>
-      <c r="O6" s="278" t="str">
+      <c r="O6" s="278">
         <f>Übersicht!D14</f>
-        <v>Herr Hummler (Bausch und Ströbel)</v>
+        <v>0</v>
       </c>
       <c r="P6" s="303"/>
       <c r="Q6" s="620"/>
@@ -22536,7 +22739,7 @@
       <c r="A7" s="301"/>
       <c r="B7" s="275"/>
       <c r="C7" s="277" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="616" t="str">
         <f>Übersicht!D7</f>
@@ -22589,7 +22792,7 @@
       <c r="A8" s="301"/>
       <c r="B8" s="275"/>
       <c r="C8" s="277" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="616" t="str">
         <f>Übersicht!D8</f>
@@ -22643,7 +22846,7 @@
       </c>
       <c r="D9" s="616" t="str">
         <f>Übersicht!D9</f>
-        <v>Herr Bremser</v>
+        <v xml:space="preserve">Herr Eckert </v>
       </c>
       <c r="E9" s="617"/>
       <c r="F9" s="617"/>
@@ -22736,10 +22939,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="152" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D11" s="625" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E11" s="626"/>
       <c r="F11" s="626"/>
@@ -22751,29 +22954,29 @@
       <c r="L11" s="626"/>
       <c r="M11" s="627"/>
       <c r="N11" s="153" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="O11" s="154" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="P11" s="155" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="Q11" s="155" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R11" s="155" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S11" s="312"/>
       <c r="T11" s="150" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U11" s="114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V11" s="111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W11" s="276"/>
     </row>
@@ -22803,7 +23006,7 @@
       <c r="R12" s="119"/>
       <c r="S12" s="312"/>
       <c r="T12" s="151" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U12" s="93"/>
       <c r="V12" s="94"/>
@@ -22836,7 +23039,7 @@
       <c r="R13" s="120"/>
       <c r="S13" s="313"/>
       <c r="T13" s="151" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U13" s="93"/>
       <c r="V13" s="94"/>
@@ -23190,7 +23393,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="225" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D25" s="628"/>
       <c r="E25" s="629"/>
@@ -23245,7 +23448,7 @@
       <c r="A27" s="301"/>
       <c r="B27" s="177"/>
       <c r="C27" s="326" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D27" s="135"/>
       <c r="E27" s="136"/>
@@ -23554,7 +23757,7 @@
         <v>250</v>
       </c>
       <c r="N37" s="324" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O37" s="177"/>
       <c r="P37" s="177"/>
@@ -24219,7 +24422,7 @@
       <c r="V1" s="206"/>
       <c r="W1" s="207"/>
       <c r="Y1" s="84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="85"/>
       <c r="AA1" s="85"/>
@@ -24312,7 +24515,7 @@
       <c r="A4" s="301"/>
       <c r="B4" s="275"/>
       <c r="C4" s="277" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="616" t="str">
         <f>Übersicht!D4</f>
@@ -24365,7 +24568,7 @@
       <c r="A5" s="301"/>
       <c r="B5" s="275"/>
       <c r="C5" s="277" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" s="616" t="str">
         <f>Übersicht!D5</f>
@@ -24418,7 +24621,7 @@
       <c r="A6" s="301"/>
       <c r="B6" s="275"/>
       <c r="C6" s="277" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="616" t="str">
         <f>Übersicht!D6</f>
@@ -24434,9 +24637,9 @@
       <c r="L6" s="274"/>
       <c r="M6" s="303"/>
       <c r="N6" s="571"/>
-      <c r="O6" s="278" t="str">
+      <c r="O6" s="278">
         <f>Übersicht!D14</f>
-        <v>Herr Hummler (Bausch und Ströbel)</v>
+        <v>0</v>
       </c>
       <c r="P6" s="303"/>
       <c r="Q6" s="620"/>
@@ -24471,7 +24674,7 @@
       <c r="A7" s="301"/>
       <c r="B7" s="275"/>
       <c r="C7" s="277" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="616" t="str">
         <f>Übersicht!D7</f>
@@ -24524,7 +24727,7 @@
       <c r="A8" s="301"/>
       <c r="B8" s="275"/>
       <c r="C8" s="277" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="616" t="str">
         <f>Übersicht!D8</f>
@@ -24578,7 +24781,7 @@
       </c>
       <c r="D9" s="616" t="str">
         <f>Übersicht!D9</f>
-        <v>Herr Bremser</v>
+        <v xml:space="preserve">Herr Eckert </v>
       </c>
       <c r="E9" s="617"/>
       <c r="F9" s="617"/>
@@ -24671,10 +24874,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="111" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D11" s="634" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E11" s="635"/>
       <c r="F11" s="635"/>
@@ -24686,29 +24889,29 @@
       <c r="L11" s="635"/>
       <c r="M11" s="636"/>
       <c r="N11" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" s="113" t="s">
+        <v>140</v>
+      </c>
+      <c r="P11" s="114" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q11" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="R11" s="114" t="s">
         <v>73</v>
-      </c>
-      <c r="O11" s="113" t="s">
-        <v>147</v>
-      </c>
-      <c r="P11" s="114" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q11" s="114" t="s">
-        <v>74</v>
-      </c>
-      <c r="R11" s="114" t="s">
-        <v>75</v>
       </c>
       <c r="S11" s="312"/>
       <c r="T11" s="150" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U11" s="114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V11" s="111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W11" s="276"/>
     </row>
@@ -24735,7 +24938,7 @@
       <c r="R12" s="119"/>
       <c r="S12" s="312"/>
       <c r="T12" s="151" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U12" s="93"/>
       <c r="V12" s="94"/>
@@ -24765,7 +24968,7 @@
       <c r="R13" s="120"/>
       <c r="S13" s="313"/>
       <c r="T13" s="151" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U13" s="93"/>
       <c r="V13" s="94"/>
@@ -25119,7 +25322,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="225" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D25" s="631"/>
       <c r="E25" s="632"/>
@@ -25174,7 +25377,7 @@
       <c r="A27" s="301"/>
       <c r="B27" s="177"/>
       <c r="C27" s="319" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D27" s="135"/>
       <c r="E27" s="136"/>
@@ -25473,7 +25676,7 @@
         <v>250</v>
       </c>
       <c r="N37" s="324" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O37" s="177"/>
       <c r="P37" s="177"/>
@@ -26187,7 +26390,7 @@
       <c r="A4" s="325"/>
       <c r="B4" s="301"/>
       <c r="C4" s="277" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="278" t="str">
         <f>Steckbrief!D4</f>
@@ -26216,7 +26419,7 @@
       <c r="A5" s="325"/>
       <c r="B5" s="301"/>
       <c r="C5" s="277" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" s="278" t="str">
         <f>Steckbrief!D5</f>
@@ -26245,7 +26448,7 @@
       <c r="A6" s="325"/>
       <c r="B6" s="301"/>
       <c r="C6" s="277" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="278" t="str">
         <f>Steckbrief!D6</f>
@@ -26253,9 +26456,9 @@
       </c>
       <c r="E6" s="274"/>
       <c r="F6" s="644"/>
-      <c r="G6" s="645" t="str">
+      <c r="G6" s="645">
         <f>Steckbrief!D13</f>
-        <v>Herr Hummler (Bausch und Ströbel)</v>
+        <v>0</v>
       </c>
       <c r="H6" s="646"/>
       <c r="I6" s="646"/>
@@ -26274,7 +26477,7 @@
       <c r="A7" s="325"/>
       <c r="B7" s="301"/>
       <c r="C7" s="277" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="278" t="str">
         <f>Steckbrief!D7</f>
@@ -26303,11 +26506,11 @@
       <c r="A8" s="325"/>
       <c r="B8" s="301"/>
       <c r="C8" s="277" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="278" t="str">
         <f>Steckbrief!D8</f>
-        <v>Herr Bremser</v>
+        <v xml:space="preserve">Herr Eckert </v>
       </c>
       <c r="E8" s="274"/>
       <c r="F8" s="274"/>
@@ -26332,7 +26535,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="336" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E9" s="305"/>
       <c r="F9" s="305"/>
@@ -26377,23 +26580,23 @@
         <v>11</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D11" s="638" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E11" s="639"/>
       <c r="F11" s="49" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G11" s="640" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H11" s="641"/>
       <c r="I11" s="641"/>
       <c r="J11" s="641"/>
       <c r="K11" s="642" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="L11" s="641"/>
       <c r="M11" s="641"/>
@@ -26744,11 +26947,11 @@
   <sheetData>
     <row r="1" spans="1:33" ht="21">
       <c r="A1" s="266" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B1" s="401"/>
       <c r="C1" s="267" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D1" s="267"/>
       <c r="E1" s="267"/>
@@ -26776,7 +26979,7 @@
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="270" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="174"/>
       <c r="C2" s="174">
@@ -26904,11 +27107,11 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="407" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="400" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="41"/>
@@ -26936,7 +27139,7 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="407" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B4" s="41"/>
       <c r="C4" s="272"/>
@@ -26966,12 +27169,12 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="407" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
       <c r="D5" s="403" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E5" s="41"/>
       <c r="F5" s="404"/>
@@ -26998,7 +27201,7 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="407" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -27028,7 +27231,7 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="407" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
@@ -27044,7 +27247,7 @@
       <c r="M7" s="41"/>
       <c r="N7" s="405"/>
       <c r="O7" s="403" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="P7" s="41"/>
       <c r="Q7" s="41"/>
@@ -27060,7 +27263,7 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="407" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
@@ -27090,7 +27293,7 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="407" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
@@ -27112,7 +27315,7 @@
       <c r="S9" s="41"/>
       <c r="T9" s="41"/>
       <c r="U9" s="403" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="V9" s="41"/>
       <c r="W9" s="41"/>
@@ -27122,7 +27325,7 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="407" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
@@ -27152,7 +27355,7 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="407" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
@@ -27175,7 +27378,7 @@
       <c r="T11" s="41"/>
       <c r="U11" s="41"/>
       <c r="V11" s="403" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="W11" s="41"/>
       <c r="X11" s="41"/>
@@ -27184,7 +27387,7 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="407" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -27214,7 +27417,7 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="407" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
@@ -27238,7 +27441,7 @@
       <c r="U13" s="41"/>
       <c r="V13" s="41"/>
       <c r="W13" s="403" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="X13" s="41"/>
       <c r="Y13" s="41"/>
@@ -27246,7 +27449,7 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="407" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -27276,7 +27479,7 @@
     </row>
     <row r="15" spans="1:33" ht="15.75" thickBot="1">
       <c r="A15" s="408" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B15" s="406"/>
       <c r="C15" s="406"/>
@@ -27303,7 +27506,7 @@
       <c r="X15" s="406"/>
       <c r="Y15" s="406"/>
       <c r="Z15" s="409" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Vorlagetool Excel Blattsammlung ICB4 V7_1.xlsx
+++ b/Vorlagetool Excel Blattsammlung ICB4 V7_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\Desktop\IPMAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9B4600-1AC3-46F7-A4ED-53162DFC0E27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AAFE56-1A27-40BC-83A6-666A43A07D6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="15" r:id="rId1"/>
@@ -1145,7 +1145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="419">
   <si>
     <t>Projektname</t>
   </si>
@@ -1784,9 +1784,6 @@
     <t>Statusdatum = Erstelldatum</t>
   </si>
   <si>
-    <t>23.06.2018</t>
-  </si>
-  <si>
     <t>Bezeichnung des Arbeitspaketes</t>
   </si>
   <si>
@@ -1899,13 +1896,6 @@
   </si>
   <si>
     <t>Bedienung und Verwaltung muss gleich der Uhlmann Maschinen sein</t>
-  </si>
-  <si>
-    <t>Zu diesem Teilprojekt (Anbindung der Fremdmaschinen) gehört nicht eine Schnittstelle, die 100% alle Fremdmaschinen anbinden kann. Der Fokus liegt auf die Pestermaschinen.</t>
-  </si>
-  <si>
-    <t>Mögliche Risiken sind, verpäteter "Design Freeze" für Konstruktion der Maschinen und der Software.
-Oder die Verschiebung der Fertigstellung der Maschine bis zur Integration.</t>
   </si>
   <si>
     <t>30.11.2016</t>
@@ -2489,6 +2479,46 @@
   </si>
   <si>
     <t>Interne IT Abteilung</t>
+  </si>
+  <si>
+    <t>Zu diesem Teilprojekt (Anbindung der Fremdmaschinen) gehört nicht eine Schnittstelle, die 100% alle Fremdmaschinen anbinden kann. Der Fokus liegt auf den Pestermaschinen.</t>
+  </si>
+  <si>
+    <t>Mögliche Risiken sind, verspäteter "Design Freeze" für Konstruktion der Maschinen und der Software.
+Oder die Verschiebung der Fertigstellung der Maschine bis zur Integration.</t>
+  </si>
+  <si>
+    <t>Pharmazeutischer Konzern</t>
+  </si>
+  <si>
+    <t>Aufbau eines Testsystem für die Entwicklung der Software, zur Anbindung einer Fremdmaschine (Pester), mit der vereinbarten Definition</t>
+  </si>
+  <si>
+    <t>13.03.2017</t>
+  </si>
+  <si>
+    <t>Sollte frühzeitig abgeschlossen.
+Da nur noch der Test aussteht</t>
+  </si>
+  <si>
+    <t>Umgebung wurde aufgebaut.
+Die IT hat bereits alles vernetzt.
+Testverbindung steht aus.</t>
+  </si>
+  <si>
+    <t>Bei den Ausgaben sind wir aktuell 500€ unter dem Budget (Hardware)</t>
+  </si>
+  <si>
+    <t>Es steht die Testverbindung aus, ansonsten ist alles vorbereitet.</t>
+  </si>
+  <si>
+    <t>Testumgebung aufgebaut. Durch die IT vernetzt</t>
+  </si>
+  <si>
+    <t>Testverbindung steht aus</t>
+  </si>
+  <si>
+    <t>aktuell keine notwendig</t>
   </si>
 </sst>
 </file>
@@ -5418,6 +5448,45 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="53" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="53" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="53" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="53" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5441,45 +5510,6 @@
     </xf>
     <xf numFmtId="0" fontId="54" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="53" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="16" borderId="75" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6048,7 +6078,22 @@
     <cellStyle name="Standard 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="Standard 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -10930,7 +10975,7 @@
       </c>
       <c r="C3" s="478"/>
       <c r="D3" s="481" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E3" s="480"/>
       <c r="F3" s="480"/>
@@ -10947,7 +10992,7 @@
       </c>
       <c r="C4" s="478"/>
       <c r="D4" s="481" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E4" s="480"/>
       <c r="F4" s="480"/>
@@ -10964,7 +11009,7 @@
       </c>
       <c r="C5" s="478"/>
       <c r="D5" s="481" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E5" s="480"/>
       <c r="F5" s="480"/>
@@ -10981,7 +11026,7 @@
       </c>
       <c r="C6" s="478"/>
       <c r="D6" s="488" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E6" s="489"/>
       <c r="F6" s="489"/>
@@ -10998,7 +11043,7 @@
       </c>
       <c r="C7" s="478"/>
       <c r="D7" s="479" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E7" s="480"/>
       <c r="F7" s="480"/>
@@ -11015,7 +11060,7 @@
       </c>
       <c r="C8" s="478"/>
       <c r="D8" s="481" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E8" s="480"/>
       <c r="F8" s="480"/>
@@ -11032,7 +11077,7 @@
       </c>
       <c r="C9" s="478"/>
       <c r="D9" s="481" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E9" s="480"/>
       <c r="F9" s="480"/>
@@ -11049,7 +11094,7 @@
       </c>
       <c r="C10" s="478"/>
       <c r="D10" s="481" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E10" s="480"/>
       <c r="F10" s="480"/>
@@ -11066,7 +11111,7 @@
       </c>
       <c r="C11" s="483"/>
       <c r="D11" s="481" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E11" s="480"/>
       <c r="F11" s="480"/>
@@ -11081,7 +11126,7 @@
       <c r="B12" s="484"/>
       <c r="C12" s="485"/>
       <c r="D12" s="481" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E12" s="480"/>
       <c r="F12" s="480"/>
@@ -11096,7 +11141,7 @@
       <c r="B13" s="484"/>
       <c r="C13" s="485"/>
       <c r="D13" s="481" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E13" s="480"/>
       <c r="F13" s="480"/>
@@ -11334,8 +11379,8 @@
   </sheetPr>
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:I5"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11419,7 +11464,7 @@
       </c>
       <c r="C5" s="555"/>
       <c r="D5" s="660" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E5" s="661"/>
       <c r="F5" s="661"/>
@@ -11486,7 +11531,7 @@
       </c>
       <c r="C9" s="555"/>
       <c r="D9" s="674" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E9" s="674"/>
       <c r="F9" s="674"/>
@@ -11502,7 +11547,7 @@
       </c>
       <c r="C10" s="544"/>
       <c r="D10" s="663" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E10" s="664"/>
       <c r="F10" s="664"/>
@@ -11643,7 +11688,7 @@
     <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="258"/>
       <c r="B20" s="665" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C20" s="666"/>
       <c r="D20" s="666"/>
@@ -11751,7 +11796,7 @@
     <row r="28" spans="1:10" ht="18.75">
       <c r="A28" s="258"/>
       <c r="B28" s="493" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C28" s="494"/>
       <c r="D28" s="494"/>
@@ -11767,14 +11812,14 @@
     <row r="29" spans="1:10" ht="18.75">
       <c r="A29" s="258"/>
       <c r="B29" s="493" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C29" s="494"/>
       <c r="D29" s="494"/>
       <c r="E29" s="494"/>
       <c r="F29" s="495"/>
       <c r="G29" s="508" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H29" s="508"/>
       <c r="I29" s="508"/>
@@ -11783,14 +11828,14 @@
     <row r="30" spans="1:10" ht="18.75">
       <c r="A30" s="258"/>
       <c r="B30" s="493" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C30" s="494"/>
       <c r="D30" s="494"/>
       <c r="E30" s="494"/>
       <c r="F30" s="495"/>
       <c r="G30" s="508" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H30" s="508"/>
       <c r="I30" s="508"/>
@@ -11799,7 +11844,7 @@
     <row r="31" spans="1:10" ht="18.75">
       <c r="A31" s="258"/>
       <c r="B31" s="493" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C31" s="494"/>
       <c r="D31" s="494"/>
@@ -11815,14 +11860,14 @@
     <row r="32" spans="1:10" ht="18.75">
       <c r="A32" s="258"/>
       <c r="B32" s="493" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C32" s="494"/>
       <c r="D32" s="494"/>
       <c r="E32" s="494"/>
       <c r="F32" s="495"/>
       <c r="G32" s="508" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H32" s="508"/>
       <c r="I32" s="508"/>
@@ -11881,7 +11926,7 @@
     <row r="37" spans="1:10">
       <c r="A37" s="258"/>
       <c r="B37" s="529" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C37" s="529"/>
       <c r="D37" s="529"/>
@@ -11985,10 +12030,10 @@
     <row r="45" spans="1:10" ht="18.75">
       <c r="A45" s="260"/>
       <c r="B45" s="124" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C45" s="535" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D45" s="512"/>
       <c r="E45" s="512"/>
@@ -12001,10 +12046,10 @@
     <row r="46" spans="1:10" ht="18.75">
       <c r="A46" s="260"/>
       <c r="B46" s="124" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C46" s="535" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D46" s="512"/>
       <c r="E46" s="512"/>
@@ -12097,7 +12142,7 @@
     <row r="53" spans="1:10">
       <c r="A53" s="258"/>
       <c r="B53" s="514" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C53" s="515"/>
       <c r="D53" s="515"/>
@@ -12161,7 +12206,7 @@
     <row r="58" spans="1:10">
       <c r="A58" s="258"/>
       <c r="B58" s="677" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C58" s="678"/>
       <c r="D58" s="678"/>
@@ -12292,7 +12337,7 @@
         <v>88</v>
       </c>
       <c r="I66" s="125" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J66" s="259"/>
     </row>
@@ -12325,7 +12370,7 @@
     <row r="69" spans="1:10" ht="18.75">
       <c r="A69" s="258"/>
       <c r="B69" s="535" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C69" s="536"/>
       <c r="D69" s="536"/>
@@ -12466,7 +12511,7 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="D6 A2:J2 A3:C8 J3:J8 D11:I15 E39:J41 A39:D41 A75:J78 A62:A63 E16:J32 E49:J62 C63:D63 F63:G63 I63:J63 A49:D61 A16:D32 A10:C15 J10:J15 A64:J74 A33:D38 E33:J38 A42:D48 E42:J48" name="F301"/>
+    <protectedRange sqref="D6 A2:J2 A3:C8 J3:J8 D11:I15 A16:J48 A62:A63 E49:J62 C63:D63 F63:G63 I63:J63 A49:D61 A10:C15 J10:J15 A64:J78" name="F301"/>
     <protectedRange sqref="B62:D62" name="F301_4"/>
     <protectedRange sqref="B63" name="F301_5"/>
     <protectedRange sqref="E63" name="F301_6"/>
@@ -12550,8 +12595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I38" sqref="A2:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12560,7 +12605,7 @@
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" customWidth="1"/>
     <col min="5" max="5" width="5.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="34.85546875" customWidth="1"/>
     <col min="9" max="9" width="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12589,7 +12634,7 @@
       <c r="H3" s="430"/>
       <c r="I3" s="458"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1">
       <c r="A4" s="456"/>
       <c r="B4" s="686" t="s">
         <v>191</v>
@@ -12598,7 +12643,7 @@
       <c r="D4" s="686"/>
       <c r="E4" s="686"/>
       <c r="F4" s="431" t="s">
-        <v>192</v>
+        <v>411</v>
       </c>
       <c r="G4" s="432"/>
       <c r="H4" s="432"/>
@@ -12607,12 +12652,14 @@
     <row r="5" spans="1:9">
       <c r="A5" s="456"/>
       <c r="B5" s="686" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C5" s="686"/>
       <c r="D5" s="686"/>
       <c r="E5" s="686"/>
-      <c r="F5" s="687"/>
+      <c r="F5" s="687" t="s">
+        <v>409</v>
+      </c>
       <c r="G5" s="687"/>
       <c r="H5" s="687"/>
       <c r="I5" s="459"/>
@@ -12625,7 +12672,9 @@
       <c r="C6" s="686"/>
       <c r="D6" s="686"/>
       <c r="E6" s="686"/>
-      <c r="F6" s="687"/>
+      <c r="F6" s="687" t="s">
+        <v>213</v>
+      </c>
       <c r="G6" s="687"/>
       <c r="H6" s="687"/>
       <c r="I6" s="459"/>
@@ -12638,7 +12687,9 @@
       <c r="C7" s="686"/>
       <c r="D7" s="686"/>
       <c r="E7" s="686"/>
-      <c r="F7" s="687"/>
+      <c r="F7" s="687" t="s">
+        <v>215</v>
+      </c>
       <c r="G7" s="687"/>
       <c r="H7" s="687"/>
       <c r="I7" s="459"/>
@@ -12651,7 +12702,9 @@
       <c r="C8" s="686"/>
       <c r="D8" s="686"/>
       <c r="E8" s="686"/>
-      <c r="F8" s="688"/>
+      <c r="F8" s="688" t="s">
+        <v>371</v>
+      </c>
       <c r="G8" s="688"/>
       <c r="H8" s="688"/>
       <c r="I8" s="459"/>
@@ -12659,12 +12712,14 @@
     <row r="9" spans="1:9" ht="14.45" customHeight="1">
       <c r="A9" s="456"/>
       <c r="B9" s="686" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" s="686"/>
       <c r="D9" s="686"/>
       <c r="E9" s="686"/>
-      <c r="F9" s="687"/>
+      <c r="F9" s="687" t="s">
+        <v>410</v>
+      </c>
       <c r="G9" s="687"/>
       <c r="H9" s="687"/>
       <c r="I9" s="459"/>
@@ -12672,12 +12727,14 @@
     <row r="10" spans="1:9" ht="14.45" customHeight="1">
       <c r="A10" s="456"/>
       <c r="B10" s="686" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" s="686"/>
       <c r="D10" s="686"/>
       <c r="E10" s="686"/>
-      <c r="F10" s="687"/>
+      <c r="F10" s="687" t="s">
+        <v>372</v>
+      </c>
       <c r="G10" s="687"/>
       <c r="H10" s="687"/>
       <c r="I10" s="459"/>
@@ -12698,28 +12755,30 @@
       <c r="B12" s="444"/>
       <c r="C12" s="445"/>
       <c r="D12" s="446" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E12" s="447"/>
       <c r="F12" s="438" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G12" s="438"/>
-      <c r="H12" s="692"/>
+      <c r="H12" s="692" t="s">
+        <v>412</v>
+      </c>
       <c r="I12" s="461"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="460"/>
       <c r="B13" s="444" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C13" s="445"/>
       <c r="D13" s="446" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E13" s="447"/>
       <c r="F13" s="438" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G13" s="438"/>
       <c r="H13" s="692"/>
@@ -12730,7 +12789,7 @@
       <c r="B14" s="448"/>
       <c r="C14" s="449"/>
       <c r="D14" s="451" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E14" s="447"/>
       <c r="F14" s="438"/>
@@ -12765,28 +12824,30 @@
       <c r="B17" s="444"/>
       <c r="C17" s="445"/>
       <c r="D17" s="446" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E17" s="447"/>
       <c r="F17" s="438" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G17" s="438"/>
-      <c r="H17" s="692"/>
+      <c r="H17" s="692" t="s">
+        <v>413</v>
+      </c>
       <c r="I17" s="461"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="460"/>
       <c r="B18" s="444" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C18" s="445"/>
       <c r="D18" s="446" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E18" s="447"/>
       <c r="F18" s="438" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G18" s="438"/>
       <c r="H18" s="692"/>
@@ -12796,8 +12857,8 @@
       <c r="A19" s="460"/>
       <c r="B19" s="448"/>
       <c r="C19" s="449"/>
-      <c r="D19" s="446" t="s">
-        <v>195</v>
+      <c r="D19" s="451" t="s">
+        <v>194</v>
       </c>
       <c r="E19" s="447"/>
       <c r="F19" s="438"/>
@@ -12832,28 +12893,30 @@
       <c r="B22" s="444"/>
       <c r="C22" s="445"/>
       <c r="D22" s="446" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E22" s="447"/>
       <c r="F22" s="438" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G22" s="438"/>
-      <c r="H22" s="692"/>
+      <c r="H22" s="692" t="s">
+        <v>414</v>
+      </c>
       <c r="I22" s="461"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="460"/>
       <c r="B23" s="444" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C23" s="445"/>
       <c r="D23" s="446" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E23" s="447"/>
       <c r="F23" s="438" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G23" s="438"/>
       <c r="H23" s="692"/>
@@ -12863,8 +12926,8 @@
       <c r="A24" s="460"/>
       <c r="B24" s="448"/>
       <c r="C24" s="449"/>
-      <c r="D24" s="446" t="s">
-        <v>195</v>
+      <c r="D24" s="451" t="s">
+        <v>194</v>
       </c>
       <c r="E24" s="447"/>
       <c r="F24" s="438"/>
@@ -12899,24 +12962,26 @@
       <c r="B27" s="444"/>
       <c r="C27" s="445"/>
       <c r="D27" s="446" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E27" s="447"/>
       <c r="F27" s="450" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G27" s="438"/>
-      <c r="H27" s="692"/>
+      <c r="H27" s="692" t="s">
+        <v>415</v>
+      </c>
       <c r="I27" s="461"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="460"/>
       <c r="B28" s="444" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C28" s="449"/>
       <c r="D28" s="446" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E28" s="447"/>
       <c r="F28" s="438"/>
@@ -12928,8 +12993,8 @@
       <c r="A29" s="460"/>
       <c r="B29" s="448"/>
       <c r="C29" s="449"/>
-      <c r="D29" s="446" t="s">
-        <v>195</v>
+      <c r="D29" s="451" t="s">
+        <v>194</v>
       </c>
       <c r="E29" s="447"/>
       <c r="F29" s="438"/>
@@ -12951,11 +13016,13 @@
     <row r="31" spans="1:9">
       <c r="A31" s="456"/>
       <c r="B31" s="690" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C31" s="694"/>
       <c r="D31" s="691"/>
-      <c r="E31" s="695"/>
+      <c r="E31" s="695" t="s">
+        <v>416</v>
+      </c>
       <c r="F31" s="696"/>
       <c r="G31" s="696"/>
       <c r="H31" s="697"/>
@@ -12964,11 +13031,13 @@
     <row r="32" spans="1:9">
       <c r="A32" s="456"/>
       <c r="B32" s="690" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C32" s="694"/>
       <c r="D32" s="691"/>
-      <c r="E32" s="695"/>
+      <c r="E32" s="695" t="s">
+        <v>417</v>
+      </c>
       <c r="F32" s="696"/>
       <c r="G32" s="696"/>
       <c r="H32" s="697"/>
@@ -12977,11 +13046,13 @@
     <row r="33" spans="1:9">
       <c r="A33" s="456"/>
       <c r="B33" s="690" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C33" s="694"/>
       <c r="D33" s="691"/>
-      <c r="E33" s="695"/>
+      <c r="E33" s="695" t="s">
+        <v>418</v>
+      </c>
       <c r="F33" s="696"/>
       <c r="G33" s="696"/>
       <c r="H33" s="697"/>
@@ -12990,52 +13061,62 @@
     <row r="34" spans="1:9">
       <c r="A34" s="456"/>
       <c r="B34" s="689" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C34" s="689"/>
       <c r="D34" s="689"/>
-      <c r="E34" s="434"/>
+      <c r="E34" s="434">
+        <v>85</v>
+      </c>
       <c r="F34" s="690" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G34" s="691"/>
-      <c r="H34" s="434"/>
+      <c r="H34" s="434">
+        <v>65</v>
+      </c>
       <c r="I34" s="459"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="456"/>
       <c r="B35" s="689" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C35" s="689"/>
       <c r="D35" s="689"/>
-      <c r="E35" s="434"/>
+      <c r="E35" s="434">
+        <v>20</v>
+      </c>
       <c r="F35" s="690" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G35" s="691"/>
-      <c r="H35" s="434"/>
+      <c r="H35" s="434">
+        <v>85</v>
+      </c>
       <c r="I35" s="459"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="456"/>
       <c r="B36" s="689" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C36" s="689"/>
       <c r="D36" s="689"/>
       <c r="E36" s="435"/>
       <c r="F36" s="690" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G36" s="691"/>
-      <c r="H36" s="434"/>
+      <c r="H36" s="435">
+        <v>42810</v>
+      </c>
       <c r="I36" s="459"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="456"/>
       <c r="B37" s="689" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C37" s="689"/>
       <c r="D37" s="689"/>
@@ -13043,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="690" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G37" s="691"/>
       <c r="H37" s="434"/>
@@ -13099,62 +13180,62 @@
     <mergeCell ref="F7:H7"/>
   </mergeCells>
   <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="34" priority="15" stopIfTrue="1">
+      <formula>#REF!="Null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="33" priority="14" stopIfTrue="1">
+      <formula>#REF!="Fünfzig"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="32" priority="13" stopIfTrue="1">
+      <formula>#REF!="Hundert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
     <cfRule type="expression" dxfId="31" priority="12" stopIfTrue="1">
       <formula>#REF!="Null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="D18">
     <cfRule type="expression" dxfId="30" priority="11" stopIfTrue="1">
       <formula>#REF!="Fünfzig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="29" priority="10" stopIfTrue="1">
-      <formula>#REF!="Hundert"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="D22">
     <cfRule type="expression" dxfId="28" priority="9" stopIfTrue="1">
       <formula>#REF!="Null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" dxfId="27" priority="8" stopIfTrue="1">
       <formula>#REF!="Fünfzig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
-      <formula>#REF!="Hundert"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="D27">
     <cfRule type="expression" dxfId="25" priority="6" stopIfTrue="1">
       <formula>#REF!="Null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D28">
     <cfRule type="expression" dxfId="24" priority="5" stopIfTrue="1">
       <formula>#REF!="Fünfzig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>#REF!="Hundert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="22" priority="3" stopIfTrue="1">
-      <formula>#REF!="Null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="21" priority="2" stopIfTrue="1">
-      <formula>#REF!="Fünfzig"</formula>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>#REF!="Hundert"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>#REF!="Hundert"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13237,12 +13318,12 @@
     <row r="4" spans="1:16">
       <c r="A4" s="367"/>
       <c r="B4" s="426" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C4" s="174"/>
       <c r="D4" s="174"/>
       <c r="E4" s="699" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F4" s="699"/>
       <c r="G4" s="699"/>
@@ -13299,7 +13380,7 @@
     <row r="7" spans="1:16">
       <c r="A7" s="367"/>
       <c r="B7" s="702" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C7" s="702"/>
       <c r="D7" s="145"/>
@@ -13331,7 +13412,7 @@
     <row r="8" spans="1:16">
       <c r="A8" s="367"/>
       <c r="B8" s="702" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C8" s="702"/>
       <c r="D8" s="145"/>
@@ -13359,7 +13440,7 @@
     <row r="9" spans="1:16">
       <c r="A9" s="367"/>
       <c r="B9" s="702" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C9" s="702"/>
       <c r="D9" s="145"/>
@@ -13383,7 +13464,7 @@
     <row r="10" spans="1:16">
       <c r="A10" s="367"/>
       <c r="B10" s="702" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C10" s="702"/>
       <c r="D10" s="145"/>
@@ -13405,7 +13486,7 @@
     <row r="11" spans="1:16">
       <c r="A11" s="367"/>
       <c r="B11" s="703" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C11" s="703"/>
       <c r="D11" s="178"/>
@@ -13506,7 +13587,7 @@
     <row r="15" spans="1:16">
       <c r="A15" s="367"/>
       <c r="B15" s="705" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C15" s="705"/>
       <c r="D15" s="174"/>
@@ -13883,25 +13964,25 @@
       <c r="C34" s="174"/>
       <c r="D34" s="174"/>
       <c r="E34" s="428" t="s">
+        <v>394</v>
+      </c>
+      <c r="F34" s="428" t="s">
+        <v>395</v>
+      </c>
+      <c r="G34" s="477" t="s">
+        <v>396</v>
+      </c>
+      <c r="H34" s="477" t="s">
         <v>397</v>
       </c>
-      <c r="F34" s="428" t="s">
+      <c r="I34" s="477" t="s">
         <v>398</v>
       </c>
-      <c r="G34" s="477" t="s">
+      <c r="J34" s="477" t="s">
         <v>399</v>
       </c>
-      <c r="H34" s="477" t="s">
+      <c r="K34" s="477" t="s">
         <v>400</v>
-      </c>
-      <c r="I34" s="477" t="s">
-        <v>401</v>
-      </c>
-      <c r="J34" s="477" t="s">
-        <v>402</v>
-      </c>
-      <c r="K34" s="477" t="s">
-        <v>403</v>
       </c>
       <c r="L34" s="174"/>
       <c r="M34" s="429" t="s">
@@ -14084,11 +14165,11 @@
     <row r="10" spans="1:7">
       <c r="A10" s="181"/>
       <c r="B10" s="714" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C10" s="715"/>
       <c r="D10" s="715" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E10" s="715"/>
       <c r="F10" s="716"/>
@@ -14097,11 +14178,11 @@
     <row r="11" spans="1:7">
       <c r="A11" s="181"/>
       <c r="B11" s="707" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C11" s="708"/>
       <c r="D11" s="708" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E11" s="708"/>
       <c r="F11" s="709"/>
@@ -14110,11 +14191,11 @@
     <row r="12" spans="1:7">
       <c r="A12" s="181"/>
       <c r="B12" s="707" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C12" s="708"/>
       <c r="D12" s="708" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E12" s="708"/>
       <c r="F12" s="709"/>
@@ -14123,11 +14204,11 @@
     <row r="13" spans="1:7">
       <c r="A13" s="181"/>
       <c r="B13" s="707" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C13" s="708"/>
       <c r="D13" s="708" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E13" s="708"/>
       <c r="F13" s="709"/>
@@ -15856,36 +15937,36 @@
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="nein">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="nein">
       <formula>NOT(ISERROR(SEARCH("nein",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="Ja">
+    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="Ja">
       <formula>NOT(ISERROR(SEARCH("Ja",C16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="10">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>IST($E$35:$E$49="Ja")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="Ja">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="Ja">
       <formula>NOT(ISERROR(SEARCH("Ja",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:M45">
-    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" stopIfTrue="1" operator="equal">
       <formula>"offen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" stopIfTrue="1" operator="equal">
       <formula>"erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:L45 I17:I45 L12:L14 I12:I14">
-    <cfRule type="cellIs" dxfId="13" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:E10">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17314,36 +17395,36 @@
     <mergeCell ref="AD8:AK8"/>
   </mergeCells>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="nein">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="nein">
       <formula>NOT(ISERROR(SEARCH("nein",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Ja">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Ja">
       <formula>NOT(ISERROR(SEARCH("Ja",C16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>IST($E$35:$E$49="Ja")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="Ja">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Ja">
       <formula>NOT(ISERROR(SEARCH("Ja",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:M45">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="equal">
       <formula>"offen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
       <formula>"erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:L45 I17:I45 L12:L14 I12:I14">
-    <cfRule type="cellIs" dxfId="5" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:E10">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17767,7 +17848,7 @@
     <mergeCell ref="G11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:F3 D2 N2:R3">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18456,15 +18537,15 @@
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="H6:H31">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
       <formula>"offen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
       <formula>"erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I31">
-    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18505,8 +18586,8 @@
   </sheetPr>
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83:G83"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -18658,7 +18739,7 @@
       </c>
       <c r="C9" s="544"/>
       <c r="D9" s="545" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E9" s="546"/>
       <c r="F9" s="546"/>
@@ -18793,7 +18874,7 @@
     <row r="19" spans="1:10" ht="18.75">
       <c r="A19" s="376"/>
       <c r="B19" s="493" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C19" s="539"/>
       <c r="D19" s="539"/>
@@ -18901,7 +18982,7 @@
     <row r="27" spans="1:10" ht="36.75" customHeight="1">
       <c r="A27" s="376"/>
       <c r="B27" s="493" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C27" s="494"/>
       <c r="D27" s="494"/>
@@ -18917,7 +18998,7 @@
     <row r="28" spans="1:10" ht="18.75">
       <c r="A28" s="376"/>
       <c r="B28" s="493" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C28" s="494"/>
       <c r="D28" s="494"/>
@@ -18933,14 +19014,14 @@
     <row r="29" spans="1:10" ht="39" customHeight="1">
       <c r="A29" s="376"/>
       <c r="B29" s="493" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C29" s="494"/>
       <c r="D29" s="494"/>
       <c r="E29" s="494"/>
       <c r="F29" s="495"/>
       <c r="G29" s="508" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H29" s="508"/>
       <c r="I29" s="508"/>
@@ -18949,14 +19030,14 @@
     <row r="30" spans="1:10" ht="18.75">
       <c r="A30" s="376"/>
       <c r="B30" s="493" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C30" s="494"/>
       <c r="D30" s="494"/>
       <c r="E30" s="494"/>
       <c r="F30" s="495"/>
       <c r="G30" s="508" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H30" s="508"/>
       <c r="I30" s="508"/>
@@ -18965,7 +19046,7 @@
     <row r="31" spans="1:10" ht="18.75">
       <c r="A31" s="376"/>
       <c r="B31" s="493" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C31" s="494"/>
       <c r="D31" s="494"/>
@@ -19069,7 +19150,7 @@
     <row r="39" spans="1:10">
       <c r="A39" s="376"/>
       <c r="B39" s="514" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C39" s="515"/>
       <c r="D39" s="515"/>
@@ -19471,7 +19552,7 @@
     <row r="69" spans="1:10">
       <c r="A69" s="376"/>
       <c r="B69" s="514" t="s">
-        <v>231</v>
+        <v>407</v>
       </c>
       <c r="C69" s="515"/>
       <c r="D69" s="515"/>
@@ -19535,7 +19616,7 @@
     <row r="74" spans="1:10">
       <c r="A74" s="376"/>
       <c r="B74" s="514" t="s">
-        <v>232</v>
+        <v>408</v>
       </c>
       <c r="C74" s="515"/>
       <c r="D74" s="515"/>
@@ -19682,7 +19763,7 @@
         <v>88</v>
       </c>
       <c r="I83" s="125" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J83" s="377"/>
     </row>
@@ -19692,21 +19773,21 @@
         <v>122</v>
       </c>
       <c r="C84" s="506" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D84" s="507"/>
       <c r="E84" s="126" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F84" s="506" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G84" s="507"/>
       <c r="H84" s="126" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I84" s="125" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J84" s="377"/>
     </row>
@@ -19739,7 +19820,7 @@
     <row r="87" spans="1:10" ht="18.75">
       <c r="A87" s="376"/>
       <c r="B87" s="535" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C87" s="536"/>
       <c r="D87" s="536"/>
@@ -19753,7 +19834,7 @@
     <row r="88" spans="1:10" ht="18.75">
       <c r="A88" s="376"/>
       <c r="B88" s="535" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C88" s="536"/>
       <c r="D88" s="536"/>
@@ -19767,7 +19848,7 @@
     <row r="89" spans="1:10" ht="18.75">
       <c r="A89" s="376"/>
       <c r="B89" s="529" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C89" s="529"/>
       <c r="D89" s="529"/>
@@ -19863,18 +19944,18 @@
     <row r="96" spans="1:10" ht="37.5">
       <c r="A96" s="376"/>
       <c r="B96" s="127" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C96" s="525" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D96" s="525"/>
       <c r="E96" s="525" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F96" s="525"/>
       <c r="G96" s="526" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H96" s="526"/>
       <c r="I96" s="128"/>
@@ -19883,18 +19964,18 @@
     <row r="97" spans="1:10" ht="75">
       <c r="A97" s="376"/>
       <c r="B97" s="127" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C97" s="525" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D97" s="525"/>
       <c r="E97" s="525" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F97" s="525"/>
       <c r="G97" s="526" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H97" s="526"/>
       <c r="I97" s="128"/>
@@ -19903,18 +19984,18 @@
     <row r="98" spans="1:10" ht="56.25">
       <c r="A98" s="376"/>
       <c r="B98" s="127" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C98" s="525" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D98" s="525"/>
       <c r="E98" s="525" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F98" s="525"/>
       <c r="G98" s="526" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H98" s="526"/>
       <c r="I98" s="128"/>
@@ -19923,18 +20004,18 @@
     <row r="99" spans="1:10" ht="37.5">
       <c r="A99" s="376"/>
       <c r="B99" s="127" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C99" s="525" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D99" s="525"/>
       <c r="E99" s="525" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F99" s="525"/>
       <c r="G99" s="526" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H99" s="526"/>
       <c r="I99" s="128"/>
@@ -19943,18 +20024,18 @@
     <row r="100" spans="1:10" ht="37.5">
       <c r="A100" s="376"/>
       <c r="B100" s="127" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C100" s="525" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D100" s="525"/>
       <c r="E100" s="525" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F100" s="525"/>
       <c r="G100" s="526" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H100" s="526"/>
       <c r="I100" s="128"/>
@@ -19963,18 +20044,18 @@
     <row r="101" spans="1:10">
       <c r="A101" s="376"/>
       <c r="B101" s="121" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C101" s="527" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D101" s="527"/>
       <c r="E101" s="527" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F101" s="527"/>
       <c r="G101" s="528" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H101" s="528"/>
       <c r="I101" s="88"/>
@@ -19983,18 +20064,18 @@
     <row r="102" spans="1:10" ht="30">
       <c r="A102" s="376"/>
       <c r="B102" s="121" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C102" s="527" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D102" s="527"/>
       <c r="E102" s="527" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F102" s="527"/>
       <c r="G102" s="528" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H102" s="528"/>
       <c r="I102" s="88"/>
@@ -20214,7 +20295,7 @@
   </sheetPr>
   <dimension ref="A1:AN50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="E27" sqref="E27:G27"/>
     </sheetView>
   </sheetViews>
@@ -20323,7 +20404,7 @@
         <v>Anbindung von Fremdmaschinen in das Uhlmann SCADA System</v>
       </c>
       <c r="E3" s="175"/>
-      <c r="F3" s="584" t="s">
+      <c r="F3" s="573" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="271" t="str">
@@ -20365,7 +20446,7 @@
         <v>Pharmazeutischer Konzern spezialisiert auf Insulin</v>
       </c>
       <c r="E4" s="175"/>
-      <c r="F4" s="585"/>
+      <c r="F4" s="574"/>
       <c r="G4" s="271" t="str">
         <f>Übersicht!D12</f>
         <v>Herr Eckert (Uhlmann Maschinen)</v>
@@ -20405,7 +20486,7 @@
         <v>503703186</v>
       </c>
       <c r="E5" s="175"/>
-      <c r="F5" s="585"/>
+      <c r="F5" s="574"/>
       <c r="G5" s="271" t="str">
         <f>Übersicht!D13</f>
         <v>Herr Oliver (Pester Maschinen)</v>
@@ -20445,7 +20526,7 @@
         <v>Herr Merk</v>
       </c>
       <c r="E6" s="175"/>
-      <c r="F6" s="585"/>
+      <c r="F6" s="574"/>
       <c r="G6" s="271">
         <f>Übersicht!D14</f>
         <v>0</v>
@@ -20485,7 +20566,7 @@
         <v>Herr Braun</v>
       </c>
       <c r="E7" s="175"/>
-      <c r="F7" s="586"/>
+      <c r="F7" s="575"/>
       <c r="G7" s="271">
         <f>Übersicht!D15</f>
         <v>0</v>
@@ -20557,10 +20638,10 @@
       <c r="C9" s="274" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="577" t="s">
+      <c r="D9" s="590" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="578"/>
+      <c r="E9" s="591"/>
       <c r="F9" s="175"/>
       <c r="G9" s="175"/>
       <c r="H9" s="280"/>
@@ -20632,21 +20713,21 @@
       <c r="D11" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="573" t="s">
+      <c r="E11" s="586" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="574"/>
-      <c r="G11" s="575"/>
-      <c r="H11" s="587" t="s">
+      <c r="F11" s="587"/>
+      <c r="G11" s="588"/>
+      <c r="H11" s="576" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="588"/>
-      <c r="J11" s="589" t="s">
+      <c r="I11" s="577"/>
+      <c r="J11" s="578" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="590"/>
-      <c r="L11" s="590"/>
-      <c r="M11" s="591"/>
+      <c r="K11" s="579"/>
+      <c r="L11" s="579"/>
+      <c r="M11" s="580"/>
       <c r="N11" s="154" t="s">
         <v>119</v>
       </c>
@@ -20678,16 +20759,16 @@
       <c r="B12" s="162">
         <v>1</v>
       </c>
-      <c r="C12" s="579" t="s">
+      <c r="C12" s="592" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="580"/>
+      <c r="D12" s="593"/>
       <c r="E12" s="562" t="str">
         <f>Steckbrief!B19</f>
         <v>Anbindung von Fremdmaschinen in das Uhlmann SCADA System bis zum 30.01.2018 und unter Einhaltung des Budgets von 310.000€</v>
       </c>
       <c r="F12" s="563"/>
-      <c r="G12" s="576"/>
+      <c r="G12" s="589"/>
       <c r="H12" s="571"/>
       <c r="I12" s="572"/>
       <c r="J12" s="568"/>
@@ -20727,16 +20808,16 @@
         <v>54</v>
       </c>
       <c r="E13" s="562" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F13" s="563"/>
       <c r="G13" s="564"/>
-      <c r="H13" s="593">
+      <c r="H13" s="585">
         <v>15500</v>
       </c>
       <c r="I13" s="572"/>
-      <c r="J13" s="583" t="s">
-        <v>265</v>
+      <c r="J13" s="584" t="s">
+        <v>262</v>
       </c>
       <c r="K13" s="569"/>
       <c r="L13" s="569"/>
@@ -20744,7 +20825,7 @@
       <c r="N13" s="163"/>
       <c r="O13" s="293"/>
       <c r="P13" s="156" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="157" t="s">
         <v>77</v>
@@ -20778,24 +20859,24 @@
         <v>55</v>
       </c>
       <c r="E14" s="562" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F14" s="563"/>
       <c r="G14" s="564"/>
       <c r="H14" s="562" t="s">
-        <v>296</v>
-      </c>
-      <c r="I14" s="592"/>
+        <v>293</v>
+      </c>
+      <c r="I14" s="581"/>
       <c r="J14" s="568" t="s">
-        <v>295</v>
-      </c>
-      <c r="K14" s="581"/>
-      <c r="L14" s="581"/>
-      <c r="M14" s="582"/>
+        <v>292</v>
+      </c>
+      <c r="K14" s="582"/>
+      <c r="L14" s="582"/>
+      <c r="M14" s="583"/>
       <c r="N14" s="163"/>
       <c r="O14" s="293"/>
       <c r="P14" s="156" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="157" t="s">
         <v>77</v>
@@ -20829,24 +20910,24 @@
         <v>55</v>
       </c>
       <c r="E15" s="562" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F15" s="563"/>
       <c r="G15" s="564"/>
       <c r="H15" s="562" t="s">
-        <v>296</v>
-      </c>
-      <c r="I15" s="592"/>
+        <v>293</v>
+      </c>
+      <c r="I15" s="581"/>
       <c r="J15" s="568" t="s">
-        <v>295</v>
-      </c>
-      <c r="K15" s="581"/>
-      <c r="L15" s="581"/>
-      <c r="M15" s="582"/>
+        <v>292</v>
+      </c>
+      <c r="K15" s="582"/>
+      <c r="L15" s="582"/>
+      <c r="M15" s="583"/>
       <c r="N15" s="163"/>
       <c r="O15" s="293"/>
       <c r="P15" s="156" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q15" s="157" t="s">
         <v>77</v>
@@ -20880,24 +20961,24 @@
         <v>55</v>
       </c>
       <c r="E16" s="562" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F16" s="563"/>
       <c r="G16" s="564"/>
       <c r="H16" s="562" t="s">
-        <v>296</v>
-      </c>
-      <c r="I16" s="592"/>
+        <v>293</v>
+      </c>
+      <c r="I16" s="581"/>
       <c r="J16" s="568" t="s">
-        <v>295</v>
-      </c>
-      <c r="K16" s="581"/>
-      <c r="L16" s="581"/>
-      <c r="M16" s="582"/>
+        <v>292</v>
+      </c>
+      <c r="K16" s="582"/>
+      <c r="L16" s="582"/>
+      <c r="M16" s="583"/>
       <c r="N16" s="163"/>
       <c r="O16" s="287"/>
       <c r="P16" s="156" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q16" s="157" t="s">
         <v>77</v>
@@ -20931,24 +21012,24 @@
         <v>55</v>
       </c>
       <c r="E17" s="562" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F17" s="563"/>
       <c r="G17" s="564"/>
       <c r="H17" s="562" t="s">
-        <v>296</v>
-      </c>
-      <c r="I17" s="592"/>
+        <v>293</v>
+      </c>
+      <c r="I17" s="581"/>
       <c r="J17" s="568" t="s">
-        <v>295</v>
-      </c>
-      <c r="K17" s="581"/>
-      <c r="L17" s="581"/>
-      <c r="M17" s="582"/>
+        <v>292</v>
+      </c>
+      <c r="K17" s="582"/>
+      <c r="L17" s="582"/>
+      <c r="M17" s="583"/>
       <c r="N17" s="163"/>
       <c r="O17" s="287"/>
       <c r="P17" s="156" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="157" t="s">
         <v>77</v>
@@ -20982,16 +21063,16 @@
         <v>55</v>
       </c>
       <c r="E18" s="562" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F18" s="563"/>
       <c r="G18" s="564"/>
       <c r="H18" s="571" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I18" s="572"/>
-      <c r="J18" s="583" t="s">
-        <v>288</v>
+      <c r="J18" s="584" t="s">
+        <v>285</v>
       </c>
       <c r="K18" s="569"/>
       <c r="L18" s="569"/>
@@ -20999,7 +21080,7 @@
       <c r="N18" s="163"/>
       <c r="O18" s="293"/>
       <c r="P18" s="156" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q18" s="157" t="s">
         <v>77</v>
@@ -21033,16 +21114,16 @@
         <v>55</v>
       </c>
       <c r="E19" s="562" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F19" s="563"/>
       <c r="G19" s="564"/>
       <c r="H19" s="571" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I19" s="572"/>
-      <c r="J19" s="583" t="s">
-        <v>288</v>
+      <c r="J19" s="584" t="s">
+        <v>285</v>
       </c>
       <c r="K19" s="569"/>
       <c r="L19" s="569"/>
@@ -21050,7 +21131,7 @@
       <c r="N19" s="163"/>
       <c r="O19" s="293"/>
       <c r="P19" s="156" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="157" t="s">
         <v>77</v>
@@ -21084,16 +21165,16 @@
         <v>55</v>
       </c>
       <c r="E20" s="562" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F20" s="563"/>
       <c r="G20" s="564"/>
       <c r="H20" s="562" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I20" s="572"/>
       <c r="J20" s="568" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K20" s="569"/>
       <c r="L20" s="569"/>
@@ -21101,7 +21182,7 @@
       <c r="N20" s="163"/>
       <c r="O20" s="293"/>
       <c r="P20" s="156" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="157" t="s">
         <v>77</v>
@@ -21389,16 +21470,16 @@
         <v>56</v>
       </c>
       <c r="E27" s="562" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F27" s="563"/>
       <c r="G27" s="564"/>
       <c r="H27" s="562" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I27" s="572"/>
-      <c r="J27" s="583" t="s">
-        <v>299</v>
+      <c r="J27" s="584" t="s">
+        <v>296</v>
       </c>
       <c r="K27" s="569"/>
       <c r="L27" s="569"/>
@@ -21406,7 +21487,7 @@
       <c r="N27" s="163"/>
       <c r="O27" s="293"/>
       <c r="P27" s="156" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q27" s="157" t="s">
         <v>108</v>
@@ -21446,16 +21527,16 @@
         <v>179</v>
       </c>
       <c r="E28" s="562" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F28" s="563"/>
       <c r="G28" s="564"/>
       <c r="H28" s="571" t="s">
+        <v>282</v>
+      </c>
+      <c r="I28" s="572"/>
+      <c r="J28" s="584" t="s">
         <v>285</v>
-      </c>
-      <c r="I28" s="572"/>
-      <c r="J28" s="583" t="s">
-        <v>288</v>
       </c>
       <c r="K28" s="569"/>
       <c r="L28" s="569"/>
@@ -21463,7 +21544,7 @@
       <c r="N28" s="163"/>
       <c r="O28" s="293"/>
       <c r="P28" s="156" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q28" s="157" t="s">
         <v>77</v>
@@ -21503,16 +21584,16 @@
         <v>179</v>
       </c>
       <c r="E29" s="562" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F29" s="563"/>
       <c r="G29" s="564"/>
       <c r="H29" s="571" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I29" s="572"/>
-      <c r="J29" s="583" t="s">
-        <v>287</v>
+      <c r="J29" s="584" t="s">
+        <v>284</v>
       </c>
       <c r="K29" s="569"/>
       <c r="L29" s="569"/>
@@ -21520,7 +21601,7 @@
       <c r="N29" s="163"/>
       <c r="O29" s="293"/>
       <c r="P29" s="156" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q29" s="157" t="s">
         <v>77</v>
@@ -21560,16 +21641,16 @@
         <v>179</v>
       </c>
       <c r="E30" s="562" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F30" s="563"/>
       <c r="G30" s="564"/>
       <c r="H30" s="571" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I30" s="572"/>
-      <c r="J30" s="583" t="s">
-        <v>290</v>
+      <c r="J30" s="584" t="s">
+        <v>287</v>
       </c>
       <c r="K30" s="569"/>
       <c r="L30" s="569"/>
@@ -21577,7 +21658,7 @@
       <c r="N30" s="163"/>
       <c r="O30" s="287"/>
       <c r="P30" s="156" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q30" s="157" t="s">
         <v>77</v>
@@ -21617,16 +21698,16 @@
         <v>179</v>
       </c>
       <c r="E31" s="562" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F31" s="563"/>
       <c r="G31" s="564"/>
       <c r="H31" s="571" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I31" s="572"/>
-      <c r="J31" s="583" t="s">
-        <v>292</v>
+      <c r="J31" s="584" t="s">
+        <v>289</v>
       </c>
       <c r="K31" s="569"/>
       <c r="L31" s="569"/>
@@ -21634,7 +21715,7 @@
       <c r="N31" s="163"/>
       <c r="O31" s="287"/>
       <c r="P31" s="156" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q31" s="157" t="s">
         <v>108</v>
@@ -21674,16 +21755,16 @@
         <v>179</v>
       </c>
       <c r="E32" s="562" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F32" s="563"/>
       <c r="G32" s="564"/>
       <c r="H32" s="571" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I32" s="572"/>
-      <c r="J32" s="583" t="s">
-        <v>294</v>
+      <c r="J32" s="584" t="s">
+        <v>291</v>
       </c>
       <c r="K32" s="569"/>
       <c r="L32" s="569"/>
@@ -21691,7 +21772,7 @@
       <c r="N32" s="163"/>
       <c r="O32" s="293"/>
       <c r="P32" s="156" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q32" s="157" t="s">
         <v>108</v>
@@ -21780,16 +21861,16 @@
         <v>60</v>
       </c>
       <c r="E34" s="562" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F34" s="563"/>
       <c r="G34" s="564"/>
       <c r="H34" s="571" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I34" s="572"/>
-      <c r="J34" s="583" t="s">
-        <v>265</v>
+      <c r="J34" s="584" t="s">
+        <v>262</v>
       </c>
       <c r="K34" s="569"/>
       <c r="L34" s="569"/>
@@ -21797,7 +21878,7 @@
       <c r="N34" s="163"/>
       <c r="O34" s="293"/>
       <c r="P34" s="156" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q34" s="157" t="s">
         <v>77</v>
@@ -21876,7 +21957,7 @@
       </c>
       <c r="D36" s="168"/>
       <c r="E36" s="562" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F36" s="563"/>
       <c r="G36" s="564"/>
@@ -21915,7 +21996,7 @@
       </c>
       <c r="D37" s="168"/>
       <c r="E37" s="562" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F37" s="563"/>
       <c r="G37" s="564"/>
@@ -22061,12 +22142,6 @@
     <mergeCell ref="Z32:AB32"/>
     <mergeCell ref="J32:M32"/>
     <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:M29"/>
     <mergeCell ref="J33:M33"/>
     <mergeCell ref="J12:M12"/>
     <mergeCell ref="J34:M34"/>
@@ -22079,8 +22154,6 @@
     <mergeCell ref="J30:M30"/>
     <mergeCell ref="J31:M31"/>
     <mergeCell ref="J21:M21"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="E29:G29"/>
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="E31:G31"/>
     <mergeCell ref="E32:G32"/>
@@ -22097,9 +22170,13 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
@@ -22108,7 +22185,9 @@
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="E37:G37"/>
     <mergeCell ref="J36:M36"/>
     <mergeCell ref="J37:M37"/>
@@ -22131,6 +22210,8 @@
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="H28:I28"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E29:G29"/>
     <mergeCell ref="Z33:AB33"/>
     <mergeCell ref="Z29:AB29"/>
     <mergeCell ref="Z30:AB30"/>
@@ -22196,7 +22277,7 @@
       <c r="A3" s="367"/>
       <c r="B3" s="365"/>
       <c r="C3" s="468" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D3" s="365"/>
       <c r="E3" s="366"/>
@@ -22221,10 +22302,10 @@
         <v>68</v>
       </c>
       <c r="C5" s="465" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D5" s="89" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E5" s="369"/>
       <c r="H5" s="130"/>
@@ -22236,10 +22317,10 @@
         <v>69</v>
       </c>
       <c r="C6" s="467" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D6" s="466" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E6" s="369"/>
     </row>
@@ -22758,7 +22839,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="137" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D12" s="604">
         <v>1</v>
@@ -22768,13 +22849,13 @@
         <v>8</v>
       </c>
       <c r="G12" s="606" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H12" s="607"/>
       <c r="I12" s="607"/>
       <c r="J12" s="607"/>
       <c r="K12" s="620" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L12" s="621"/>
       <c r="M12" s="621"/>
@@ -22783,7 +22864,7 @@
       <c r="P12" s="621"/>
       <c r="Q12" s="357"/>
       <c r="R12" s="144" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="S12" s="139"/>
       <c r="T12" s="339"/>
@@ -22794,7 +22875,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="137" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D13" s="604">
         <v>1</v>
@@ -22804,13 +22885,13 @@
         <v>1</v>
       </c>
       <c r="G13" s="606" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H13" s="607"/>
       <c r="I13" s="607"/>
       <c r="J13" s="607"/>
       <c r="K13" s="620" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L13" s="621"/>
       <c r="M13" s="621"/>
@@ -22819,7 +22900,7 @@
       <c r="P13" s="621"/>
       <c r="Q13" s="357"/>
       <c r="R13" s="144" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="S13" s="140"/>
       <c r="T13" s="339"/>
@@ -22830,7 +22911,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="137" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D14" s="604">
         <v>1</v>
@@ -22840,13 +22921,13 @@
         <v>10</v>
       </c>
       <c r="G14" s="606" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H14" s="607"/>
       <c r="I14" s="607"/>
       <c r="J14" s="607"/>
       <c r="K14" s="620" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L14" s="621"/>
       <c r="M14" s="621"/>
@@ -22855,7 +22936,7 @@
       <c r="P14" s="621"/>
       <c r="Q14" s="357"/>
       <c r="R14" s="144" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="S14" s="140"/>
       <c r="T14" s="339"/>
@@ -22866,7 +22947,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="137" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D15" s="141">
         <v>5</v>
@@ -22876,13 +22957,13 @@
         <v>10</v>
       </c>
       <c r="G15" s="606" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H15" s="607"/>
       <c r="I15" s="607"/>
       <c r="J15" s="607"/>
       <c r="K15" s="620" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L15" s="621"/>
       <c r="M15" s="621"/>
@@ -22891,7 +22972,7 @@
       <c r="P15" s="621"/>
       <c r="Q15" s="357"/>
       <c r="R15" s="144" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="S15" s="139">
         <v>42714</v>
@@ -22904,7 +22985,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="137" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D16" s="141">
         <v>1</v>
@@ -22914,13 +22995,13 @@
         <v>1</v>
       </c>
       <c r="G16" s="606" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H16" s="607"/>
       <c r="I16" s="607"/>
       <c r="J16" s="607"/>
       <c r="K16" s="620" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L16" s="621"/>
       <c r="M16" s="621"/>
@@ -22929,7 +23010,7 @@
       <c r="P16" s="621"/>
       <c r="Q16" s="357"/>
       <c r="R16" s="144" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="S16" s="139">
         <v>42716</v>
@@ -22942,7 +23023,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="137" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D17" s="141">
         <v>1</v>
@@ -22952,13 +23033,13 @@
         <v>10</v>
       </c>
       <c r="G17" s="606" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H17" s="607"/>
       <c r="I17" s="607"/>
       <c r="J17" s="607"/>
       <c r="K17" s="620" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L17" s="621"/>
       <c r="M17" s="621"/>
@@ -22967,7 +23048,7 @@
       <c r="P17" s="621"/>
       <c r="Q17" s="357"/>
       <c r="R17" s="144" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="S17" s="140"/>
       <c r="T17" s="339"/>
@@ -22978,7 +23059,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="137" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D18" s="141">
         <v>3</v>
@@ -22988,13 +23069,13 @@
         <v>3</v>
       </c>
       <c r="G18" s="606" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H18" s="607"/>
       <c r="I18" s="607"/>
       <c r="J18" s="607"/>
       <c r="K18" s="620" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L18" s="621"/>
       <c r="M18" s="621"/>
@@ -23003,7 +23084,7 @@
       <c r="P18" s="621"/>
       <c r="Q18" s="357"/>
       <c r="R18" s="144" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="S18" s="139">
         <v>42715</v>
@@ -23016,7 +23097,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="137" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D19" s="604">
         <v>3</v>
@@ -23026,13 +23107,13 @@
         <v>3</v>
       </c>
       <c r="G19" s="606" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H19" s="607"/>
       <c r="I19" s="607"/>
       <c r="J19" s="607"/>
       <c r="K19" s="620" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L19" s="621"/>
       <c r="M19" s="621"/>
@@ -23041,7 +23122,7 @@
       <c r="P19" s="621"/>
       <c r="Q19" s="357"/>
       <c r="R19" s="144" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="S19" s="139">
         <v>42715</v>
@@ -23626,7 +23707,7 @@
       <c r="K3" s="267"/>
       <c r="L3" s="267"/>
       <c r="M3" s="296"/>
-      <c r="N3" s="584" t="s">
+      <c r="N3" s="573" t="s">
         <v>3</v>
       </c>
       <c r="O3" s="271" t="str">
@@ -23669,7 +23750,7 @@
       <c r="K4" s="267"/>
       <c r="L4" s="267"/>
       <c r="M4" s="296"/>
-      <c r="N4" s="585"/>
+      <c r="N4" s="574"/>
       <c r="O4" s="271" t="str">
         <f>Übersicht!D12</f>
         <v>Herr Eckert (Uhlmann Maschinen)</v>
@@ -23722,7 +23803,7 @@
       <c r="K5" s="267"/>
       <c r="L5" s="267"/>
       <c r="M5" s="296"/>
-      <c r="N5" s="585"/>
+      <c r="N5" s="574"/>
       <c r="O5" s="271" t="str">
         <f>Übersicht!D13</f>
         <v>Herr Oliver (Pester Maschinen)</v>
@@ -23775,7 +23856,7 @@
       <c r="K6" s="267"/>
       <c r="L6" s="267"/>
       <c r="M6" s="296"/>
-      <c r="N6" s="585"/>
+      <c r="N6" s="574"/>
       <c r="O6" s="271">
         <f>Übersicht!D14</f>
         <v>0</v>
@@ -23828,7 +23909,7 @@
       <c r="K7" s="267"/>
       <c r="L7" s="267"/>
       <c r="M7" s="296"/>
-      <c r="N7" s="586"/>
+      <c r="N7" s="575"/>
       <c r="O7" s="271">
         <f>Übersicht!D15</f>
         <v>0</v>
@@ -24060,10 +24141,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="112" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D12" s="628" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E12" s="629"/>
       <c r="F12" s="629"/>
@@ -24085,7 +24166,7 @@
         <v>2000</v>
       </c>
       <c r="Q12" s="115" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="R12" s="116"/>
       <c r="S12" s="305">
@@ -24095,7 +24176,7 @@
         <v>79</v>
       </c>
       <c r="U12" s="90" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="V12" s="91">
         <v>42765</v>
@@ -24109,10 +24190,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="113" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D13" s="628" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E13" s="629"/>
       <c r="F13" s="629"/>
@@ -24135,7 +24216,7 @@
       </c>
       <c r="Q13" s="115"/>
       <c r="R13" s="115" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="S13" s="306">
         <v>2</v>
@@ -24154,10 +24235,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="113" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D14" s="628" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E14" s="629"/>
       <c r="F14" s="629"/>
@@ -24179,7 +24260,7 @@
         <v>250</v>
       </c>
       <c r="Q14" s="115" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="R14" s="117"/>
       <c r="S14" s="305">
@@ -24189,7 +24270,7 @@
         <v>79</v>
       </c>
       <c r="U14" s="90" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="V14" s="91">
         <v>42765</v>
@@ -24203,10 +24284,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="113" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D15" s="628" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E15" s="629"/>
       <c r="F15" s="629"/>
@@ -24228,7 +24309,7 @@
         <v>9000</v>
       </c>
       <c r="Q15" s="115" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="R15" s="117"/>
       <c r="S15" s="305">
@@ -24238,7 +24319,7 @@
         <v>79</v>
       </c>
       <c r="U15" s="90" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="V15" s="91">
         <v>42765</v>
@@ -24895,7 +24976,7 @@
         <v>12500</v>
       </c>
       <c r="N37" s="317" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O37" s="174"/>
       <c r="P37" s="174"/>
@@ -25489,7 +25570,7 @@
     <mergeCell ref="D6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="R5:T7 R3:T3">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25625,7 +25706,7 @@
       <c r="K3" s="267"/>
       <c r="L3" s="267"/>
       <c r="M3" s="296"/>
-      <c r="N3" s="584" t="s">
+      <c r="N3" s="573" t="s">
         <v>3</v>
       </c>
       <c r="O3" s="271" t="str">
@@ -25668,7 +25749,7 @@
       <c r="K4" s="267"/>
       <c r="L4" s="267"/>
       <c r="M4" s="296"/>
-      <c r="N4" s="585"/>
+      <c r="N4" s="574"/>
       <c r="O4" s="271" t="str">
         <f>Übersicht!D12</f>
         <v>Herr Eckert (Uhlmann Maschinen)</v>
@@ -25721,7 +25802,7 @@
       <c r="K5" s="267"/>
       <c r="L5" s="267"/>
       <c r="M5" s="296"/>
-      <c r="N5" s="585"/>
+      <c r="N5" s="574"/>
       <c r="O5" s="271" t="str">
         <f>Übersicht!D13</f>
         <v>Herr Oliver (Pester Maschinen)</v>
@@ -25774,7 +25855,7 @@
       <c r="K6" s="267"/>
       <c r="L6" s="267"/>
       <c r="M6" s="296"/>
-      <c r="N6" s="585"/>
+      <c r="N6" s="574"/>
       <c r="O6" s="271">
         <f>Übersicht!D14</f>
         <v>0</v>
@@ -25827,7 +25908,7 @@
       <c r="K7" s="267"/>
       <c r="L7" s="267"/>
       <c r="M7" s="296"/>
-      <c r="N7" s="586"/>
+      <c r="N7" s="575"/>
       <c r="O7" s="271">
         <f>Übersicht!D15</f>
         <v>0</v>
@@ -26059,10 +26140,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="112" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D12" s="628" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E12" s="629"/>
       <c r="F12" s="629"/>
@@ -26084,7 +26165,7 @@
         <v>250000</v>
       </c>
       <c r="Q12" s="115" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="R12" s="116"/>
       <c r="S12" s="305">
@@ -26094,7 +26175,7 @@
         <v>79</v>
       </c>
       <c r="U12" s="90" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="V12" s="91">
         <v>42975</v>
@@ -26126,7 +26207,7 @@
       </c>
       <c r="Q13" s="115"/>
       <c r="R13" s="115" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="S13" s="306">
         <v>2</v>
@@ -26135,7 +26216,7 @@
         <v>79</v>
       </c>
       <c r="U13" s="90" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="V13" s="91">
         <v>43116</v>
@@ -27426,7 +27507,7 @@
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="R5:T7 R3:T3">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27777,7 +27858,7 @@
       <c r="R11" s="296"/>
       <c r="S11" s="335"/>
       <c r="AA11" s="137" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="32.25" customHeight="1">
@@ -27786,23 +27867,23 @@
         <v>1</v>
       </c>
       <c r="C12" s="137" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D12" s="658" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E12" s="659"/>
       <c r="F12" s="38" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G12" s="654" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H12" s="655"/>
       <c r="I12" s="655"/>
       <c r="J12" s="655"/>
       <c r="K12" s="656" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L12" s="657"/>
       <c r="M12" s="657"/>
@@ -27813,7 +27894,7 @@
       <c r="R12" s="296"/>
       <c r="S12" s="335"/>
       <c r="AA12" s="137" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="32.25" customHeight="1">
@@ -27822,17 +27903,17 @@
         <v>2</v>
       </c>
       <c r="C13" s="137" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D13" s="658" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E13" s="659"/>
       <c r="F13" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="G13" s="654" t="s">
         <v>350</v>
-      </c>
-      <c r="G13" s="654" t="s">
-        <v>353</v>
       </c>
       <c r="H13" s="655"/>
       <c r="I13" s="655"/>
@@ -27847,7 +27928,7 @@
       <c r="R13" s="296"/>
       <c r="S13" s="335"/>
       <c r="AA13" s="137" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="32.25" customHeight="1">
@@ -27856,23 +27937,23 @@
         <v>3</v>
       </c>
       <c r="C14" s="137" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D14" s="658" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E14" s="659"/>
       <c r="F14" s="38" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G14" s="654" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H14" s="655"/>
       <c r="I14" s="655"/>
       <c r="J14" s="655"/>
       <c r="K14" s="656" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L14" s="657"/>
       <c r="M14" s="657"/>
@@ -27883,7 +27964,7 @@
       <c r="R14" s="296"/>
       <c r="S14" s="335"/>
       <c r="AA14" s="137" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="32.25" customHeight="1">
@@ -27892,23 +27973,23 @@
         <v>4</v>
       </c>
       <c r="C15" s="137" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D15" s="122" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E15" s="123"/>
       <c r="F15" s="38" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G15" s="654" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H15" s="655"/>
       <c r="I15" s="655"/>
       <c r="J15" s="655"/>
       <c r="K15" s="656" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L15" s="657"/>
       <c r="M15" s="657"/>
@@ -27919,7 +28000,7 @@
       <c r="R15" s="296"/>
       <c r="S15" s="335"/>
       <c r="AA15" s="137" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="32.25" customHeight="1">
@@ -27928,23 +28009,23 @@
         <v>5</v>
       </c>
       <c r="C16" s="137" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D16" s="122" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E16" s="123"/>
       <c r="F16" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G16" s="654" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H16" s="655"/>
       <c r="I16" s="655"/>
       <c r="J16" s="655"/>
       <c r="K16" s="656" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L16" s="657"/>
       <c r="M16" s="657"/>
@@ -27955,7 +28036,7 @@
       <c r="R16" s="296"/>
       <c r="S16" s="335"/>
       <c r="AA16" s="137" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="32.25" customHeight="1">
@@ -27964,23 +28045,23 @@
         <v>6</v>
       </c>
       <c r="C17" s="137" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D17" s="122" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E17" s="123"/>
       <c r="F17" s="38" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G17" s="654" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H17" s="655"/>
       <c r="I17" s="655"/>
       <c r="J17" s="655"/>
       <c r="K17" s="656" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L17" s="657"/>
       <c r="M17" s="657"/>
@@ -27991,7 +28072,7 @@
       <c r="R17" s="296"/>
       <c r="S17" s="335"/>
       <c r="AA17" s="470" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="32.25" customHeight="1">
@@ -28017,7 +28098,7 @@
       <c r="R18" s="296"/>
       <c r="S18" s="335"/>
       <c r="AA18" s="137" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="32.25" customHeight="1">
@@ -28208,7 +28289,7 @@
       </c>
       <c r="B1" s="393"/>
       <c r="C1" s="264" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D1" s="264"/>
       <c r="E1" s="264"/>
@@ -28524,7 +28605,7 @@
     </row>
     <row r="3" spans="1:65">
       <c r="A3" s="398" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="392" t="s">
@@ -28595,7 +28676,7 @@
     </row>
     <row r="4" spans="1:65">
       <c r="A4" s="398" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B4" s="41"/>
       <c r="C4" s="266"/>
@@ -28664,7 +28745,7 @@
     </row>
     <row r="5" spans="1:65">
       <c r="A5" s="398" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -28734,7 +28815,7 @@
     </row>
     <row r="6" spans="1:65">
       <c r="A6" s="398" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -28803,7 +28884,7 @@
     </row>
     <row r="7" spans="1:65">
       <c r="A7" s="398" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
@@ -28873,7 +28954,7 @@
     </row>
     <row r="8" spans="1:65">
       <c r="A8" s="398" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
@@ -28942,7 +29023,7 @@
     </row>
     <row r="9" spans="1:65">
       <c r="A9" s="398" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
@@ -29013,7 +29094,7 @@
     </row>
     <row r="10" spans="1:65">
       <c r="A10" s="398" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
@@ -29082,7 +29163,7 @@
     </row>
     <row r="11" spans="1:65">
       <c r="A11" s="398" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
@@ -29153,7 +29234,7 @@
     </row>
     <row r="12" spans="1:65">
       <c r="A12" s="398" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -29222,7 +29303,7 @@
     </row>
     <row r="13" spans="1:65">
       <c r="A13" s="398" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
